--- a/Data/2_processed/reporte_variables.xlsx
+++ b/Data/2_processed/reporte_variables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="131">
   <si>
     <t>column</t>
   </si>
@@ -61,435 +61,333 @@
     <t>stationarity_p_value</t>
   </si>
   <si>
-    <t>6M_change_PRICE_CNY_USD_Spot_exchange_rate</t>
-  </si>
-  <si>
-    <t>rolling_std_PRICE_JPY_USD_Spot_exchange_rate</t>
-  </si>
-  <si>
-    <t>6M_change_PRICE_CAD_USD_Spot_exchange_rate</t>
+    <t>MACD_signal_PRICE_CAD_USD_Spot_exchange_rate</t>
+  </si>
+  <si>
+    <t>rolling_std_PRICE_Shanghai_Composite_index_pricing</t>
+  </si>
+  <si>
+    <t>rolling_var_PRICE_Gold_Spot_commodities</t>
+  </si>
+  <si>
+    <t>3M_change_PRICE_EUR_GBP_Cross_exchange_rate</t>
+  </si>
+  <si>
+    <t>6M_change_PRICE_Shanghai_Composite_index_pricing</t>
+  </si>
+  <si>
+    <t>momentum_PRICE_JPY_USD_Spot_exchange_rate</t>
+  </si>
+  <si>
+    <t>3M_change_PRICE_Shanghai_Composite_index_pricing</t>
+  </si>
+  <si>
+    <t>rolling_var_AAA_Corporate_Bond_AAA_Spread_bond</t>
+  </si>
+  <si>
+    <t>MoM_PRICE_China_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>3M_change_PRICE_Platinum_Spot_commodities</t>
+  </si>
+  <si>
+    <t>MACD_signal_PRICE_EUR_GBP_Cross_exchange_rate</t>
+  </si>
+  <si>
+    <t>6M_change_PRICE_Japan_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>MACD_PRICE_Shanghai_Composite_index_pricing</t>
+  </si>
+  <si>
+    <t>MoM_PRICE_Australia_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>rolling_var_PRICE_EUR_USD_Spot_exchange_rate</t>
   </si>
   <si>
     <t>rolling_var_PRICE_Japan_10Y_Bond_bond</t>
   </si>
   <si>
+    <t>rolling_var_PRICE_CNY_USD_Spot_exchange_rate</t>
+  </si>
+  <si>
+    <t>momentum_PRICE_CrudeOil_WTI_commodities</t>
+  </si>
+  <si>
+    <t>MoM_PRICE_UK_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>MoM_PRICE_Japan_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>rolling_var_PRICE_CAD_USD_Spot_exchange_rate</t>
+  </si>
+  <si>
+    <t>momentum_PRICE_EUR_USD_Spot_exchange_rate</t>
+  </si>
+  <si>
+    <t>3M_change_PRICE_Japan_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>3M_change_PRICE_Germany_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>momentum_PRICE_CAD_USD_Spot_exchange_rate</t>
+  </si>
+  <si>
+    <t>rolling_var_PRICE_Platinum_Spot_commodities</t>
+  </si>
+  <si>
+    <t>YoY_PRICE_Germany_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>momentum_PRICE_Shanghai_Composite_index_pricing</t>
+  </si>
+  <si>
+    <t>zscore_AAA_Corporate_Bond_AAA_Spread_bond</t>
+  </si>
+  <si>
     <t>zscore_PRICE_CNY_USD_Spot_exchange_rate</t>
   </si>
   <si>
-    <t>3M_change_PRICE_CNY_USD_Spot_exchange_rate</t>
+    <t>rolling_var_PRICE_Australia_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>zscore_Actual_Japan_Leading_Indicator_leading_economic_index</t>
+  </si>
+  <si>
+    <t>log_diff_PRICE_JPY_USD_Spot_exchange_rate</t>
+  </si>
+  <si>
+    <t>zscore_PRICE_Japan_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>6M_change_PRICE_Platinum_Spot_commodities</t>
+  </si>
+  <si>
+    <t>momentum_PRICE_Gold_Spot_commodities</t>
+  </si>
+  <si>
+    <t>momentum_PRICE_MXN_USD_Spot_exchange_rate</t>
+  </si>
+  <si>
+    <t>YoY_PRICE_Japan_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>6M_change_PRICE_Germany_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>log_diff_PRICE_Germany_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>log_diff_PRICE_Italy_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>zscore_Actual_US_ConferenceBoard_LEI_leading_economic_index</t>
   </si>
   <si>
     <t>zscore_PRICE_Italy_10Y_Bond_bond</t>
   </si>
   <si>
-    <t>3M_change_PRICE_Italy_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>zscore_PRICE_CAD_USD_Spot_exchange_rate</t>
-  </si>
-  <si>
-    <t>zscore_AAA_Corporate_Bond_AAA_Spread_bond</t>
-  </si>
-  <si>
-    <t>3M_change_PRICE_CAD_USD_Spot_exchange_rate</t>
-  </si>
-  <si>
-    <t>rolling_std_AAA_Corporate_Bond_AAA_Spread_bond</t>
-  </si>
-  <si>
-    <t>rolling_std_PRICE_Copper_Futures_commodities</t>
-  </si>
-  <si>
-    <t>6M_change_PRICE_CrudeOil_WTI_commodities</t>
-  </si>
-  <si>
-    <t>zscore_PRICE_Australia_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>MACD_signal_PRICE_AUD_USD_Spot_exchange_rate</t>
-  </si>
-  <si>
-    <t>rolling_std_PRICE_CNY_USD_Spot_exchange_rate</t>
-  </si>
-  <si>
-    <t>zscore_Actual_US_ConferenceBoard_LEI_leading_economic_index</t>
-  </si>
-  <si>
-    <t>zscore_PRICE_UK_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>YTD_PRICE_Platinum_Spot_commodities</t>
-  </si>
-  <si>
-    <t>MACD_signal_PRICE_JPY_USD_Spot_exchange_rate</t>
-  </si>
-  <si>
-    <t>rolling_std_PRICE_GBP_USD_Spot_exchange_rate</t>
-  </si>
-  <si>
-    <t>MoM_PRICE_Italy_10Y_Bond_bond</t>
+    <t>rolling_var_PRICE_China_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>log_diff_PRICE_UK_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>log_diff_PRICE_China_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>log_diff_PRICE_Canada_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>momentum_PRICE_Silver_Spot_commodities</t>
   </si>
   <si>
     <t>momentum_PRICE_CNY_USD_Spot_exchange_rate</t>
   </si>
   <si>
-    <t>zscore_PRICE_JPY_USD_Spot_exchange_rate</t>
-  </si>
-  <si>
-    <t>3M_change_PRICE_CrudeOil_WTI_commodities</t>
-  </si>
-  <si>
-    <t>zscore_PRICE_Japan_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>6M_change_PRICE_EUR_GBP_Cross_exchange_rate</t>
-  </si>
-  <si>
-    <t>zscore_PRICE_EUR_GBP_Cross_exchange_rate</t>
-  </si>
-  <si>
-    <t>YoY_PRICE_UK_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>zscore_PRICE_Shanghai_Composite_index_pricing</t>
-  </si>
-  <si>
-    <t>MACD_signal_PRICE_EUR_USD_Spot_exchange_rate</t>
-  </si>
-  <si>
-    <t>zscore_PRICE_Copper_Futures_commodities</t>
-  </si>
-  <si>
-    <t>rolling_std_PRICE_Shanghai_Composite_index_pricing</t>
-  </si>
-  <si>
-    <t>zscore_PRICE_CrudeOil_WTI_commodities</t>
-  </si>
-  <si>
-    <t>3M_change_PRICE_EUR_GBP_Cross_exchange_rate</t>
-  </si>
-  <si>
-    <t>6M_change_PRICE_Shanghai_Composite_index_pricing</t>
-  </si>
-  <si>
-    <t>6M_change_PRICE_Silver_Spot_commodities</t>
-  </si>
-  <si>
-    <t>rolling_std_PRICE_China_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>3M_change_PRICE_Platinum_Spot_commodities</t>
-  </si>
-  <si>
-    <t>MACD_signal_PRICE_Copper_Futures_commodities</t>
-  </si>
-  <si>
-    <t>3M_change_PRICE_Gold_Spot_commodities</t>
-  </si>
-  <si>
-    <t>MACD_signal_PRICE_EUR_GBP_Cross_exchange_rate</t>
-  </si>
-  <si>
-    <t>MACD_signal_PRICE_MXN_USD_Spot_exchange_rate</t>
-  </si>
-  <si>
-    <t>momentum_PRICE_JPY_USD_Spot_exchange_rate</t>
-  </si>
-  <si>
-    <t>YTD_PRICE_China_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>MACD_signal_PRICE_CrudeOil_WTI_commodities</t>
-  </si>
-  <si>
-    <t>zscore_PRICE_EUR_USD_Spot_exchange_rate</t>
-  </si>
-  <si>
-    <t>YTD_PRICE_Shanghai_Composite_index_pricing</t>
-  </si>
-  <si>
-    <t>momentum_PRICE_GBP_USD_Spot_exchange_rate</t>
-  </si>
-  <si>
-    <t>3M_change_PRICE_China_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>momentum_PRICE_CAD_USD_Spot_exchange_rate</t>
-  </si>
-  <si>
-    <t>MoM_PRICE_Australia_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>YoY_PRICE_Germany_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>momentum_PRICE_AUD_USD_Spot_exchange_rate</t>
-  </si>
-  <si>
-    <t>zscore_PRICE_Silver_Spot_commodities</t>
-  </si>
-  <si>
-    <t>zscore_PRICE_MXN_USD_Spot_exchange_rate</t>
-  </si>
-  <si>
-    <t>YTD_PRICE_Japan_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>momentum_PRICE_CrudeOil_WTI_commodities</t>
-  </si>
-  <si>
-    <t>6M_change_PRICE_Germany_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>zscore_PRICE_China_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>3M_change_PRICE_Shanghai_Composite_index_pricing</t>
+    <t>log_diff_PRICE_Australia_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>momentum_PRICE_Platinum_Spot_commodities</t>
+  </si>
+  <si>
+    <t>momentum_PRICE_EUR_GBP_Cross_exchange_rate</t>
+  </si>
+  <si>
+    <t>MACD_signal_PRICE_Silver_Spot_commodities</t>
+  </si>
+  <si>
+    <t>log_diff_PRICE_MXN_USD_Spot_exchange_rate</t>
+  </si>
+  <si>
+    <t>log_diff_PRICE_EUR_USD_Spot_exchange_rate</t>
+  </si>
+  <si>
+    <t>log_diff_PRICE_Shanghai_Composite_index_pricing</t>
+  </si>
+  <si>
+    <t>log_diff_PRICE_Silver_Spot_commodities</t>
+  </si>
+  <si>
+    <t>rolling_var_PRICE_MXN_USD_Spot_exchange_rate</t>
+  </si>
+  <si>
+    <t>MoM_PRICE_Germany_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>log_diff_PRICE_AUD_USD_Spot_exchange_rate</t>
+  </si>
+  <si>
+    <t>momentum_PRICE_Copper_Futures_commodities</t>
   </si>
   <si>
     <t>log_diff_PRICE_CNY_USD_Spot_exchange_rate</t>
   </si>
   <si>
-    <t>momentum_PRICE_EUR_GBP_Cross_exchange_rate</t>
-  </si>
-  <si>
-    <t>log_diff_PRICE_Italy_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>momentum_PRICE_MXN_USD_Spot_exchange_rate</t>
-  </si>
-  <si>
-    <t>momentum_PRICE_Copper_Futures_commodities</t>
-  </si>
-  <si>
-    <t>3M_change_PRICE_UK_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>6M_change_PRICE_UK_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>momentum_PRICE_Shanghai_Composite_index_pricing</t>
-  </si>
-  <si>
-    <t>zscore_PRICE_Platinum_Spot_commodities</t>
-  </si>
-  <si>
-    <t>momentum_PRICE_Gold_Spot_commodities</t>
-  </si>
-  <si>
-    <t>MACD_PRICE_Shanghai_Composite_index_pricing</t>
-  </si>
-  <si>
-    <t>MoM_PRICE_UK_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>log_diff_PRICE_UK_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>MoM_PRICE_Germany_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>log_diff_PRICE_JPY_USD_Spot_exchange_rate</t>
-  </si>
-  <si>
-    <t>log_diff_PRICE_GBP_USD_Spot_exchange_rate</t>
-  </si>
-  <si>
-    <t>log_diff_PRICE_Australia_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>log_diff_PRICE_AUD_USD_Spot_exchange_rate</t>
-  </si>
-  <si>
-    <t>log_diff_PRICE_Germany_10Y_Bond_bond</t>
+    <t>log_diff_PRICE_CrudeOil_WTI_commodities</t>
+  </si>
+  <si>
+    <t>log_diff_PRICE_Platinum_Spot_commodities</t>
+  </si>
+  <si>
+    <t>log_diff_PRICE_Japan_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>log_diff_PRICE_Copper_Futures_commodities</t>
+  </si>
+  <si>
+    <t>log_diff_PRICE_EUR_GBP_Cross_exchange_rate</t>
+  </si>
+  <si>
+    <t>log_diff_PRICE_Gold_Spot_commodities</t>
   </si>
   <si>
     <t>log_diff_PRICE_CAD_USD_Spot_exchange_rate</t>
   </si>
   <si>
-    <t>momentum_PRICE_Platinum_Spot_commodities</t>
-  </si>
-  <si>
-    <t>MACD_signal_PRICE_Silver_Spot_commodities</t>
-  </si>
-  <si>
-    <t>log_diff_PRICE_EUR_GBP_Cross_exchange_rate</t>
-  </si>
-  <si>
-    <t>log_diff_PRICE_CrudeOil_WTI_commodities</t>
-  </si>
-  <si>
-    <t>log_diff_PRICE_Shanghai_Composite_index_pricing</t>
-  </si>
-  <si>
-    <t>zscore_Actual_Japan_Leading_Indicator_leading_economic_index</t>
-  </si>
-  <si>
-    <t>MoM_PRICE_China_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>MoM_PRICE_Canada_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>log_diff_PRICE_Japan_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>log_diff_PRICE_Canada_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>log_diff_PRICE_MXN_USD_Spot_exchange_rate</t>
-  </si>
-  <si>
-    <t>log_diff_PRICE_Platinum_Spot_commodities</t>
-  </si>
-  <si>
-    <t>momentum_PRICE_Silver_Spot_commodities</t>
-  </si>
-  <si>
-    <t>log_diff_PRICE_China_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>log_diff_PRICE_Copper_Futures_commodities</t>
-  </si>
-  <si>
-    <t>3M_change_PRICE_Germany_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>log_diff_PRICE_Silver_Spot_commodities</t>
-  </si>
-  <si>
-    <t>log_diff_PRICE_Gold_Spot_commodities</t>
-  </si>
-  <si>
-    <t>MoM_PRICE_Japan_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>YoY_PRICE_Japan_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>3M_change_PRICE_Japan_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>6M_change_PRICE_Japan_10Y_Bond_bond</t>
+    <t>3M_change_Actual_Japan_Leading_Indicator_leading_economic_index</t>
+  </si>
+  <si>
+    <t>MoM_Actual_Japan_Leading_Indicator_leading_economic_index</t>
+  </si>
+  <si>
+    <t>6M_change_Actual_Japan_Leading_Indicator_leading_economic_index</t>
+  </si>
+  <si>
+    <t>log_diff_Actual_Japan_Leading_Indicator_leading_economic_index</t>
+  </si>
+  <si>
+    <t>ESI_AWCDISA_US_Empire_State_Index_business_confidence</t>
+  </si>
+  <si>
+    <t>Actual_China_Exports_exports</t>
+  </si>
+  <si>
+    <t>ESI_GACDISA_US_Empire_State_Index_business_confidence</t>
+  </si>
+  <si>
+    <t>GBRSLRTCR03GPSAM_United_Kingdom_Car_Registrations_MoM</t>
+  </si>
+  <si>
+    <t>HOUST_US_Housing_Starts_economics</t>
+  </si>
+  <si>
+    <t>YoY_Actual_US_ConferenceBoard_LEI_leading_economic_index</t>
+  </si>
+  <si>
+    <t>YoY_AAA_Corporate_Bond_AAA_Spread_bond</t>
+  </si>
+  <si>
+    <t>Actual_Singapore_NonOil_Exports_YoY_economics</t>
+  </si>
+  <si>
+    <t>YTD_AAA_Corporate_Bond_AAA_Spread_bond</t>
+  </si>
+  <si>
+    <t>Actual_Japan_M2_MoneySupply_YoY_economics</t>
+  </si>
+  <si>
+    <t>YTD_Actual_Japan_Leading_Indicator_leading_economic_index</t>
+  </si>
+  <si>
+    <t>MoM_AAA_Corporate_Bond_AAA_Spread_bond</t>
+  </si>
+  <si>
+    <t>UMCSENT_Michigan_Consumer_Sentiment_consumer_confidence</t>
+  </si>
+  <si>
+    <t>CSCICP02EZM460S_EuroZone_Consumer_Confidence_consumer_confidence</t>
+  </si>
+  <si>
+    <t>YTD_Actual_US_ConferenceBoard_LEI_leading_economic_index</t>
+  </si>
+  <si>
+    <t>Actual_US_Philly_Fed_Index_business_confidence</t>
+  </si>
+  <si>
+    <t>Actual_U.S. All Car Sales_car_registrations</t>
+  </si>
+  <si>
+    <t>ESPSLRTCR03GPSAM_Spain_Car_Registrations_MoM</t>
+  </si>
+  <si>
+    <t>ZAFSLRTCR03GPSAM_SouthAfrica_Car_Registrations_MoM</t>
+  </si>
+  <si>
+    <t>log_diff_AAA_Corporate_Bond_AAA_Spread_bond</t>
+  </si>
+  <si>
+    <t>Actual_China_M2_MoneySupply_YoY_economics</t>
+  </si>
+  <si>
+    <t>Actual_UK_Retail_Sales_MoM_economics</t>
   </si>
   <si>
     <t>3M_change_AAA_Corporate_Bond_AAA_Spread_bond</t>
   </si>
   <si>
+    <t>USASLRTCR03GPSAM_US_Car_Registrations_MoM</t>
+  </si>
+  <si>
+    <t>BAA10YM_Corporate_Bond_BBB_Spread_bond</t>
+  </si>
+  <si>
+    <t>MoM_Actual_US_ConferenceBoard_LEI_leading_economic_index</t>
+  </si>
+  <si>
     <t>6M_change_Actual_US_ConferenceBoard_LEI_leading_economic_index</t>
   </si>
   <si>
+    <t>6M_change_AAA_Corporate_Bond_AAA_Spread_bond</t>
+  </si>
+  <si>
+    <t>DNKSLRTCR03GPSAM_Denmark_Car_Registrations_MoM</t>
+  </si>
+  <si>
+    <t>log_diff_Actual_US_ConferenceBoard_LEI_leading_economic_index</t>
+  </si>
+  <si>
+    <t>Actual_Mexico_CPI_MoM_economics</t>
+  </si>
+  <si>
     <t>3M_change_Actual_US_ConferenceBoard_LEI_leading_economic_index</t>
   </si>
   <si>
-    <t>YoY_Actual_US_ConferenceBoard_LEI_leading_economic_index</t>
-  </si>
-  <si>
-    <t>6M_change_Actual_Japan_Leading_Indicator_leading_economic_index</t>
-  </si>
-  <si>
-    <t>MoM_Actual_Japan_Leading_Indicator_leading_economic_index</t>
-  </si>
-  <si>
-    <t>3M_change_Actual_Japan_Leading_Indicator_leading_economic_index</t>
-  </si>
-  <si>
-    <t>log_diff_Actual_Japan_Leading_Indicator_leading_economic_index</t>
+    <t>CSCICP02CHQ460S_Switzerland_Consumer_Confidence_consumer_confidence</t>
   </si>
   <si>
     <t>FEDFUNDS_US_FedFunds_Rate_economics</t>
   </si>
   <si>
-    <t>ESI_GACDISA_US_Empire_State_Index_business_confidence</t>
-  </si>
-  <si>
-    <t>UNRATE_US_Unemployment_Rate_unemployment_rate</t>
-  </si>
-  <si>
-    <t>YTD_AAA_Corporate_Bond_AAA_Spread_bond</t>
-  </si>
-  <si>
-    <t>Actual_Japan_M2_MoneySupply_YoY_economics</t>
-  </si>
-  <si>
-    <t>Actual_US_Philly_Fed_Index_business_confidence</t>
-  </si>
-  <si>
-    <t>CSCICP02EZM460S_EuroZone_Consumer_Confidence_consumer_confidence</t>
-  </si>
-  <si>
-    <t>HOUST_US_Housing_Starts_economics</t>
-  </si>
-  <si>
-    <t>Actual_China_PMI_Manufacturing_economics</t>
-  </si>
-  <si>
-    <t>ESI_AWCDISA_US_Empire_State_Index_business_confidence</t>
-  </si>
-  <si>
-    <t>YTD_Actual_US_ConferenceBoard_LEI_leading_economic_index</t>
-  </si>
-  <si>
-    <t>minmax_Actual_US_ConferenceBoard_LEI_leading_economic_index</t>
-  </si>
-  <si>
-    <t>Actual_China_M2_MoneySupply_YoY_economics</t>
-  </si>
-  <si>
-    <t>Actual_China_Exports_exports</t>
-  </si>
-  <si>
-    <t>MoM_AAA_Corporate_Bond_AAA_Spread_bond</t>
-  </si>
-  <si>
-    <t>Actual_Singapore_NonOil_Exports_YoY_economics</t>
-  </si>
-  <si>
-    <t>minmax_Actual_Japan_Leading_Indicator_leading_economic_index</t>
-  </si>
-  <si>
-    <t>Actual_UK_Retail_Sales_MoM_economics</t>
-  </si>
-  <si>
-    <t>Actual_Mexico_CPI_MoM_economics</t>
-  </si>
-  <si>
-    <t>MoM_Actual_US_ConferenceBoard_LEI_leading_economic_index</t>
-  </si>
-  <si>
-    <t>YTD_Actual_Japan_Leading_Indicator_leading_economic_index</t>
-  </si>
-  <si>
-    <t>USASLRTCR03GPSAM_US_Car_Registrations_MoM</t>
-  </si>
-  <si>
-    <t>BAA10YM_Corporate_Bond_BBB_Spread_bond</t>
-  </si>
-  <si>
-    <t>log_diff_AAA_Corporate_Bond_AAA_Spread_bond</t>
-  </si>
-  <si>
-    <t>GBRSLRTCR03GPSAM_United_Kingdom_Car_Registrations_MoM</t>
-  </si>
-  <si>
-    <t>DNKSLRTCR03GPSAM_Denmark_Car_Registrations_MoM</t>
-  </si>
-  <si>
-    <t>log_diff_Actual_US_ConferenceBoard_LEI_leading_economic_index</t>
-  </si>
-  <si>
-    <t>ZAFSLRTCR03GPSAM_SouthAfrica_Car_Registrations_MoM</t>
-  </si>
-  <si>
-    <t>CSCICP02CHQ460S_Switzerland_Consumer_Confidence_consumer_confidence</t>
+    <t>ECBDFR_ECB_Deposit_Rate_economics</t>
   </si>
   <si>
     <t>Actual_Eurozone_Unemployment_Rate_unemployment_rate</t>
   </si>
   <si>
-    <t>ECBDFR_ECB_Deposit_Rate_economics</t>
-  </si>
-  <si>
     <t>Actual_BOJ_Policy_Rate_economics</t>
   </si>
   <si>
@@ -509,12 +407,6 @@
   </si>
   <si>
     <t>int64</t>
-  </si>
-  <si>
-    <t>inf</t>
-  </si>
-  <si>
-    <t>-inf</t>
   </si>
 </sst>
 </file>
@@ -872,7 +764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O145"/>
+  <dimension ref="A1:O111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -930,46 +822,46 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>4.063664070436844</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2945</v>
+        <v>985</v>
       </c>
       <c r="G2">
-        <v>99.72908906197088</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>0.007718678489358338</v>
+        <v>0.001541084504002359</v>
       </c>
       <c r="I2">
-        <v>0.03649217464604729</v>
+        <v>0.004485565920569624</v>
       </c>
       <c r="J2">
-        <v>-0.07771918723194837</v>
+        <v>-0.009888011663902883</v>
       </c>
       <c r="K2">
-        <v>0.1305317378058357</v>
+        <v>0.01601484461059535</v>
       </c>
       <c r="L2">
-        <v>-0.4844531738084376</v>
+        <v>0.3120855064814685</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
       </c>
       <c r="O2">
-        <v>0.001876666676925754</v>
+        <v>1.305024603079563E-07</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -977,46 +869,46 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.6434134778191669</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2944</v>
+        <v>985</v>
       </c>
       <c r="G3">
-        <v>99.69522519471724</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>1.109157648378212</v>
+        <v>48.60144322775337</v>
       </c>
       <c r="I3">
-        <v>0.7216941722188807</v>
+        <v>32.79275422909944</v>
       </c>
       <c r="J3">
-        <v>0.1827357885642929</v>
+        <v>12.22218753551732</v>
       </c>
       <c r="K3">
-        <v>4.905791287640566</v>
+        <v>295.3396252381041</v>
       </c>
       <c r="L3">
-        <v>-0.4086203810008546</v>
+        <v>-0.2782328100240871</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N3" t="b">
         <v>1</v>
       </c>
       <c r="O3">
-        <v>1.524301681264705E-06</v>
+        <v>7.271623416886001E-07</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1024,46 +916,46 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D4">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>4.063664070436844</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>2951</v>
+        <v>984</v>
       </c>
       <c r="G4">
-        <v>99.93227226549271</v>
+        <v>99.8984771573604</v>
       </c>
       <c r="H4">
-        <v>0.01194061930977244</v>
+        <v>1218.415974399615</v>
       </c>
       <c r="I4">
-        <v>0.04269054332154006</v>
+        <v>1162.382210488737</v>
       </c>
       <c r="J4">
-        <v>-0.1179864020328274</v>
+        <v>88.42221052235793</v>
       </c>
       <c r="K4">
-        <v>0.1686404112732947</v>
+        <v>6394.587999993043</v>
       </c>
       <c r="L4">
-        <v>-0.3708640458243699</v>
+        <v>0.2508193538176379</v>
       </c>
       <c r="M4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N4" t="b">
         <v>1</v>
       </c>
       <c r="O4">
-        <v>0.007635694308320409</v>
+        <v>4.284576372430173E-07</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1071,46 +963,46 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.7450050795800881</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2904</v>
+        <v>985</v>
       </c>
       <c r="G5">
-        <v>98.34067050457162</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>0.001803360417677123</v>
+        <v>-0.001783055301255225</v>
       </c>
       <c r="I5">
-        <v>0.004235005277880779</v>
+        <v>0.01555086685563319</v>
       </c>
       <c r="J5">
-        <v>6.765789474374008E-06</v>
+        <v>-0.03624419526560207</v>
       </c>
       <c r="K5">
-        <v>0.0357709894736842</v>
+        <v>0.04710017574692449</v>
       </c>
       <c r="L5">
-        <v>0.3680542508487918</v>
+        <v>0.2480320013770387</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N5" t="b">
         <v>1</v>
       </c>
       <c r="O5">
-        <v>1.214516074725054E-10</v>
+        <v>0.0007739312668070715</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1118,46 +1010,46 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D6">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1.997968167964782</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>2953</v>
+        <v>984</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>99.8984771573604</v>
       </c>
       <c r="H6">
-        <v>0.1289916156236667</v>
+        <v>-0.004042320566044189</v>
       </c>
       <c r="I6">
-        <v>1.505794929987575</v>
+        <v>0.07426582678333461</v>
       </c>
       <c r="J6">
-        <v>-4.840216877043</v>
+        <v>-0.1769518106643856</v>
       </c>
       <c r="K6">
-        <v>7.365045866571771</v>
+        <v>0.246930573548463</v>
       </c>
       <c r="L6">
-        <v>-0.3224742511493576</v>
+        <v>0.2392274973438743</v>
       </c>
       <c r="M6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N6" t="b">
         <v>1</v>
       </c>
       <c r="O6">
-        <v>3.630462331555102E-08</v>
+        <v>0.03276617772438163</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1165,37 +1057,37 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>2.031832035218422</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>2949</v>
+        <v>982</v>
       </c>
       <c r="G7">
-        <v>99.86454453098544</v>
+        <v>99.69543147208122</v>
       </c>
       <c r="H7">
-        <v>0.003994437032769528</v>
+        <v>0.4048324873096448</v>
       </c>
       <c r="I7">
-        <v>0.02516202736503818</v>
+        <v>2.826069945840142</v>
       </c>
       <c r="J7">
-        <v>-0.07443472976146082</v>
+        <v>-12.83000000000001</v>
       </c>
       <c r="K7">
-        <v>0.0854011741682974</v>
+        <v>7.590000000000003</v>
       </c>
       <c r="L7">
-        <v>-0.3060891484190252</v>
+        <v>-0.2234037222116838</v>
       </c>
       <c r="M7">
         <v>2</v>
@@ -1204,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <v>3.019675990424181E-08</v>
+        <v>0.0002986398078756584</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1212,37 +1104,37 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>2.031832035218422</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>2953</v>
+        <v>984</v>
       </c>
       <c r="G8">
-        <v>100</v>
+        <v>99.8984771573604</v>
       </c>
       <c r="H8">
-        <v>-0.1154750577323959</v>
+        <v>-0.001206009237190903</v>
       </c>
       <c r="I8">
-        <v>1.383064936232341</v>
+        <v>0.06679141063376384</v>
       </c>
       <c r="J8">
-        <v>-3.859323986624153</v>
+        <v>-0.1547972072725669</v>
       </c>
       <c r="K8">
-        <v>4.672469189751452</v>
+        <v>0.2657344984819292</v>
       </c>
       <c r="L8">
-        <v>-0.269071715644194</v>
+        <v>-0.2104199179954596</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1251,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="O8">
-        <v>2.530540608167627E-11</v>
+        <v>0.002334576061437967</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1259,46 +1151,46 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D9">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>2.065695902472062</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>2952</v>
+        <v>906</v>
       </c>
       <c r="G9">
-        <v>99.96613613274636</v>
+        <v>91.97969543147208</v>
       </c>
       <c r="H9">
-        <v>0.04153410084953624</v>
+        <v>0.009380439487068791</v>
       </c>
       <c r="I9">
-        <v>0.3072550290963707</v>
+        <v>0.0152594933385542</v>
       </c>
       <c r="J9">
-        <v>-0.6530181511186155</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1.253748558246828</v>
+        <v>0.07673684210528908</v>
       </c>
       <c r="L9">
-        <v>-0.2593301154373053</v>
+        <v>0.20192452857265</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N9" t="b">
         <v>1</v>
       </c>
       <c r="O9">
-        <v>1.907898665110585E-06</v>
+        <v>2.430298331447225E-06</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1306,46 +1198,46 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D10">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1.997968167964782</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>2953</v>
+        <v>971</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>98.57868020304569</v>
       </c>
       <c r="H10">
-        <v>0.1361575603347711</v>
+        <v>-0.009579850170640419</v>
       </c>
       <c r="I10">
-        <v>1.34200089550362</v>
+        <v>0.03960004993958163</v>
       </c>
       <c r="J10">
-        <v>-3.806344885581116</v>
+        <v>-0.1883988494726749</v>
       </c>
       <c r="K10">
-        <v>3.960079704772048</v>
+        <v>0.1660561660561661</v>
       </c>
       <c r="L10">
-        <v>-0.256998244823195</v>
+        <v>0.1933665809790484</v>
       </c>
       <c r="M10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N10" t="b">
         <v>1</v>
       </c>
       <c r="O10">
-        <v>2.155553212617174E-12</v>
+        <v>0.0088538783010944</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1353,46 +1245,46 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D11">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1.997968167964782</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>2947</v>
+        <v>985</v>
       </c>
       <c r="G11">
-        <v>99.79681679647815</v>
+        <v>100</v>
       </c>
       <c r="H11">
-        <v>-0.1385374658664453</v>
+        <v>-0.007674696966710084</v>
       </c>
       <c r="I11">
-        <v>1.497890523543145</v>
+        <v>0.08973651233129271</v>
       </c>
       <c r="J11">
-        <v>-6.083159278135826</v>
+        <v>-0.2198092795897107</v>
       </c>
       <c r="K11">
-        <v>7.451430757365499</v>
+        <v>0.2638858397365533</v>
       </c>
       <c r="L11">
-        <v>-0.2496494397032437</v>
+        <v>0.1921272634321874</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N11" t="b">
         <v>1</v>
       </c>
       <c r="O11">
-        <v>2.662698590002373E-11</v>
+        <v>0.0001647551819791495</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1400,46 +1292,46 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D12">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>2.031832035218422</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>2951</v>
+        <v>985</v>
       </c>
       <c r="G12">
-        <v>99.93227226549271</v>
+        <v>100</v>
       </c>
       <c r="H12">
-        <v>0.005861346787860572</v>
+        <v>-0.0001933000082243708</v>
       </c>
       <c r="I12">
-        <v>0.03396835565503958</v>
+        <v>0.002005167104036001</v>
       </c>
       <c r="J12">
-        <v>-0.1246569703622393</v>
+        <v>-0.004335093518478673</v>
       </c>
       <c r="K12">
-        <v>0.1239625640120077</v>
+        <v>0.008446683142440512</v>
       </c>
       <c r="L12">
-        <v>-0.2462115897159786</v>
+        <v>0.1863846845458847</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N12" t="b">
         <v>1</v>
       </c>
       <c r="O12">
-        <v>8.337937051363748E-09</v>
+        <v>2.99757114745732E-07</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1447,46 +1339,46 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6434134778191669</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>2660</v>
+        <v>969</v>
       </c>
       <c r="G13">
-        <v>90.07788689468337</v>
+        <v>98.3756345177665</v>
       </c>
       <c r="H13">
-        <v>0.05151201428066954</v>
+        <v>0.8697447163131869</v>
       </c>
       <c r="I13">
-        <v>0.05573354653140397</v>
+        <v>2.213759745709871</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>-0.96</v>
       </c>
       <c r="K13">
-        <v>0.3026636138651923</v>
+        <v>32.5</v>
       </c>
       <c r="L13">
-        <v>-0.238637088364282</v>
+        <v>-0.1851388868772849</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N13" t="b">
         <v>1</v>
       </c>
       <c r="O13">
-        <v>1.299860855762798E-08</v>
+        <v>0.0003895155005138455</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1494,46 +1386,46 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6772773450728073</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>2949</v>
+        <v>985</v>
       </c>
       <c r="G14">
-        <v>99.86454453098544</v>
+        <v>100</v>
       </c>
       <c r="H14">
-        <v>0.07311089053124237</v>
+        <v>-1.302973104204504</v>
       </c>
       <c r="I14">
-        <v>0.04708653287092487</v>
+        <v>31.93279933729494</v>
       </c>
       <c r="J14">
-        <v>0.01631182570702354</v>
+        <v>-84.58326734852699</v>
       </c>
       <c r="K14">
-        <v>0.3808779124739844</v>
+        <v>159.6782781462334</v>
       </c>
       <c r="L14">
-        <v>-0.2318439314579626</v>
+        <v>-0.1790891502194795</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N14" t="b">
         <v>1</v>
       </c>
       <c r="O14">
-        <v>0.001738478390264921</v>
+        <v>0.0002535574146679177</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1541,46 +1433,46 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D15">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>4.063664070436844</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>2953</v>
+        <v>984</v>
       </c>
       <c r="G15">
-        <v>100</v>
+        <v>99.8984771573604</v>
       </c>
       <c r="H15">
-        <v>0.01758313351432352</v>
+        <v>0.02633143530701574</v>
       </c>
       <c r="I15">
-        <v>0.2568949025078772</v>
+        <v>0.1042907284441089</v>
       </c>
       <c r="J15">
-        <v>-0.7980450340373538</v>
+        <v>-0.2443584784010316</v>
       </c>
       <c r="K15">
-        <v>2.537597234226447</v>
+        <v>0.46875</v>
       </c>
       <c r="L15">
-        <v>0.2156107218981317</v>
+        <v>-0.1769473293542837</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N15" t="b">
         <v>1</v>
       </c>
       <c r="O15">
-        <v>0.001300330141872972</v>
+        <v>0.0001871391561712863</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1588,46 +1480,46 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D16">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>1.997968167964782</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>2953</v>
+        <v>984</v>
       </c>
       <c r="G16">
-        <v>100</v>
+        <v>99.8984771573604</v>
       </c>
       <c r="H16">
-        <v>-0.1122062560748811</v>
+        <v>8.469807170807819E-05</v>
       </c>
       <c r="I16">
-        <v>1.379868183864172</v>
+        <v>8.206387188074381E-05</v>
       </c>
       <c r="J16">
-        <v>-3.746035873821548</v>
+        <v>7.465552632501176E-06</v>
       </c>
       <c r="K16">
-        <v>3.677829910450473</v>
+        <v>0.0005008466052639567</v>
       </c>
       <c r="L16">
-        <v>-0.2024460618875418</v>
+        <v>0.1765159245602979</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N16" t="b">
         <v>1</v>
       </c>
       <c r="O16">
-        <v>8.462565084321394E-12</v>
+        <v>2.933827355408432E-07</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1635,10 +1527,10 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C17" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1647,34 +1539,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2953</v>
+        <v>962</v>
       </c>
       <c r="G17">
-        <v>100</v>
+        <v>97.66497461928934</v>
       </c>
       <c r="H17">
-        <v>-0.0006185810839770614</v>
+        <v>0.001567567194764335</v>
       </c>
       <c r="I17">
-        <v>0.004447986382288794</v>
+        <v>0.002126983570708099</v>
       </c>
       <c r="J17">
-        <v>-0.01855036984392205</v>
+        <v>6.765789474374008E-06</v>
       </c>
       <c r="K17">
-        <v>0.01238507601019766</v>
+        <v>0.01134034473684268</v>
       </c>
       <c r="L17">
-        <v>0.1965789361221894</v>
+        <v>0.1758685935060612</v>
       </c>
       <c r="M17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N17" t="b">
         <v>1</v>
       </c>
       <c r="O17">
-        <v>4.851232675459987E-13</v>
+        <v>0.00018776996218689</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1682,37 +1574,37 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C18" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6434134778191669</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>2950</v>
+        <v>985</v>
       </c>
       <c r="G18">
-        <v>99.89840839823908</v>
+        <v>100</v>
       </c>
       <c r="H18">
-        <v>0.02634529784993521</v>
+        <v>0.001392444572826578</v>
       </c>
       <c r="I18">
-        <v>0.01902714068442028</v>
+        <v>0.002240090996099728</v>
       </c>
       <c r="J18">
-        <v>0.0004684520961541369</v>
+        <v>8.952078910861942E-06</v>
       </c>
       <c r="K18">
-        <v>0.1260199416131866</v>
+        <v>0.01588102568419095</v>
       </c>
       <c r="L18">
-        <v>-0.1908214536902958</v>
+        <v>0.1710818450759205</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1721,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="O18">
-        <v>7.271224294287769E-09</v>
+        <v>0.00123343654339831</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1729,46 +1621,46 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D19">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>2.641381645783949</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>2931</v>
+        <v>982</v>
       </c>
       <c r="G19">
-        <v>99.25499492041992</v>
+        <v>99.69543147208122</v>
       </c>
       <c r="H19">
-        <v>0.1010136287323389</v>
+        <v>-0.02120812182741123</v>
       </c>
       <c r="I19">
-        <v>1.413340583631479</v>
+        <v>5.073472362328988</v>
       </c>
       <c r="J19">
-        <v>-7.108732758180511</v>
+        <v>-17.51000000000001</v>
       </c>
       <c r="K19">
-        <v>7.115049192816833</v>
+        <v>27.74000000000001</v>
       </c>
       <c r="L19">
-        <v>0.1850975701177539</v>
+        <v>-0.1651504470300594</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N19" t="b">
         <v>1</v>
       </c>
       <c r="O19">
-        <v>1.671797212735739E-13</v>
+        <v>1.291282381236128E-05</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1776,46 +1668,46 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D20">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>1.997968167964782</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>2953</v>
+        <v>983</v>
       </c>
       <c r="G20">
-        <v>100</v>
+        <v>99.79695431472081</v>
       </c>
       <c r="H20">
-        <v>-0.0380315961641076</v>
+        <v>0.0492037300621703</v>
       </c>
       <c r="I20">
-        <v>1.352984189790464</v>
+        <v>0.1667505054358195</v>
       </c>
       <c r="J20">
-        <v>-3.987778324682389</v>
+        <v>-0.2831010452961672</v>
       </c>
       <c r="K20">
-        <v>3.386439902936519</v>
+        <v>0.7122302158273381</v>
       </c>
       <c r="L20">
-        <v>-0.1817599795458283</v>
+        <v>-0.1638967085908771</v>
       </c>
       <c r="M20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N20" t="b">
         <v>1</v>
       </c>
       <c r="O20">
-        <v>5.458082455413982E-13</v>
+        <v>4.071639584461884E-05</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1823,10 +1715,10 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C21" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1835,34 +1727,34 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2930</v>
+        <v>966</v>
       </c>
       <c r="G21">
-        <v>99.22113105316626</v>
+        <v>98.07106598984771</v>
       </c>
       <c r="H21">
-        <v>-0.01024496458767006</v>
+        <v>0.1373593711866193</v>
       </c>
       <c r="I21">
-        <v>0.1046600250937977</v>
+        <v>0.4863759062512272</v>
       </c>
       <c r="J21">
-        <v>-0.3898513582778063</v>
+        <v>-0.875</v>
       </c>
       <c r="K21">
-        <v>0.3240336134453783</v>
+        <v>6.25</v>
       </c>
       <c r="L21">
-        <v>0.1746046523205909</v>
+        <v>-0.1622242254278627</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N21" t="b">
         <v>1</v>
       </c>
       <c r="O21">
-        <v>0.0001809785883946842</v>
+        <v>1.197198695715119E-05</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1870,10 +1762,10 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C22" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1882,34 +1774,34 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2953</v>
+        <v>980</v>
       </c>
       <c r="G22">
-        <v>100</v>
+        <v>99.49238578680203</v>
       </c>
       <c r="H22">
-        <v>0.1003419019635907</v>
+        <v>8.730089334659506E-05</v>
       </c>
       <c r="I22">
-        <v>0.7956556918670871</v>
+        <v>7.94566558030041E-05</v>
       </c>
       <c r="J22">
-        <v>-2.853630179291144</v>
+        <v>8.220947365398915E-06</v>
       </c>
       <c r="K22">
-        <v>2.318463346763078</v>
+        <v>0.0006966609210515984</v>
       </c>
       <c r="L22">
-        <v>-0.1742069727999409</v>
+        <v>0.1569882163127607</v>
       </c>
       <c r="M22">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N22" t="b">
         <v>1</v>
       </c>
       <c r="O22">
-        <v>1.021431310757974E-11</v>
+        <v>0.0001477443150443701</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1917,46 +1809,46 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D23">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6434134778191669</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>2947</v>
+        <v>984</v>
       </c>
       <c r="G23">
-        <v>99.79681679647815</v>
+        <v>99.8984771573604</v>
       </c>
       <c r="H23">
-        <v>0.01198409219385433</v>
+        <v>-0.001260304568527919</v>
       </c>
       <c r="I23">
-        <v>0.006969003125764895</v>
+        <v>0.01547564694224857</v>
       </c>
       <c r="J23">
-        <v>0.002914844042140683</v>
+        <v>-0.0544</v>
       </c>
       <c r="K23">
-        <v>0.06914977242418144</v>
+        <v>0.06090000000000007</v>
       </c>
       <c r="L23">
-        <v>-0.1668540429475361</v>
+        <v>0.1536606361341533</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N23" t="b">
         <v>1</v>
       </c>
       <c r="O23">
-        <v>3.81194814040664E-23</v>
+        <v>0.0001279935704629913</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1964,37 +1856,37 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C24" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D24">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0.7111412123264477</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>2951</v>
+        <v>967</v>
       </c>
       <c r="G24">
-        <v>99.93227226549271</v>
+        <v>98.17258883248731</v>
       </c>
       <c r="H24">
-        <v>0.01201925747338863</v>
+        <v>0.4322750720609245</v>
       </c>
       <c r="I24">
-        <v>0.1653310539546597</v>
+        <v>1.304201132646063</v>
       </c>
       <c r="J24">
-        <v>-0.5164293537787514</v>
+        <v>-0.9493670886075949</v>
       </c>
       <c r="K24">
-        <v>1.648619957537155</v>
+        <v>23.75</v>
       </c>
       <c r="L24">
-        <v>-0.1545171085112157</v>
+        <v>-0.1503315842011338</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -2003,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="O24">
-        <v>4.825873016195028E-11</v>
+        <v>1.275988005609182E-05</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2011,46 +1903,46 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3386386725364037</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>2944</v>
+        <v>985</v>
       </c>
       <c r="G25">
-        <v>99.69522519471724</v>
+        <v>100</v>
       </c>
       <c r="H25">
-        <v>0.004247230716955488</v>
+        <v>-0.1185457876232147</v>
       </c>
       <c r="I25">
-        <v>0.05503169068747513</v>
+        <v>6.208834741075694</v>
       </c>
       <c r="J25">
-        <v>-0.2305000000000001</v>
+        <v>-87.11111111111111</v>
       </c>
       <c r="K25">
-        <v>0.2515000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="L25">
-        <v>-0.1535012030653836</v>
+        <v>0.1302541800611785</v>
       </c>
       <c r="M25">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N25" t="b">
         <v>1</v>
       </c>
       <c r="O25">
-        <v>1.689067725294091E-12</v>
+        <v>5.301795784185287E-07</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2058,37 +1950,37 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D26">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>1.997968167964782</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>2953</v>
+        <v>983</v>
       </c>
       <c r="G26">
-        <v>100</v>
+        <v>99.79695431472081</v>
       </c>
       <c r="H26">
-        <v>0.212835278854629</v>
+        <v>0.002141725888324873</v>
       </c>
       <c r="I26">
-        <v>1.399318070646466</v>
+        <v>0.01547035964372152</v>
       </c>
       <c r="J26">
-        <v>-4.832854407463256</v>
+        <v>-0.04190000000000005</v>
       </c>
       <c r="K26">
-        <v>3.982663738699765</v>
+        <v>0.07410000000000005</v>
       </c>
       <c r="L26">
-        <v>-0.151479464572239</v>
+        <v>0.1247441558817174</v>
       </c>
       <c r="M26">
         <v>10</v>
@@ -2097,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="O26">
-        <v>9.381165338853234E-12</v>
+        <v>1.729792240472295E-08</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2105,46 +1997,46 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C27" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D27">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>2.031832035218422</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>2952</v>
+        <v>983</v>
       </c>
       <c r="G27">
-        <v>99.96613613274636</v>
+        <v>99.79695431472081</v>
       </c>
       <c r="H27">
-        <v>0.01269428375943103</v>
+        <v>856.8300338229637</v>
       </c>
       <c r="I27">
-        <v>0.2020127264463525</v>
+        <v>578.0883926499673</v>
       </c>
       <c r="J27">
-        <v>-0.7838191330343797</v>
+        <v>108.1602894736866</v>
       </c>
       <c r="K27">
-        <v>2.504753673292999</v>
+        <v>4106.563052631441</v>
       </c>
       <c r="L27">
-        <v>0.1479625078375208</v>
+        <v>-0.1142342582541216</v>
       </c>
       <c r="M27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N27" t="b">
         <v>1</v>
       </c>
       <c r="O27">
-        <v>9.293253359097784E-09</v>
+        <v>2.001823963238395E-17</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2152,37 +2044,37 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C28" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D28">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>2.099559769725703</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>2951</v>
+        <v>985</v>
       </c>
       <c r="G28">
-        <v>99.93227226549271</v>
+        <v>100</v>
       </c>
       <c r="H28">
-        <v>0.0887165206107753</v>
+        <v>-2.058764871594642</v>
       </c>
       <c r="I28">
-        <v>1.382921194748592</v>
+        <v>16.86055762817902</v>
       </c>
       <c r="J28">
-        <v>-5.294274705928513</v>
+        <v>-246.5555555555556</v>
       </c>
       <c r="K28">
-        <v>7.448418942354899</v>
+        <v>244.7</v>
       </c>
       <c r="L28">
-        <v>-0.1460187278938397</v>
+        <v>-0.1139732514779669</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -2191,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="O28">
-        <v>3.413585358174922E-11</v>
+        <v>6.772056481836644E-06</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2199,37 +2091,37 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C29" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D29">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>4.063664070436844</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>2952</v>
+        <v>981</v>
       </c>
       <c r="G29">
-        <v>99.96613613274636</v>
+        <v>99.59390862944163</v>
       </c>
       <c r="H29">
-        <v>0.001615438964383439</v>
+        <v>-1.824497461928934</v>
       </c>
       <c r="I29">
-        <v>0.04326059632708292</v>
+        <v>99.74196986228203</v>
       </c>
       <c r="J29">
-        <v>-0.1051298290056998</v>
+        <v>-424.8600000000001</v>
       </c>
       <c r="K29">
-        <v>0.176455402091132</v>
+        <v>632.4099999999999</v>
       </c>
       <c r="L29">
-        <v>-0.1442118021071529</v>
+        <v>-0.1114525468873764</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -2238,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="O29">
-        <v>0.00246834972931982</v>
+        <v>1.033996176367919E-05</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2246,37 +2138,37 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D30">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>1.997968167964782</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>2953</v>
+        <v>985</v>
       </c>
       <c r="G30">
         <v>100</v>
       </c>
       <c r="H30">
-        <v>-0.1000605844371885</v>
+        <v>0.4271113053985609</v>
       </c>
       <c r="I30">
-        <v>1.310539646268592</v>
+        <v>1.441644913798526</v>
       </c>
       <c r="J30">
-        <v>-3.459829768810284</v>
+        <v>-4.225425250884761</v>
       </c>
       <c r="K30">
-        <v>4.068703922903439</v>
+        <v>7.451430757365499</v>
       </c>
       <c r="L30">
-        <v>-0.1394037855075757</v>
+        <v>-0.1100404586787619</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -2285,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="O30">
-        <v>6.459968366566363E-17</v>
+        <v>2.168977151605124E-05</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2293,46 +2185,46 @@
         <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C31" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D31">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>8.533694547917372</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>2952</v>
+        <v>985</v>
       </c>
       <c r="G31">
-        <v>99.96613613274636</v>
+        <v>100</v>
       </c>
       <c r="H31">
-        <v>0.3627373162173771</v>
+        <v>0.2852611288738474</v>
       </c>
       <c r="I31">
-        <v>1.072141381119045</v>
+        <v>1.477877881317988</v>
       </c>
       <c r="J31">
-        <v>-0.8505639097744361</v>
+        <v>-4.840216877043</v>
       </c>
       <c r="K31">
-        <v>6.56</v>
+        <v>4.862838842597895</v>
       </c>
       <c r="L31">
-        <v>-0.1390784730743677</v>
+        <v>0.1077161680641706</v>
       </c>
       <c r="M31">
         <v>10</v>
       </c>
       <c r="N31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.149613539503292</v>
+        <v>0.004559461037933647</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2340,46 +2232,46 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C32" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D32">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>2.031832035218422</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>2953</v>
+        <v>981</v>
       </c>
       <c r="G32">
-        <v>100</v>
+        <v>99.59390862944163</v>
       </c>
       <c r="H32">
-        <v>0.1086022319990155</v>
+        <v>0.01547757285600725</v>
       </c>
       <c r="I32">
-        <v>1.38586396255943</v>
+        <v>0.01498859113996242</v>
       </c>
       <c r="J32">
-        <v>-3.774480058795238</v>
+        <v>0.0005675236842422023</v>
       </c>
       <c r="K32">
-        <v>4.815559884745857</v>
+        <v>0.1119691684210587</v>
       </c>
       <c r="L32">
-        <v>0.1369957274209998</v>
+        <v>-0.1055982045608367</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N32" t="b">
         <v>1</v>
       </c>
       <c r="O32">
-        <v>2.008001494658807E-12</v>
+        <v>3.688792768838423E-06</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2387,10 +2279,10 @@
         <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2399,25 +2291,25 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>2953</v>
+        <v>973</v>
       </c>
       <c r="G33">
-        <v>100</v>
+        <v>98.78172588832487</v>
       </c>
       <c r="H33">
-        <v>-0.0006674937145738364</v>
+        <v>-0.07242465230407616</v>
       </c>
       <c r="I33">
-        <v>0.005556267669291663</v>
+        <v>1.348227029284573</v>
       </c>
       <c r="J33">
-        <v>-0.02141455256861435</v>
+        <v>-5.030382545693702</v>
       </c>
       <c r="K33">
-        <v>0.01583693855872602</v>
+        <v>7.426249808564735</v>
       </c>
       <c r="L33">
-        <v>0.1322178058307716</v>
+        <v>-0.0970880203600651</v>
       </c>
       <c r="M33">
         <v>10</v>
@@ -2426,7 +2318,7 @@
         <v>1</v>
       </c>
       <c r="O33">
-        <v>3.602236163076182E-09</v>
+        <v>4.077501879457791E-08</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2434,46 +2326,46 @@
         <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D34">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>2.031832035218422</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>2953</v>
+        <v>985</v>
       </c>
       <c r="G34">
         <v>100</v>
       </c>
       <c r="H34">
-        <v>0.1134771249737028</v>
+        <v>0.0003094216412765851</v>
       </c>
       <c r="I34">
-        <v>1.368169402696133</v>
+        <v>0.006229129661631174</v>
       </c>
       <c r="J34">
-        <v>-3.648978120409759</v>
+        <v>-0.03829280031050253</v>
       </c>
       <c r="K34">
-        <v>4.334850957260083</v>
+        <v>0.02050896672162672</v>
       </c>
       <c r="L34">
-        <v>0.1245028293721408</v>
+        <v>-0.09024227934765718</v>
       </c>
       <c r="M34">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N34" t="b">
         <v>1</v>
       </c>
       <c r="O34">
-        <v>2.139298512215201E-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2481,37 +2373,37 @@
         <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D35">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>0.6772773450728073</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>2953</v>
+        <v>985</v>
       </c>
       <c r="G35">
         <v>100</v>
       </c>
       <c r="H35">
-        <v>60.75308742427167</v>
+        <v>0.591311480665115</v>
       </c>
       <c r="I35">
-        <v>54.67541013172734</v>
+        <v>1.373291199071527</v>
       </c>
       <c r="J35">
-        <v>10.27253000134896</v>
+        <v>-4.220912750872667</v>
       </c>
       <c r="K35">
-        <v>517.248169923491</v>
+        <v>7.448418942354899</v>
       </c>
       <c r="L35">
-        <v>-0.1241197484450233</v>
+        <v>0.08741033550961001</v>
       </c>
       <c r="M35">
         <v>10</v>
@@ -2520,7 +2412,7 @@
         <v>1</v>
       </c>
       <c r="O35">
-        <v>0.0003214555486608961</v>
+        <v>7.774278008713791E-05</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2528,37 +2420,37 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D36">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>1.997968167964782</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>2953</v>
+        <v>985</v>
       </c>
       <c r="G36">
         <v>100</v>
       </c>
       <c r="H36">
-        <v>0.05282373193166316</v>
+        <v>-0.01697731159272337</v>
       </c>
       <c r="I36">
-        <v>1.376102974620186</v>
+        <v>0.1033106640936027</v>
       </c>
       <c r="J36">
-        <v>-3.877246532490566</v>
+        <v>-0.2565713341048107</v>
       </c>
       <c r="K36">
-        <v>3.530212310463307</v>
+        <v>0.2990642994241843</v>
       </c>
       <c r="L36">
-        <v>0.119826941035403</v>
+        <v>0.0872253277515781</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -2567,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="O36">
-        <v>7.13336926094493E-12</v>
+        <v>0.0124405788475396</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2575,46 +2467,46 @@
         <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D37">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>2.031832035218422</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>2952</v>
+        <v>983</v>
       </c>
       <c r="G37">
-        <v>99.96613613274636</v>
+        <v>99.79695431472081</v>
       </c>
       <c r="H37">
-        <v>0.0007691976121328537</v>
+        <v>12.20446700507614</v>
       </c>
       <c r="I37">
-        <v>0.03078314239582606</v>
+        <v>58.85277708205017</v>
       </c>
       <c r="J37">
-        <v>-0.1086709579704657</v>
+        <v>-214.3000000000002</v>
       </c>
       <c r="K37">
-        <v>0.1399393859533535</v>
+        <v>182</v>
       </c>
       <c r="L37">
-        <v>-0.1171697081000557</v>
+        <v>0.0849761869647284</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N37" t="b">
         <v>1</v>
       </c>
       <c r="O37">
-        <v>4.685515523109529E-07</v>
+        <v>0.0007087331349182193</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2622,46 +2514,46 @@
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C38" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D38">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>4.097527937690485</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>2950</v>
+        <v>984</v>
       </c>
       <c r="G38">
-        <v>99.89840839823908</v>
+        <v>99.8984771573604</v>
       </c>
       <c r="H38">
-        <v>0.0316875914563133</v>
+        <v>0.0008732994923857894</v>
       </c>
       <c r="I38">
-        <v>0.160950000484798</v>
+        <v>0.4116882447947865</v>
       </c>
       <c r="J38">
-        <v>-0.3348689113203712</v>
+        <v>-1.099</v>
       </c>
       <c r="K38">
-        <v>0.8302360460368601</v>
+        <v>1.790699999999998</v>
       </c>
       <c r="L38">
-        <v>0.109021982962878</v>
+        <v>0.08180532121628858</v>
       </c>
       <c r="M38">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N38" t="b">
         <v>1</v>
       </c>
       <c r="O38">
-        <v>0.02722401972481225</v>
+        <v>7.611849948465173E-09</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2669,37 +2561,37 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D39">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>4.097527937690485</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>2950</v>
+        <v>971</v>
       </c>
       <c r="G39">
-        <v>99.89840839823908</v>
+        <v>98.57868020304569</v>
       </c>
       <c r="H39">
-        <v>0.03224993579357664</v>
+        <v>1.943304403376071</v>
       </c>
       <c r="I39">
-        <v>0.1698859578445606</v>
+        <v>3.232426264425179</v>
       </c>
       <c r="J39">
-        <v>-0.3342758581688627</v>
+        <v>-0.9024390243902439</v>
       </c>
       <c r="K39">
-        <v>1.322714916751614</v>
+        <v>53.75</v>
       </c>
       <c r="L39">
-        <v>0.1069768999728161</v>
+        <v>-0.07948170265743988</v>
       </c>
       <c r="M39">
         <v>10</v>
@@ -2708,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="O39">
-        <v>0.000797416715479906</v>
+        <v>0.0006081136066202484</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2716,46 +2608,46 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D40">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>0.6772773450728073</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>2943</v>
+        <v>985</v>
       </c>
       <c r="G40">
-        <v>99.6613613274636</v>
+        <v>100</v>
       </c>
       <c r="H40">
-        <v>0.04245272490335623</v>
+        <v>-0.6858045834295924</v>
       </c>
       <c r="I40">
-        <v>0.02472120080386149</v>
+        <v>8.75811315545349</v>
       </c>
       <c r="J40">
-        <v>0.005421934013782809</v>
+        <v>-129.6666666666667</v>
       </c>
       <c r="K40">
-        <v>0.1704053680894073</v>
+        <v>106.8</v>
       </c>
       <c r="L40">
-        <v>0.1039021918213031</v>
+        <v>0.077351652268003</v>
       </c>
       <c r="M40">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N40" t="b">
         <v>1</v>
       </c>
       <c r="O40">
-        <v>2.86474278801867E-08</v>
+        <v>5.714046939711822E-06</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2763,46 +2655,46 @@
         <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C41" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D41">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>2.031832035218422</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>2952</v>
+        <v>984</v>
       </c>
       <c r="G41">
-        <v>99.96613613274636</v>
+        <v>99.8984771573604</v>
       </c>
       <c r="H41">
-        <v>-0.002905203609173401</v>
+        <v>0.001567355211347228</v>
       </c>
       <c r="I41">
-        <v>0.09853976772211294</v>
+        <v>0.02836120130714875</v>
       </c>
       <c r="J41">
-        <v>-0.3728795701190601</v>
+        <v>-0.2190535660626846</v>
       </c>
       <c r="K41">
-        <v>0.4090714819959398</v>
+        <v>0.1147388932751553</v>
       </c>
       <c r="L41">
-        <v>0.1008643965291438</v>
+        <v>-0.07536192835635575</v>
       </c>
       <c r="M41">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N41" t="b">
         <v>1</v>
       </c>
       <c r="O41">
-        <v>6.262586119973416E-08</v>
+        <v>7.810728905806605E-30</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2810,46 +2702,46 @@
         <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>0.03386386725364036</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>2953</v>
+        <v>983</v>
       </c>
       <c r="G42">
-        <v>100</v>
+        <v>99.79695431472081</v>
       </c>
       <c r="H42">
-        <v>0.003224429718935501</v>
+        <v>0.000968305929735689</v>
       </c>
       <c r="I42">
-        <v>0.04594549131782497</v>
+        <v>0.01909610045522526</v>
       </c>
       <c r="J42">
-        <v>-0.2126722789042449</v>
+        <v>-0.1323924992985416</v>
       </c>
       <c r="K42">
-        <v>0.1547926476524584</v>
+        <v>0.08991196381860034</v>
       </c>
       <c r="L42">
-        <v>0.09982568120760582</v>
+        <v>-0.07391102064514445</v>
       </c>
       <c r="M42">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N42" t="b">
         <v>1</v>
       </c>
       <c r="O42">
-        <v>1.032858139783367E-12</v>
+        <v>1.169061118583286E-25</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2857,46 +2749,46 @@
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C43" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D43">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>2.065695902472062</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>2950</v>
+        <v>963</v>
       </c>
       <c r="G43">
-        <v>99.89840839823908</v>
+        <v>97.76649746192894</v>
       </c>
       <c r="H43">
-        <v>0.02003008952617152</v>
+        <v>-0.1958042091498208</v>
       </c>
       <c r="I43">
-        <v>0.06634041850108958</v>
+        <v>1.409936569668178</v>
       </c>
       <c r="J43">
-        <v>-0.1598125976054139</v>
+        <v>-7.108732758180511</v>
       </c>
       <c r="K43">
-        <v>0.2444775468681877</v>
+        <v>7.115049192816833</v>
       </c>
       <c r="L43">
-        <v>-0.09547198251151247</v>
+        <v>-0.07157032592829794</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N43" t="b">
         <v>1</v>
       </c>
       <c r="O43">
-        <v>1.938845613522494E-06</v>
+        <v>3.170045590544638E-05</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2904,10 +2796,10 @@
         <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C44" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2916,34 +2808,34 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>2953</v>
+        <v>985</v>
       </c>
       <c r="G44">
         <v>100</v>
       </c>
       <c r="H44">
-        <v>3.487144482835946E-05</v>
+        <v>0.2806765771472941</v>
       </c>
       <c r="I44">
-        <v>0.003623366104300695</v>
+        <v>1.299091018073084</v>
       </c>
       <c r="J44">
-        <v>-0.009343075152094411</v>
+        <v>-2.842085753097962</v>
       </c>
       <c r="K44">
-        <v>0.01750001156983088</v>
+        <v>3.278633712748289</v>
       </c>
       <c r="L44">
-        <v>-0.09348450225575183</v>
+        <v>0.07148642023721759</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N44" t="b">
         <v>1</v>
       </c>
       <c r="O44">
-        <v>6.478722877257373E-14</v>
+        <v>0.0006633437096385806</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2951,10 +2843,10 @@
         <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C45" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2963,25 +2855,25 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>2953</v>
+        <v>982</v>
       </c>
       <c r="G45">
-        <v>100</v>
+        <v>99.69543147208122</v>
       </c>
       <c r="H45">
-        <v>0.01702807616644779</v>
+        <v>0.001358646449393406</v>
       </c>
       <c r="I45">
-        <v>0.1633227334900236</v>
+        <v>0.001943394267192754</v>
       </c>
       <c r="J45">
-        <v>-0.4899192626760286</v>
+        <v>2.939736844981496E-05</v>
       </c>
       <c r="K45">
-        <v>1.19182242352803</v>
+        <v>0.01778514736846258</v>
       </c>
       <c r="L45">
-        <v>-0.09308356992032828</v>
+        <v>0.07127785122482161</v>
       </c>
       <c r="M45">
         <v>10</v>
@@ -2990,7 +2882,7 @@
         <v>1</v>
       </c>
       <c r="O45">
-        <v>1.586135610035004E-13</v>
+        <v>8.468506677490604E-08</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2998,46 +2890,46 @@
         <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D46">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>0.3386386725364037</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>2945</v>
+        <v>983</v>
       </c>
       <c r="G46">
-        <v>99.72908906197088</v>
+        <v>99.79695431472081</v>
       </c>
       <c r="H46">
-        <v>0.129208290859667</v>
+        <v>0.001197762332768972</v>
       </c>
       <c r="I46">
-        <v>2.230602636538794</v>
+        <v>0.01907433085729117</v>
       </c>
       <c r="J46">
-        <v>-12.83000000000001</v>
+        <v>-0.1354853856078985</v>
       </c>
       <c r="K46">
-        <v>8.859999999999999</v>
+        <v>0.08236906828867396</v>
       </c>
       <c r="L46">
-        <v>-0.09105353571089159</v>
+        <v>-0.06984471955648246</v>
       </c>
       <c r="M46">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N46" t="b">
         <v>1</v>
       </c>
       <c r="O46">
-        <v>3.156106125631135E-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -3045,37 +2937,37 @@
         <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C47" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>0.03386386725364036</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>2674</v>
+        <v>942</v>
       </c>
       <c r="G47">
-        <v>90.55198103623434</v>
+        <v>95.63451776649747</v>
       </c>
       <c r="H47">
-        <v>-0.03256210657923388</v>
+        <v>-0.0003695079971587935</v>
       </c>
       <c r="I47">
-        <v>0.09345773698987268</v>
+        <v>0.005560135665499421</v>
       </c>
       <c r="J47">
-        <v>-0.3518518518518519</v>
+        <v>-0.02531780798428973</v>
       </c>
       <c r="K47">
-        <v>0.3056099151989564</v>
+        <v>0.04541386789394175</v>
       </c>
       <c r="L47">
-        <v>0.08617113078410926</v>
+        <v>0.06610652304894533</v>
       </c>
       <c r="M47">
         <v>10</v>
@@ -3084,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="O47">
-        <v>0.002530232667835948</v>
+        <v>5.09640948270755E-23</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3092,10 +2984,10 @@
         <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C48" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -3104,34 +2996,34 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>2953</v>
+        <v>981</v>
       </c>
       <c r="G48">
-        <v>100</v>
+        <v>99.59390862944163</v>
       </c>
       <c r="H48">
-        <v>-0.07693581334461363</v>
+        <v>0.0005357235858986353</v>
       </c>
       <c r="I48">
-        <v>1.511013730310486</v>
+        <v>0.01658050624504966</v>
       </c>
       <c r="J48">
-        <v>-6.308275780619446</v>
+        <v>-0.05924623070009327</v>
       </c>
       <c r="K48">
-        <v>5.398205409778762</v>
+        <v>0.06376661835898934</v>
       </c>
       <c r="L48">
-        <v>0.08589856137445576</v>
+        <v>-0.06463504673174048</v>
       </c>
       <c r="M48">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N48" t="b">
         <v>1</v>
       </c>
       <c r="O48">
-        <v>5.838975299976036E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3139,46 +3031,46 @@
         <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C49" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D49">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>1.997968167964782</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>2953</v>
+        <v>985</v>
       </c>
       <c r="G49">
         <v>100</v>
       </c>
       <c r="H49">
-        <v>-0.2005873301503051</v>
+        <v>0.06761319796954314</v>
       </c>
       <c r="I49">
-        <v>1.366147525434814</v>
+        <v>1.411500384338679</v>
       </c>
       <c r="J49">
-        <v>-3.942136099628486</v>
+        <v>-3.695999999999998</v>
       </c>
       <c r="K49">
-        <v>4.179602002791202</v>
+        <v>4.812000000000001</v>
       </c>
       <c r="L49">
-        <v>0.08581088641031806</v>
+        <v>-0.06233439979898459</v>
       </c>
       <c r="M49">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N49" t="b">
         <v>1</v>
       </c>
       <c r="O49">
-        <v>5.643806001756558E-13</v>
+        <v>1.397090105855814E-05</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3186,37 +3078,37 @@
         <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C50" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>0.03386386725364036</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>2763</v>
+        <v>980</v>
       </c>
       <c r="G50">
-        <v>93.56586522180834</v>
+        <v>99.49238578680203</v>
       </c>
       <c r="H50">
-        <v>0.01210860946698638</v>
+        <v>0.008548020304568528</v>
       </c>
       <c r="I50">
-        <v>0.1252537524568578</v>
+        <v>0.06291201543115069</v>
       </c>
       <c r="J50">
-        <v>-0.2496397470600534</v>
+        <v>-0.2305000000000001</v>
       </c>
       <c r="K50">
-        <v>0.597174991034662</v>
+        <v>0.2515000000000001</v>
       </c>
       <c r="L50">
-        <v>0.08530304335610166</v>
+        <v>0.05983993462480097</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -3225,7 +3117,7 @@
         <v>1</v>
       </c>
       <c r="O50">
-        <v>0.0005148653178221618</v>
+        <v>0.002233301970195006</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3233,46 +3125,46 @@
         <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C51" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D51">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>0.3386386725364037</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>2944</v>
+        <v>982</v>
       </c>
       <c r="G51">
-        <v>99.69522519471724</v>
+        <v>99.69543147208122</v>
       </c>
       <c r="H51">
-        <v>-0.001074243968739382</v>
+        <v>0.000772209866774253</v>
       </c>
       <c r="I51">
-        <v>0.02342061433793511</v>
+        <v>0.01456545519267779</v>
       </c>
       <c r="J51">
-        <v>-0.1971000000000001</v>
+        <v>-0.055826855720436</v>
       </c>
       <c r="K51">
-        <v>0.0907</v>
+        <v>0.07082985461144997</v>
       </c>
       <c r="L51">
-        <v>0.08425655614857282</v>
+        <v>-0.05596016728980203</v>
       </c>
       <c r="M51">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N51" t="b">
         <v>1</v>
       </c>
       <c r="O51">
-        <v>1.27629192554774E-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3280,37 +3172,37 @@
         <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C52" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D52">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>2.065695902472062</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>2931</v>
+        <v>984</v>
       </c>
       <c r="G52">
-        <v>99.25499492041992</v>
+        <v>99.8984771573604</v>
       </c>
       <c r="H52">
-        <v>-0.01695203766795688</v>
+        <v>-1.429441624365483</v>
       </c>
       <c r="I52">
-        <v>0.07225192467822354</v>
+        <v>48.60187692092435</v>
       </c>
       <c r="J52">
-        <v>-0.2508158508158508</v>
+        <v>-146.3999999999999</v>
       </c>
       <c r="K52">
-        <v>0.2526606227828143</v>
+        <v>123.7</v>
       </c>
       <c r="L52">
-        <v>0.08307975440996213</v>
+        <v>-0.05365300636495778</v>
       </c>
       <c r="M52">
         <v>10</v>
@@ -3319,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="O52">
-        <v>5.285488507815045E-07</v>
+        <v>4.634064126115417E-07</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3327,46 +3219,46 @@
         <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C53" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D53">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>0.3386386725364037</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>2944</v>
+        <v>977</v>
       </c>
       <c r="G53">
-        <v>99.69522519471724</v>
+        <v>99.18781725888324</v>
       </c>
       <c r="H53">
-        <v>0.001050050968399592</v>
+        <v>-0.0002239593908629442</v>
       </c>
       <c r="I53">
-        <v>0.01808013562952927</v>
+        <v>0.007951771199022345</v>
       </c>
       <c r="J53">
-        <v>-0.07220000000000004</v>
+        <v>-0.02150000000000007</v>
       </c>
       <c r="K53">
-        <v>0.1118999999999999</v>
+        <v>0.03280000000000005</v>
       </c>
       <c r="L53">
-        <v>-0.08256913181857375</v>
+        <v>-0.05085263434371793</v>
       </c>
       <c r="M53">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N53" t="b">
         <v>1</v>
       </c>
       <c r="O53">
-        <v>7.010769193684327E-17</v>
+        <v>2.445742460462201E-08</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3374,46 +3266,46 @@
         <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C54" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D54">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>0.6772773450728073</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>2952</v>
+        <v>985</v>
       </c>
       <c r="G54">
-        <v>99.96613613274636</v>
+        <v>100</v>
       </c>
       <c r="H54">
-        <v>0.005562591323908754</v>
+        <v>0.0388018664858458</v>
       </c>
       <c r="I54">
-        <v>0.1067654242126712</v>
+        <v>0.394592764545993</v>
       </c>
       <c r="J54">
-        <v>-0.435263500325309</v>
+        <v>-0.8373653784629596</v>
       </c>
       <c r="K54">
-        <v>0.6429249762583096</v>
+        <v>1.077573153073077</v>
       </c>
       <c r="L54">
-        <v>-0.08059462064122623</v>
+        <v>0.04999780460028775</v>
       </c>
       <c r="M54">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N54" t="b">
         <v>1</v>
       </c>
       <c r="O54">
-        <v>4.95203519298703E-09</v>
+        <v>0.0007537735813404265</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3421,46 +3313,46 @@
         <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C55" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D55">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>8.567558415171012</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>2951</v>
+        <v>985</v>
       </c>
       <c r="G55">
-        <v>99.93227226549271</v>
+        <v>100</v>
       </c>
       <c r="H55">
-        <v>-1.167203593587681</v>
+        <v>-1.473150529382213E-05</v>
       </c>
       <c r="I55">
-        <v>13.61017532413765</v>
+        <v>0.006730226868218381</v>
       </c>
       <c r="J55">
-        <v>-309</v>
+        <v>-0.0215547984943032</v>
       </c>
       <c r="K55">
-        <v>244.7</v>
+        <v>0.03698872461281688</v>
       </c>
       <c r="L55">
-        <v>0.08027731006433585</v>
+        <v>0.04998831589362972</v>
       </c>
       <c r="M55">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N55" t="b">
         <v>1</v>
       </c>
       <c r="O55">
-        <v>1.028821493235329E-14</v>
+        <v>4.770680155299928E-30</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3468,37 +3360,37 @@
         <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C56" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D56">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>0.3386386725364037</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>2941</v>
+        <v>984</v>
       </c>
       <c r="G56">
-        <v>99.59363359295632</v>
+        <v>99.8984771573604</v>
       </c>
       <c r="H56">
-        <v>-0.0008723751274209989</v>
+        <v>-4.91454425294551E-05</v>
       </c>
       <c r="I56">
-        <v>0.01390410006701777</v>
+        <v>0.002461769688413344</v>
       </c>
       <c r="J56">
-        <v>-0.08719999999999994</v>
+        <v>-0.009698093198099556</v>
       </c>
       <c r="K56">
-        <v>0.04749999999999999</v>
+        <v>0.01052614790659723</v>
       </c>
       <c r="L56">
-        <v>0.07589130800056804</v>
+        <v>0.04770593379818916</v>
       </c>
       <c r="M56">
         <v>10</v>
@@ -3507,7 +3399,7 @@
         <v>1</v>
       </c>
       <c r="O56">
-        <v>4.977151382770336E-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3515,37 +3407,37 @@
         <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C57" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D57">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>2.031832035218422</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>2953</v>
+        <v>939</v>
       </c>
       <c r="G57">
-        <v>100</v>
+        <v>95.32994923857868</v>
       </c>
       <c r="H57">
-        <v>0.027858528986351</v>
+        <v>-5.131247094251334E-05</v>
       </c>
       <c r="I57">
-        <v>1.337201349278105</v>
+        <v>0.009803743051372627</v>
       </c>
       <c r="J57">
-        <v>-5.311403794766402</v>
+        <v>-0.06844095727370991</v>
       </c>
       <c r="K57">
-        <v>4.189542624908878</v>
+        <v>0.07752677416659282</v>
       </c>
       <c r="L57">
-        <v>-0.06810163426468821</v>
+        <v>-0.04642804878723648</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -3554,7 +3446,7 @@
         <v>1</v>
       </c>
       <c r="O57">
-        <v>1.452520978626449E-13</v>
+        <v>1.074240305183718E-10</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3562,46 +3454,46 @@
         <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C58" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D58">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>1.997968167964782</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>2953</v>
+        <v>985</v>
       </c>
       <c r="G58">
         <v>100</v>
       </c>
       <c r="H58">
-        <v>0.08516553939195287</v>
+        <v>0.0002873682460344791</v>
       </c>
       <c r="I58">
-        <v>1.400555844799294</v>
+        <v>0.01699893179527755</v>
       </c>
       <c r="J58">
-        <v>-3.18697308773451</v>
+        <v>-0.06138762339002524</v>
       </c>
       <c r="K58">
-        <v>4.664955816051047</v>
+        <v>0.07450355094231487</v>
       </c>
       <c r="L58">
-        <v>-0.061911832889358</v>
+        <v>-0.0454798799963702</v>
       </c>
       <c r="M58">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N58" t="b">
         <v>1</v>
       </c>
       <c r="O58">
-        <v>2.367415928369385E-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3609,46 +3501,46 @@
         <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C59" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>0.1015916017609211</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>2674</v>
+        <v>985</v>
       </c>
       <c r="G59">
-        <v>90.55198103623434</v>
+        <v>100</v>
       </c>
       <c r="H59">
-        <v>-4.101997505564416</v>
+        <v>0.05843998076659453</v>
       </c>
       <c r="I59">
-        <v>18.45591784903839</v>
+        <v>0.07094729306759788</v>
       </c>
       <c r="J59">
-        <v>-144.5</v>
+        <v>0.001517307658279876</v>
       </c>
       <c r="K59">
-        <v>14.5</v>
+        <v>0.6158194548424155</v>
       </c>
       <c r="L59">
-        <v>0.06133836811763264</v>
+        <v>0.04158552715800166</v>
       </c>
       <c r="M59">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N59" t="b">
         <v>1</v>
       </c>
       <c r="O59">
-        <v>0.01566441164229209</v>
+        <v>0.0002014909409034328</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3656,46 +3548,46 @@
         <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C60" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D60">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>0.3386386725364037</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>2946</v>
+        <v>984</v>
       </c>
       <c r="G60">
-        <v>99.76295292922451</v>
+        <v>99.8984771573604</v>
       </c>
       <c r="H60">
-        <v>-0.1043832823649338</v>
+        <v>-0.02259303624233623</v>
       </c>
       <c r="I60">
-        <v>4.339192801956976</v>
+        <v>2.996774113571165</v>
       </c>
       <c r="J60">
-        <v>-26.12</v>
+        <v>-40.76923076923077</v>
       </c>
       <c r="K60">
-        <v>27.74000000000001</v>
+        <v>64.8</v>
       </c>
       <c r="L60">
-        <v>0.05836382932881806</v>
+        <v>0.04150392304463107</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N60" t="b">
         <v>1</v>
       </c>
       <c r="O60">
-        <v>4.975424007703325E-14</v>
+        <v>2.551782711334769E-06</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3703,46 +3595,46 @@
         <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C61" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D61">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>4.097527937690485</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>2952</v>
+        <v>985</v>
       </c>
       <c r="G61">
-        <v>99.96613613274636</v>
+        <v>100</v>
       </c>
       <c r="H61">
-        <v>-0.56532322105858</v>
+        <v>-7.159237278456894E-05</v>
       </c>
       <c r="I61">
-        <v>9.332619551963427</v>
+        <v>0.002654390685958872</v>
       </c>
       <c r="J61">
-        <v>-222</v>
+        <v>-0.009653274818567259</v>
       </c>
       <c r="K61">
-        <v>122</v>
+        <v>0.01131733566989984</v>
       </c>
       <c r="L61">
-        <v>0.05678633113775643</v>
+        <v>-0.03972213081317805</v>
       </c>
       <c r="M61">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N61" t="b">
         <v>1</v>
       </c>
       <c r="O61">
-        <v>2.436235802097064E-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3750,46 +3642,46 @@
         <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C62" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D62">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>2.031832035218422</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>2953</v>
+        <v>985</v>
       </c>
       <c r="G62">
         <v>100</v>
       </c>
       <c r="H62">
-        <v>-0.3400679997304838</v>
+        <v>0.006874111675126901</v>
       </c>
       <c r="I62">
-        <v>1.395743132376229</v>
+        <v>0.1869550107555109</v>
       </c>
       <c r="J62">
-        <v>-4.237852602967286</v>
+        <v>-0.6435</v>
       </c>
       <c r="K62">
-        <v>4.073148105753629</v>
+        <v>0.5869999999999997</v>
       </c>
       <c r="L62">
-        <v>0.05250050685456247</v>
+        <v>0.0361314540826909</v>
       </c>
       <c r="M62">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N62" t="b">
         <v>1</v>
       </c>
       <c r="O62">
-        <v>1.169200133004135E-09</v>
+        <v>8.427737493001719E-05</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3797,46 +3689,46 @@
         <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C63" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D63">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>2.065695902472062</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>2947</v>
+        <v>940</v>
       </c>
       <c r="G63">
-        <v>99.79681679647815</v>
+        <v>95.43147208121827</v>
       </c>
       <c r="H63">
-        <v>0.01566087384656438</v>
+        <v>0.0001047857528648439</v>
       </c>
       <c r="I63">
-        <v>0.108314840328203</v>
+        <v>0.00238762388709314</v>
       </c>
       <c r="J63">
-        <v>-0.4038081621513733</v>
+        <v>-0.01424556628024343</v>
       </c>
       <c r="K63">
-        <v>0.5068348208432305</v>
+        <v>0.009027937186763424</v>
       </c>
       <c r="L63">
-        <v>0.05024441097984375</v>
+        <v>0.03367672022295524</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" t="b">
         <v>1</v>
       </c>
       <c r="O63">
-        <v>3.012681466869051E-07</v>
+        <v>9.963580600734063E-09</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3844,46 +3736,46 @@
         <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C64" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>0.03386386725364036</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>2838</v>
+        <v>985</v>
       </c>
       <c r="G64">
-        <v>96.10565526583136</v>
+        <v>100</v>
       </c>
       <c r="H64">
-        <v>5.461388418118478E-05</v>
+        <v>-2.747298187091234E-05</v>
       </c>
       <c r="I64">
-        <v>0.002110968994257589</v>
+        <v>0.02249780061361145</v>
       </c>
       <c r="J64">
-        <v>-0.01424556628024343</v>
+        <v>-0.1330698423201673</v>
       </c>
       <c r="K64">
-        <v>0.01566166083629295</v>
+        <v>0.08177338123986377</v>
       </c>
       <c r="L64">
-        <v>-0.04973735875691234</v>
+        <v>-0.03293065732385993</v>
       </c>
       <c r="M64">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N64" t="b">
         <v>1</v>
       </c>
       <c r="O64">
-        <v>2.50843699223684E-15</v>
+        <v>5.269107802653159E-17</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -3891,46 +3783,46 @@
         <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C65" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D65">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>0.3386386725364037</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>2937</v>
+        <v>985</v>
       </c>
       <c r="G65">
-        <v>99.45817812394175</v>
+        <v>100</v>
       </c>
       <c r="H65">
-        <v>9.18110771321782E-05</v>
+        <v>-4.880077675305898E-05</v>
       </c>
       <c r="I65">
-        <v>0.01211635708410118</v>
+        <v>0.0176271093951369</v>
       </c>
       <c r="J65">
-        <v>-0.05469999999999997</v>
+        <v>-0.05932443670405707</v>
       </c>
       <c r="K65">
-        <v>0.09140000000000004</v>
+        <v>0.05618963192382687</v>
       </c>
       <c r="L65">
-        <v>-0.04755132821379706</v>
+        <v>-0.02715224617989022</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N65" t="b">
         <v>1</v>
       </c>
       <c r="O65">
-        <v>2.20441179225501E-20</v>
+        <v>1.076563250967352E-26</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3938,46 +3830,46 @@
         <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C66" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>0.06772773450728073</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>2948</v>
+        <v>954</v>
       </c>
       <c r="G66">
-        <v>99.8306806637318</v>
+        <v>96.85279187817258</v>
       </c>
       <c r="H66">
-        <v>-2.782893104790618E-05</v>
+        <v>0.0008881584021984166</v>
       </c>
       <c r="I66">
-        <v>0.02123654251958976</v>
+        <v>0.01351192437978198</v>
       </c>
       <c r="J66">
-        <v>-0.2149511635537982</v>
+        <v>-0.1030955090269741</v>
       </c>
       <c r="K66">
-        <v>0.2809117212706118</v>
+        <v>0.1234287810689567</v>
       </c>
       <c r="L66">
-        <v>-0.04402404430184102</v>
+        <v>0.02390998940850774</v>
       </c>
       <c r="M66">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N66" t="b">
         <v>1</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>4.394014097019161E-22</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -3985,46 +3877,46 @@
         <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C67" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D67">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>0.3386386725364037</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>2950</v>
+        <v>985</v>
       </c>
       <c r="G67">
-        <v>99.89840839823908</v>
+        <v>100</v>
       </c>
       <c r="H67">
-        <v>0.02272568807339449</v>
+        <v>0.0001745863096696572</v>
       </c>
       <c r="I67">
-        <v>0.4853316117995596</v>
+        <v>0.01174076841965945</v>
       </c>
       <c r="J67">
-        <v>-2.169</v>
+        <v>-0.04308667620406137</v>
       </c>
       <c r="K67">
-        <v>4.554000000000002</v>
+        <v>0.0563173550606193</v>
       </c>
       <c r="L67">
-        <v>-0.04193428451056785</v>
+        <v>0.0236736283255199</v>
       </c>
       <c r="M67">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N67" t="b">
         <v>1</v>
       </c>
       <c r="O67">
-        <v>2.026429770809584E-17</v>
+        <v>1.648132341831641E-24</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -4032,46 +3924,46 @@
         <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C68" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D68">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>0.3725025397900441</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>2945</v>
+        <v>985</v>
       </c>
       <c r="G68">
-        <v>99.72908906197088</v>
+        <v>100</v>
       </c>
       <c r="H68">
-        <v>0.00487576478585996</v>
+        <v>-1.225465847523359E-05</v>
       </c>
       <c r="I68">
-        <v>0.1493629809179438</v>
+        <v>0.00161257550417851</v>
       </c>
       <c r="J68">
-        <v>-1.040999999999999</v>
+        <v>-0.006154524256717142</v>
       </c>
       <c r="K68">
-        <v>0.7839999999999998</v>
+        <v>0.009984681176262722</v>
       </c>
       <c r="L68">
-        <v>0.03930270912643377</v>
+        <v>-0.022580494331793</v>
       </c>
       <c r="M68">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N68" t="b">
         <v>1</v>
       </c>
       <c r="O68">
-        <v>1.556249744947294E-14</v>
+        <v>9.373742182623478E-30</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -4079,46 +3971,46 @@
         <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C69" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D69">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>2.031832035218422</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>2953</v>
+        <v>985</v>
       </c>
       <c r="G69">
         <v>100</v>
       </c>
       <c r="H69">
-        <v>0.07170218343734104</v>
+        <v>0.0005742994413412472</v>
       </c>
       <c r="I69">
-        <v>0.4128989616141943</v>
+        <v>0.008959683198122889</v>
       </c>
       <c r="J69">
-        <v>-0.8072727272727273</v>
+        <v>-0.03514529022365043</v>
       </c>
       <c r="K69">
-        <v>3.53448275862069</v>
+        <v>0.03087184608640658</v>
       </c>
       <c r="L69">
-        <v>-0.03906692260095746</v>
+        <v>0.02182305911521486</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N69" t="b">
         <v>1</v>
       </c>
       <c r="O69">
-        <v>5.978029922198846E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -4126,46 +4018,46 @@
         <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C70" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D70">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>4.063664070436844</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>2953</v>
+        <v>985</v>
       </c>
       <c r="G70">
         <v>100</v>
       </c>
       <c r="H70">
-        <v>0.1443566561773849</v>
+        <v>8.055908800515518E-05</v>
       </c>
       <c r="I70">
-        <v>0.5999243485238187</v>
+        <v>0.00236030852257129</v>
       </c>
       <c r="J70">
-        <v>-0.8778501628664495</v>
+        <v>-0.01130816954475478</v>
       </c>
       <c r="K70">
-        <v>3.71875</v>
+        <v>0.007713296766514999</v>
       </c>
       <c r="L70">
-        <v>-0.03827421015066872</v>
+        <v>0.02084413403274858</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N70" t="b">
         <v>1</v>
       </c>
       <c r="O70">
-        <v>0.003392598077716704</v>
+        <v>2.95684362654756E-29</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -4173,37 +4065,37 @@
         <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C71" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
         <v>163</v>
       </c>
-      <c r="D71">
-        <v>11</v>
-      </c>
-      <c r="E71">
-        <v>0.3725025397900441</v>
-      </c>
-      <c r="F71">
-        <v>2948</v>
-      </c>
       <c r="G71">
-        <v>99.8306806637318</v>
+        <v>16.54822335025381</v>
       </c>
       <c r="H71">
-        <v>4.219194425560843</v>
+        <v>0.004986098441017598</v>
       </c>
       <c r="I71">
-        <v>139.291345213089</v>
+        <v>0.03432128984584249</v>
       </c>
       <c r="J71">
-        <v>-1182.96</v>
+        <v>-0.04226705091258398</v>
       </c>
       <c r="K71">
-        <v>632.4099999999999</v>
+        <v>0.1207778915046058</v>
       </c>
       <c r="L71">
-        <v>0.03639003344033449</v>
+        <v>-0.1677189417711944</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -4212,7 +4104,7 @@
         <v>1</v>
       </c>
       <c r="O71">
-        <v>5.178210298323664E-15</v>
+        <v>0.007940493304612073</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -4220,46 +4112,46 @@
         <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C72" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D72">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>1.997968167964782</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>2953</v>
+        <v>155</v>
       </c>
       <c r="G72">
-        <v>100</v>
+        <v>15.73604060913706</v>
       </c>
       <c r="H72">
-        <v>-0.09063676975546137</v>
+        <v>0.001312754221821091</v>
       </c>
       <c r="I72">
-        <v>1.3406296650458</v>
+        <v>0.02267158335444301</v>
       </c>
       <c r="J72">
-        <v>-4.177595750651601</v>
+        <v>-0.03849950641658428</v>
       </c>
       <c r="K72">
-        <v>3.655210645432627</v>
+        <v>0.1311983471074381</v>
       </c>
       <c r="L72">
-        <v>0.03489990456033876</v>
+        <v>-0.1018697533191913</v>
       </c>
       <c r="M72">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N72" t="b">
         <v>1</v>
       </c>
       <c r="O72">
-        <v>1.344499233287952E-13</v>
+        <v>0.0001019090835329796</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -4267,46 +4159,46 @@
         <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C73" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D73">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>0.3725025397900441</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>2948</v>
+        <v>158</v>
       </c>
       <c r="G73">
-        <v>99.8306806637318</v>
+        <v>16.04060913705584</v>
       </c>
       <c r="H73">
-        <v>7.099830047586675</v>
+        <v>0.01267670205330771</v>
       </c>
       <c r="I73">
-        <v>48.87679961150816</v>
+        <v>0.04853917308186154</v>
       </c>
       <c r="J73">
-        <v>-214.3000000000002</v>
+        <v>-0.05344995140913511</v>
       </c>
       <c r="K73">
-        <v>451.7000000000003</v>
+        <v>0.1284974093264248</v>
       </c>
       <c r="L73">
-        <v>-0.03343784031900839</v>
+        <v>-0.03013387533973619</v>
       </c>
       <c r="M73">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O73">
-        <v>4.241179048367152E-14</v>
+        <v>0.07176443517402352</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4314,46 +4206,46 @@
         <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C74" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>0.03386386725364036</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>2953</v>
+        <v>167</v>
       </c>
       <c r="G74">
-        <v>100</v>
+        <v>16.95431472081218</v>
       </c>
       <c r="H74">
-        <v>2.829026524007266</v>
+        <v>5.046243252905633E-05</v>
       </c>
       <c r="I74">
-        <v>50.45467058339351</v>
+        <v>0.005011725025875956</v>
       </c>
       <c r="J74">
-        <v>-283.5858123880571</v>
+        <v>-0.03886886889937369</v>
       </c>
       <c r="K74">
-        <v>219.9922384430365</v>
+        <v>0.1220909439170361</v>
       </c>
       <c r="L74">
-        <v>0.03197093642557219</v>
+        <v>-0.007921240283604979</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N74" t="b">
         <v>1</v>
       </c>
       <c r="O74">
-        <v>5.195473481175622E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -4361,46 +4253,46 @@
         <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C75" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D75">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>0.6772773450728073</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>2949</v>
+        <v>46</v>
       </c>
       <c r="G75">
-        <v>99.86454453098544</v>
+        <v>4.67005076142132</v>
       </c>
       <c r="H75">
-        <v>0.02477709679745708</v>
+        <v>0.5125888324873102</v>
       </c>
       <c r="I75">
-        <v>0.2341550192616849</v>
+        <v>9.28598712078557</v>
       </c>
       <c r="J75">
-        <v>-0.7150537634408602</v>
+        <v>-15.1</v>
       </c>
       <c r="K75">
-        <v>2.973333333333333</v>
+        <v>21.8</v>
       </c>
       <c r="L75">
-        <v>-0.03195861977646549</v>
+        <v>-0.2987213778551783</v>
       </c>
       <c r="M75">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75">
-        <v>5.557444229425934E-12</v>
+        <v>0.2687669826888242</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -4408,46 +4300,46 @@
         <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C76" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>0.03386386725364036</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>2941</v>
+        <v>42</v>
       </c>
       <c r="G76">
-        <v>99.59363359295632</v>
+        <v>4.263959390862944</v>
       </c>
       <c r="H76">
-        <v>0.0001036698724839488</v>
+        <v>0.07191065989847716</v>
       </c>
       <c r="I76">
-        <v>0.02010671500924003</v>
+        <v>0.1195110641290555</v>
       </c>
       <c r="J76">
-        <v>-0.1354853856078985</v>
+        <v>-0.145</v>
       </c>
       <c r="K76">
-        <v>0.1407400742214661</v>
+        <v>0.322</v>
       </c>
       <c r="L76">
-        <v>-0.0286284105123001</v>
+        <v>-0.2460667810883574</v>
       </c>
       <c r="M76">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O76">
-        <v>8.060151313795372E-30</v>
+        <v>0.1501602644379804</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -4455,46 +4347,46 @@
         <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C77" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D77">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>0.7111412123264477</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>2952</v>
+        <v>46</v>
       </c>
       <c r="G77">
-        <v>99.96613613274636</v>
+        <v>4.67005076142132</v>
       </c>
       <c r="H77">
-        <v>0.02873238768174575</v>
+        <v>-1.112994923857868</v>
       </c>
       <c r="I77">
-        <v>3.242674740884388</v>
+        <v>16.00301336159528</v>
       </c>
       <c r="J77">
-        <v>-44.66666666666666</v>
+        <v>-34</v>
       </c>
       <c r="K77">
-        <v>91.8</v>
+        <v>36.8</v>
       </c>
       <c r="L77">
-        <v>-0.02735737251399557</v>
+        <v>-0.2443003772954115</v>
       </c>
       <c r="M77">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O77">
-        <v>7.232464556697459E-20</v>
+        <v>0.1209827635792378</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4502,46 +4394,46 @@
         <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C78" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>0.03386386725364036</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>2953</v>
+        <v>46</v>
       </c>
       <c r="G78">
-        <v>100</v>
+        <v>4.67005076142132</v>
       </c>
       <c r="H78">
-        <v>0.000104693793646855</v>
+        <v>0.503634854332232</v>
       </c>
       <c r="I78">
-        <v>0.005591981859965073</v>
+        <v>6.43813223827182</v>
       </c>
       <c r="J78">
-        <v>-0.03829280031050253</v>
+        <v>-14.5186652069256</v>
       </c>
       <c r="K78">
-        <v>0.03134037517104993</v>
+        <v>15.72856783571619</v>
       </c>
       <c r="L78">
-        <v>-0.026585847371634</v>
+        <v>0.2396366981205463</v>
       </c>
       <c r="M78">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N78" t="b">
         <v>1</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.0001213381938365995</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4549,46 +4441,46 @@
         <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C79" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>0.03386386725364036</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>2953</v>
+        <v>46</v>
       </c>
       <c r="G79">
-        <v>100</v>
+        <v>4.67005076142132</v>
       </c>
       <c r="H79">
-        <v>-4.416648030270448E-05</v>
+        <v>1469.53807106599</v>
       </c>
       <c r="I79">
-        <v>0.003257416813280861</v>
+        <v>141.341327128358</v>
       </c>
       <c r="J79">
-        <v>-0.04943753179832844</v>
+        <v>1262</v>
       </c>
       <c r="K79">
-        <v>0.01664605648757289</v>
+        <v>1828</v>
       </c>
       <c r="L79">
-        <v>0.02619533234786255</v>
+        <v>-0.2345997418427514</v>
       </c>
       <c r="M79">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>0.2426750401795348</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4596,46 +4488,46 @@
         <v>93</v>
       </c>
       <c r="B80" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C80" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>0.03386386725364036</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>2949</v>
+        <v>92</v>
       </c>
       <c r="G80">
-        <v>99.86454453098544</v>
+        <v>9.340101522842639</v>
       </c>
       <c r="H80">
-        <v>-5.944327932770381E-06</v>
+        <v>0.02118497825498532</v>
       </c>
       <c r="I80">
-        <v>0.0158306714803559</v>
+        <v>0.1477777299492757</v>
       </c>
       <c r="J80">
-        <v>-0.159019023144671</v>
+        <v>-0.2587141750580945</v>
       </c>
       <c r="K80">
-        <v>0.1590239196329098</v>
+        <v>0.5224056603773586</v>
       </c>
       <c r="L80">
-        <v>-0.02485296194466163</v>
+        <v>-0.2118191090802552</v>
       </c>
       <c r="M80">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N80" t="b">
         <v>1</v>
       </c>
       <c r="O80">
-        <v>1.840027951162883E-15</v>
+        <v>0.007966734222098745</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4643,46 +4535,46 @@
         <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C81" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>0.03386386725364036</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>2953</v>
+        <v>91</v>
       </c>
       <c r="G81">
-        <v>100</v>
+        <v>9.238578680203045</v>
       </c>
       <c r="H81">
-        <v>-4.782238640522819E-05</v>
+        <v>0.2212071777515353</v>
       </c>
       <c r="I81">
-        <v>0.00264142721271799</v>
+        <v>0.2402788073194465</v>
       </c>
       <c r="J81">
-        <v>-0.01767223450932326</v>
+        <v>-0.1657754010695188</v>
       </c>
       <c r="K81">
-        <v>0.01227238576743822</v>
+        <v>0.946564885496183</v>
       </c>
       <c r="L81">
-        <v>0.0248506083961007</v>
+        <v>0.1977128612720906</v>
       </c>
       <c r="M81">
         <v>10</v>
       </c>
       <c r="N81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.5314142040550838</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -4690,46 +4582,46 @@
         <v>95</v>
       </c>
       <c r="B82" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C82" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>0.06772773450728073</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>2947</v>
+        <v>46</v>
       </c>
       <c r="G82">
-        <v>99.79681679647815</v>
+        <v>4.67005076142132</v>
       </c>
       <c r="H82">
-        <v>5.576769085784404E-05</v>
+        <v>0.005720812182741114</v>
       </c>
       <c r="I82">
-        <v>0.03834719658963809</v>
+        <v>0.1273168867742071</v>
       </c>
       <c r="J82">
-        <v>-0.6758755940512846</v>
+        <v>-0.25</v>
       </c>
       <c r="K82">
-        <v>0.5646060949370112</v>
+        <v>0.242</v>
       </c>
       <c r="L82">
-        <v>-0.02480974516382939</v>
+        <v>-0.1944810281060123</v>
       </c>
       <c r="M82">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O82">
-        <v>1.781558501060526E-24</v>
+        <v>0.2134912375958836</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -4737,46 +4629,46 @@
         <v>96</v>
       </c>
       <c r="B83" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C83" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>0.03386386725364036</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>2952</v>
+        <v>46</v>
       </c>
       <c r="G83">
-        <v>99.96613613274636</v>
+        <v>4.67005076142132</v>
       </c>
       <c r="H83">
-        <v>4.905090998219544E-05</v>
+        <v>0.14608671629634</v>
       </c>
       <c r="I83">
-        <v>0.002569418209303688</v>
+        <v>0.1909399961125095</v>
       </c>
       <c r="J83">
-        <v>-0.01137373749516424</v>
+        <v>-0.03901437371663252</v>
       </c>
       <c r="K83">
-        <v>0.01248424903920786</v>
+        <v>0.7406143344709895</v>
       </c>
       <c r="L83">
-        <v>-0.022648545951117</v>
+        <v>0.1923621512929977</v>
       </c>
       <c r="M83">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>0.1604880324877051</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -4784,46 +4676,46 @@
         <v>97</v>
       </c>
       <c r="B84" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C84" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D84">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>0.3386386725364037</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>2951</v>
+        <v>34</v>
       </c>
       <c r="G84">
-        <v>99.93227226549271</v>
+        <v>3.451776649746193</v>
       </c>
       <c r="H84">
-        <v>-1.515647298674822</v>
+        <v>0.02896345177664976</v>
       </c>
       <c r="I84">
-        <v>46.34712709895785</v>
+        <v>0.01271221022820727</v>
       </c>
       <c r="J84">
-        <v>-292.95</v>
+        <v>0.012</v>
       </c>
       <c r="K84">
-        <v>185.1000000000001</v>
+        <v>0.079</v>
       </c>
       <c r="L84">
-        <v>0.0210277013593281</v>
+        <v>-0.1680219635781086</v>
       </c>
       <c r="M84">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N84" t="b">
         <v>1</v>
       </c>
       <c r="O84">
-        <v>9.153144892622293E-18</v>
+        <v>0.0002172829974127661</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -4831,46 +4723,46 @@
         <v>98</v>
       </c>
       <c r="B85" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C85" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>0.03386386725364036</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>2953</v>
+        <v>88</v>
       </c>
       <c r="G85">
-        <v>100</v>
+        <v>8.934010152284264</v>
       </c>
       <c r="H85">
-        <v>0.02982368257443038</v>
+        <v>0.02450015351333258</v>
       </c>
       <c r="I85">
-        <v>0.3475591773275741</v>
+        <v>0.04583729594640673</v>
       </c>
       <c r="J85">
-        <v>-1.078156641573146</v>
+        <v>-0.04039408866995065</v>
       </c>
       <c r="K85">
-        <v>1.954227970123157</v>
+        <v>0.1105476673427992</v>
       </c>
       <c r="L85">
-        <v>-0.01994238252890616</v>
+        <v>-0.1576155309312106</v>
       </c>
       <c r="M85">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O85">
-        <v>1.654927491552196E-11</v>
+        <v>0.1179809587212998</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -4878,46 +4770,46 @@
         <v>99</v>
       </c>
       <c r="B86" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C86" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>0.03386386725364036</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>2953</v>
+        <v>86</v>
       </c>
       <c r="G86">
-        <v>100</v>
+        <v>8.730964467005077</v>
       </c>
       <c r="H86">
-        <v>4.340929219900245E-06</v>
+        <v>0.01409172271080339</v>
       </c>
       <c r="I86">
-        <v>0.002145301672541422</v>
+        <v>0.05300020519388755</v>
       </c>
       <c r="J86">
-        <v>-0.009002986760943132</v>
+        <v>-0.1022727272727273</v>
       </c>
       <c r="K86">
-        <v>0.02644458780674996</v>
+        <v>0.1277641277641277</v>
       </c>
       <c r="L86">
-        <v>-0.01845017003293309</v>
+        <v>-0.1570749293803364</v>
       </c>
       <c r="M86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N86" t="b">
         <v>1</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>0.003772220253368679</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -4925,46 +4817,46 @@
         <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C87" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87">
-        <v>0.03386386725364036</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>2953</v>
+        <v>46</v>
       </c>
       <c r="G87">
-        <v>100</v>
+        <v>4.67005076142132</v>
       </c>
       <c r="H87">
-        <v>-0.0001500576363231961</v>
+        <v>66.60467005076141</v>
       </c>
       <c r="I87">
-        <v>0.02872021762217087</v>
+        <v>7.221439294595993</v>
       </c>
       <c r="J87">
-        <v>-0.5334787868833297</v>
+        <v>50</v>
       </c>
       <c r="K87">
-        <v>0.5455383022366269</v>
+        <v>85.5</v>
       </c>
       <c r="L87">
-        <v>0.01813932049347628</v>
+        <v>-0.1442674913442241</v>
       </c>
       <c r="M87">
         <v>0</v>
       </c>
       <c r="N87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O87">
-        <v>7.9986788999653E-17</v>
+        <v>0.06203567466426684</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -4972,46 +4864,46 @@
         <v>101</v>
       </c>
       <c r="B88" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C88" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>0.06772773450728073</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>2828</v>
+        <v>46</v>
       </c>
       <c r="G88">
-        <v>95.76701659329495</v>
+        <v>4.67005076142132</v>
       </c>
       <c r="H88">
-        <v>0.0001510860898792124</v>
+        <v>-15.83218274111675</v>
       </c>
       <c r="I88">
-        <v>0.01249442428232821</v>
+        <v>6.126094543574695</v>
       </c>
       <c r="J88">
-        <v>-0.08870261260902446</v>
+        <v>-28.7</v>
       </c>
       <c r="K88">
-        <v>0.07752677416659282</v>
+        <v>-2.1</v>
       </c>
       <c r="L88">
-        <v>0.01484652624386733</v>
+        <v>-0.1433215207441244</v>
       </c>
       <c r="M88">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O88">
-        <v>8.285498184542592E-20</v>
+        <v>0.1836750650879083</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -5019,46 +4911,46 @@
         <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C89" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D89">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>2.235015238740264</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>2890</v>
+        <v>51</v>
       </c>
       <c r="G89">
-        <v>97.86657636302066</v>
+        <v>5.177664974619289</v>
       </c>
       <c r="H89">
-        <v>-0.1341268085437759</v>
+        <v>0.001163556115556038</v>
       </c>
       <c r="I89">
-        <v>1.381213940576967</v>
+        <v>0.1451316673007936</v>
       </c>
       <c r="J89">
-        <v>-6.286986773346671</v>
+        <v>-0.1735751295336787</v>
       </c>
       <c r="K89">
-        <v>7.426249808564735</v>
+        <v>0.4571106094808126</v>
       </c>
       <c r="L89">
-        <v>-0.01483606403984264</v>
+        <v>-0.1164319085814579</v>
       </c>
       <c r="M89">
         <v>0</v>
       </c>
       <c r="N89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O89">
-        <v>1.884757961573596E-15</v>
+        <v>0.160921722074077</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -5066,46 +4958,46 @@
         <v>103</v>
       </c>
       <c r="B90" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C90" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>0.7111412123264477</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>2925</v>
+        <v>46</v>
       </c>
       <c r="G90">
-        <v>99.05181171689807</v>
+        <v>4.67005076142132</v>
       </c>
       <c r="H90">
-        <v>-0.005932423068430122</v>
+        <v>3.204670050761422</v>
       </c>
       <c r="I90">
-        <v>0.04066584467393267</v>
+        <v>17.65635605278651</v>
       </c>
       <c r="J90">
-        <v>-0.1883988494726749</v>
+        <v>-31.3</v>
       </c>
       <c r="K90">
-        <v>0.1742450538007636</v>
+        <v>44.3</v>
       </c>
       <c r="L90">
-        <v>0.0141339686562441</v>
+        <v>-0.1086954758863152</v>
       </c>
       <c r="M90">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N90" t="b">
         <v>1</v>
       </c>
       <c r="O90">
-        <v>9.576816365261906E-11</v>
+        <v>0.02514150819958977</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -5113,46 +5005,46 @@
         <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C91" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="D91">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>0.6772773450728073</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>2943</v>
+        <v>45</v>
       </c>
       <c r="G91">
-        <v>99.6613613274636</v>
+        <v>4.568527918781726</v>
       </c>
       <c r="H91">
-        <v>0.00898496990958958</v>
+        <v>2987604.060913706</v>
       </c>
       <c r="I91">
-        <v>0.1256558698168929</v>
+        <v>231895.129752663</v>
       </c>
       <c r="J91">
-        <v>-0.5932977913175932</v>
+        <v>2580000</v>
       </c>
       <c r="K91">
-        <v>0.8009828009828011</v>
+        <v>3950000</v>
       </c>
       <c r="L91">
-        <v>-0.01398197503438476</v>
+        <v>0.1077094705708911</v>
       </c>
       <c r="M91">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N91" t="b">
         <v>1</v>
       </c>
       <c r="O91">
-        <v>1.120448187345557E-09</v>
+        <v>0.0002370343669692418</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -5160,46 +5052,46 @@
         <v>105</v>
       </c>
       <c r="B92" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C92" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>0.1354554690145615</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>2888</v>
+        <v>46</v>
       </c>
       <c r="G92">
-        <v>97.79884862851338</v>
+        <v>4.67005076142132</v>
       </c>
       <c r="H92">
-        <v>0.0001017866325407422</v>
+        <v>1.2622067957662</v>
       </c>
       <c r="I92">
-        <v>0.03687711703954977</v>
+        <v>12.73101475298149</v>
       </c>
       <c r="J92">
-        <v>-0.5312163134137248</v>
+        <v>-35.83881364227151</v>
       </c>
       <c r="K92">
-        <v>0.5122246446796981</v>
+        <v>33.31422182055761</v>
       </c>
       <c r="L92">
-        <v>-0.01308201130313671</v>
+        <v>-0.1028448939453502</v>
       </c>
       <c r="M92">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N92" t="b">
         <v>1</v>
       </c>
       <c r="O92">
-        <v>4.501952238269434E-23</v>
+        <v>1.347745778051487E-10</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -5207,46 +5099,46 @@
         <v>106</v>
       </c>
       <c r="B93" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C93" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>0.03386386725364036</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>2942</v>
+        <v>46</v>
       </c>
       <c r="G93">
-        <v>99.62749746020995</v>
+        <v>4.67005076142132</v>
       </c>
       <c r="H93">
-        <v>3.388223857332301E-05</v>
+        <v>0.7541074725043078</v>
       </c>
       <c r="I93">
-        <v>0.01710782094433254</v>
+        <v>7.368338757108084</v>
       </c>
       <c r="J93">
-        <v>-0.1167684692964369</v>
+        <v>-15.71594877764842</v>
       </c>
       <c r="K93">
-        <v>0.1479436702891914</v>
+        <v>29.97237569060771</v>
       </c>
       <c r="L93">
-        <v>-0.01260332794953245</v>
+        <v>-0.09241575012698963</v>
       </c>
       <c r="M93">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N93" t="b">
         <v>1</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>1.369500917006894E-08</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -5254,40 +5146,40 @@
         <v>107</v>
       </c>
       <c r="B94" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C94" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>0.03386386725364036</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>2952</v>
+        <v>91</v>
       </c>
       <c r="G94">
-        <v>99.96613613274636</v>
+        <v>9.238578680203045</v>
       </c>
       <c r="H94">
-        <v>0.0001286344624793442</v>
+        <v>0.0005143096970741261</v>
       </c>
       <c r="I94">
-        <v>0.007432848068555643</v>
+        <v>0.009603305380714222</v>
       </c>
       <c r="J94">
-        <v>-0.04097910712518749</v>
+        <v>-0.08991077014863236</v>
       </c>
       <c r="K94">
-        <v>0.07702053815601673</v>
+        <v>0.09763846956391586</v>
       </c>
       <c r="L94">
-        <v>-0.01233080028331108</v>
+        <v>-0.09084514813927719</v>
       </c>
       <c r="M94">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N94" t="b">
         <v>1</v>
@@ -5301,46 +5193,46 @@
         <v>108</v>
       </c>
       <c r="B95" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C95" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>0.03386386725364036</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>2953</v>
+        <v>42</v>
       </c>
       <c r="G95">
-        <v>100</v>
+        <v>4.263959390862944</v>
       </c>
       <c r="H95">
-        <v>-0.0001186667552619033</v>
+        <v>0.09562436548223351</v>
       </c>
       <c r="I95">
-        <v>0.01584754989906287</v>
+        <v>0.0201283234701737</v>
       </c>
       <c r="J95">
-        <v>-0.1359454740604091</v>
+        <v>0.062</v>
       </c>
       <c r="K95">
-        <v>0.09917162232394539</v>
+        <v>0.129</v>
       </c>
       <c r="L95">
-        <v>0.01093955436764509</v>
+        <v>0.08807708335224176</v>
       </c>
       <c r="M95">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O95">
-        <v>0</v>
+        <v>0.9058548561032816</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -5348,46 +5240,46 @@
         <v>109</v>
       </c>
       <c r="B96" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C96" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D96">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>0.3725025397900441</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>2951</v>
+        <v>45</v>
       </c>
       <c r="G96">
-        <v>99.93227226549271</v>
+        <v>4.568527918781726</v>
       </c>
       <c r="H96">
-        <v>0.04330217539089053</v>
+        <v>-0.0007015228426395939</v>
       </c>
       <c r="I96">
-        <v>1.16410966256743</v>
+        <v>0.01398693669411203</v>
       </c>
       <c r="J96">
-        <v>-5.473999999999998</v>
+        <v>-0.037</v>
       </c>
       <c r="K96">
-        <v>5.481999999999999</v>
+        <v>0.034</v>
       </c>
       <c r="L96">
-        <v>-0.01074738570720591</v>
+        <v>-0.0804326281170325</v>
       </c>
       <c r="M96">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N96" t="b">
         <v>1</v>
       </c>
       <c r="O96">
-        <v>7.0240779974163E-17</v>
+        <v>2.160280543435893E-07</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -5395,46 +5287,46 @@
         <v>110</v>
       </c>
       <c r="B97" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C97" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>0.06772773450728073</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>2830</v>
+        <v>92</v>
       </c>
       <c r="G97">
-        <v>95.83474432780224</v>
+        <v>9.340101522842639</v>
       </c>
       <c r="H97">
-        <v>-0.0002546790724216739</v>
+        <v>0.04373824481319202</v>
       </c>
       <c r="I97">
-        <v>0.005660385313330967</v>
+        <v>0.110376268548012</v>
       </c>
       <c r="J97">
-        <v>-0.04804969764170841</v>
+        <v>-0.1550802139037434</v>
       </c>
       <c r="K97">
-        <v>0.04541386789394175</v>
+        <v>0.2943396226415096</v>
       </c>
       <c r="L97">
-        <v>-0.01050373713418314</v>
+        <v>0.06628771469493104</v>
       </c>
       <c r="M97">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N97" t="b">
         <v>1</v>
       </c>
       <c r="O97">
-        <v>0</v>
+        <v>0.001541705138268914</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -5442,46 +5334,46 @@
         <v>111</v>
       </c>
       <c r="B98" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C98" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>0.06772773450728073</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>2952</v>
+        <v>45</v>
       </c>
       <c r="G98">
-        <v>99.96613613274636</v>
+        <v>4.568527918781726</v>
       </c>
       <c r="H98">
-        <v>0.0001005467307609509</v>
+        <v>-0.311023714053383</v>
       </c>
       <c r="I98">
-        <v>0.01026185124323731</v>
+        <v>5.373605738416132</v>
       </c>
       <c r="J98">
-        <v>-0.0759904220073262</v>
+        <v>-11.93599999999999</v>
       </c>
       <c r="K98">
-        <v>0.0563173550606193</v>
+        <v>9.769094138543506</v>
       </c>
       <c r="L98">
-        <v>0.007365579386164715</v>
+        <v>0.06624526262470835</v>
       </c>
       <c r="M98">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N98" t="b">
         <v>1</v>
       </c>
       <c r="O98">
-        <v>0</v>
+        <v>0.0001407990078349326</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -5489,46 +5381,46 @@
         <v>112</v>
       </c>
       <c r="B99" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C99" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D99">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>2.065695902472062</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>2953</v>
+        <v>43</v>
       </c>
       <c r="G99">
-        <v>100</v>
+        <v>4.365482233502538</v>
       </c>
       <c r="H99">
-        <v>-0.01690864736695879</v>
+        <v>1.834294416243655</v>
       </c>
       <c r="I99">
-        <v>6.278166378847041</v>
+        <v>0.2598254859510212</v>
       </c>
       <c r="J99">
-        <v>-87.11111111111111</v>
+        <v>1.41</v>
       </c>
       <c r="K99">
-        <v>108</v>
+        <v>2.31</v>
       </c>
       <c r="L99">
-        <v>-0.007208580239535619</v>
+        <v>-0.0655721480157259</v>
       </c>
       <c r="M99">
         <v>10</v>
       </c>
       <c r="N99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O99">
-        <v>1.459298024260573E-18</v>
+        <v>0.5261402921491326</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -5536,46 +5428,46 @@
         <v>113</v>
       </c>
       <c r="B100" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C100" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>0.06772773450728073</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>2953</v>
+        <v>68</v>
       </c>
       <c r="G100">
-        <v>100</v>
+        <v>6.903553299492386</v>
       </c>
       <c r="H100">
-        <v>0.000161320035250516</v>
+        <v>-0.002618387156550853</v>
       </c>
       <c r="I100">
-        <v>0.01668990309467357</v>
+        <v>0.04925483444747046</v>
       </c>
       <c r="J100">
-        <v>-0.1150126830808231</v>
+        <v>-0.1185127807900852</v>
       </c>
       <c r="K100">
-        <v>0.08583840884314542</v>
+        <v>0.1013171225937184</v>
       </c>
       <c r="L100">
-        <v>-0.006571447744760459</v>
+        <v>-0.0638787718063791</v>
       </c>
       <c r="M100">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N100" t="b">
         <v>1</v>
       </c>
       <c r="O100">
-        <v>1.135946884806167E-27</v>
+        <v>6.937772223524848E-05</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -5583,46 +5475,46 @@
         <v>114</v>
       </c>
       <c r="B101" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C101" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>0.06772773450728073</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>2953</v>
+        <v>92</v>
       </c>
       <c r="G101">
-        <v>100</v>
+        <v>9.340101522842639</v>
       </c>
       <c r="H101">
-        <v>0.0003354187317564336</v>
+        <v>0.008795270316930004</v>
       </c>
       <c r="I101">
-        <v>0.009175188433200808</v>
+        <v>0.118321848836837</v>
       </c>
       <c r="J101">
-        <v>-0.05111272402728062</v>
+        <v>-0.1590509666080843</v>
       </c>
       <c r="K101">
-        <v>0.05771785045231503</v>
+        <v>0.4456886898096304</v>
       </c>
       <c r="L101">
-        <v>-0.006195890570815294</v>
+        <v>-0.05028057818738318</v>
       </c>
       <c r="M101">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N101" t="b">
         <v>1</v>
       </c>
       <c r="O101">
-        <v>0</v>
+        <v>0.0001525358498086887</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -5630,34 +5522,46 @@
         <v>115</v>
       </c>
       <c r="B102" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C102" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D102">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E102">
-        <v>0.7788689468337284</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>2909</v>
+        <v>91</v>
       </c>
       <c r="G102">
-        <v>98.50998984083984</v>
-      </c>
-      <c r="J102" t="s">
-        <v>166</v>
-      </c>
-      <c r="K102" t="s">
-        <v>165</v>
+        <v>9.238578680203045</v>
+      </c>
+      <c r="H102">
+        <v>0.09066187564502354</v>
+      </c>
+      <c r="I102">
+        <v>0.1663789012075775</v>
+      </c>
+      <c r="J102">
+        <v>-0.1677631578947369</v>
+      </c>
+      <c r="K102">
+        <v>0.6000000000000001</v>
       </c>
       <c r="L102">
-        <v>0</v>
+        <v>-0.04621495270808691</v>
       </c>
       <c r="M102">
         <v>0</v>
+      </c>
+      <c r="N102" t="b">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0.1181851426302591</v>
       </c>
     </row>
     <row r="103" spans="1:15">
@@ -5665,37 +5569,46 @@
         <v>116</v>
       </c>
       <c r="B103" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C103" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D103">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>8.635286149678294</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>2921</v>
+        <v>45</v>
       </c>
       <c r="G103">
-        <v>98.91635624788351</v>
-      </c>
-      <c r="H103" t="s">
-        <v>165</v>
+        <v>4.568527918781726</v>
+      </c>
+      <c r="H103">
+        <v>0.03606341552805113</v>
+      </c>
+      <c r="I103">
+        <v>9.968225245441207</v>
       </c>
       <c r="J103">
-        <v>-90</v>
-      </c>
-      <c r="K103" t="s">
-        <v>165</v>
+        <v>-33.82847038019452</v>
+      </c>
+      <c r="K103">
+        <v>22.80130293159609</v>
       </c>
       <c r="L103">
-        <v>0</v>
+        <v>0.03646814020067123</v>
       </c>
       <c r="M103">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="N103" t="b">
+        <v>1</v>
+      </c>
+      <c r="O103">
+        <v>2.338546479829151E-12</v>
       </c>
     </row>
     <row r="104" spans="1:15">
@@ -5703,33 +5616,45 @@
         <v>117</v>
       </c>
       <c r="B104" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C104" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D104">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>2.167287504232983</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>2909</v>
+        <v>93</v>
       </c>
       <c r="G104">
-        <v>98.50998984083984</v>
-      </c>
-      <c r="J104" t="s">
-        <v>166</v>
-      </c>
-      <c r="K104" t="s">
-        <v>165</v>
+        <v>9.441624365482234</v>
+      </c>
+      <c r="H104">
+        <v>-0.0002336525063530771</v>
+      </c>
+      <c r="I104">
+        <v>0.01116320151243035</v>
+      </c>
+      <c r="J104">
+        <v>-0.1251119016329936</v>
+      </c>
+      <c r="K104">
+        <v>0.09558369031339264</v>
       </c>
       <c r="L104">
-        <v>0</v>
+        <v>-0.02860317619441061</v>
       </c>
       <c r="M104">
+        <v>7</v>
+      </c>
+      <c r="N104" t="b">
+        <v>1</v>
+      </c>
+      <c r="O104">
         <v>0</v>
       </c>
     </row>
@@ -5738,34 +5663,46 @@
         <v>118</v>
       </c>
       <c r="B105" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C105" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D105">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>4.165255672197765</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>2921</v>
+        <v>46</v>
       </c>
       <c r="G105">
-        <v>98.91635624788351</v>
-      </c>
-      <c r="J105" t="s">
-        <v>166</v>
-      </c>
-      <c r="K105" t="s">
-        <v>165</v>
+        <v>4.67005076142132</v>
+      </c>
+      <c r="H105">
+        <v>0.004663248730964463</v>
+      </c>
+      <c r="I105">
+        <v>0.003070944613166292</v>
+      </c>
+      <c r="J105">
+        <v>-0.0022</v>
+      </c>
+      <c r="K105">
+        <v>0.0114</v>
       </c>
       <c r="L105">
-        <v>0</v>
+        <v>-0.02750137665610098</v>
       </c>
       <c r="M105">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="N105" t="b">
+        <v>1</v>
+      </c>
+      <c r="O105">
+        <v>0.001505585914138263</v>
       </c>
     </row>
     <row r="106" spans="1:15">
@@ -5773,37 +5710,37 @@
         <v>119</v>
       </c>
       <c r="B106" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="C106" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D106">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>2.031832035218422</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>321</v>
+        <v>91</v>
       </c>
       <c r="G106">
-        <v>10.87030138841856</v>
+        <v>9.238578680203045</v>
       </c>
       <c r="H106">
-        <v>0.008236242039585897</v>
+        <v>-0.00504794612111344</v>
       </c>
       <c r="I106">
-        <v>0.09837479004638953</v>
+        <v>0.07542665669985399</v>
       </c>
       <c r="J106">
-        <v>-0.1920529801324503</v>
+        <v>-0.1550522648083623</v>
       </c>
       <c r="K106">
-        <v>0.345132743362832</v>
+        <v>0.2836801752464404</v>
       </c>
       <c r="L106">
-        <v>-0.2157903876153207</v>
+        <v>-0.008401172142012392</v>
       </c>
       <c r="M106">
         <v>0</v>
@@ -5812,7 +5749,7 @@
         <v>1</v>
       </c>
       <c r="O106">
-        <v>1.939913962568897E-06</v>
+        <v>8.535443570359076E-05</v>
       </c>
     </row>
     <row r="107" spans="1:15">
@@ -5820,46 +5757,46 @@
         <v>120</v>
       </c>
       <c r="B107" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C107" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D107">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>4.70707754825601</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>397</v>
+        <v>16</v>
       </c>
       <c r="G107">
-        <v>13.44395529969523</v>
+        <v>1.624365482233503</v>
       </c>
       <c r="H107">
-        <v>0.01639104547597517</v>
+        <v>-33.54525407715736</v>
       </c>
       <c r="I107">
-        <v>0.1157774682326781</v>
+        <v>15.30132147272254</v>
       </c>
       <c r="J107">
-        <v>-0.3511859219586839</v>
+        <v>-55.76297</v>
       </c>
       <c r="K107">
-        <v>0.4456886898096304</v>
+        <v>-1.63847</v>
       </c>
       <c r="L107">
-        <v>0.1715876296887887</v>
+        <v>-0.2582592499976374</v>
       </c>
       <c r="M107">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O107">
-        <v>0.000320324401392159</v>
+        <v>0.4924805881890084</v>
       </c>
     </row>
     <row r="108" spans="1:15">
@@ -5867,46 +5804,46 @@
         <v>121</v>
       </c>
       <c r="B108" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C108" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D108">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="E108">
-        <v>2.675245513037589</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>337</v>
+        <v>27</v>
       </c>
       <c r="G108">
-        <v>11.4121232644768</v>
+        <v>2.741116751269036</v>
       </c>
       <c r="H108">
-        <v>0.008267618832416848</v>
+        <v>3.432142131979695</v>
       </c>
       <c r="I108">
-        <v>0.09022829532051825</v>
+        <v>2.112659620202668</v>
       </c>
       <c r="J108">
-        <v>-0.3396656534954406</v>
+        <v>0.08</v>
       </c>
       <c r="K108">
-        <v>0.362821948488242</v>
+        <v>5.33</v>
       </c>
       <c r="L108">
-        <v>0.1441411250932664</v>
+        <v>0.2478531563799765</v>
       </c>
       <c r="M108">
         <v>0</v>
       </c>
       <c r="N108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O108">
-        <v>2.632877488022599E-08</v>
+        <v>0.424622910631265</v>
       </c>
     </row>
     <row r="109" spans="1:15">
@@ -5914,46 +5851,46 @@
         <v>122</v>
       </c>
       <c r="B109" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C109" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D109">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="E109">
-        <v>9.17710802573654</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>517</v>
+        <v>17</v>
       </c>
       <c r="G109">
-        <v>17.50761937013207</v>
+        <v>1.725888324873097</v>
       </c>
       <c r="H109">
-        <v>0.02890508915411554</v>
+        <v>1.995177664974619</v>
       </c>
       <c r="I109">
-        <v>0.1616463723005362</v>
+        <v>1.860660504803277</v>
       </c>
       <c r="J109">
-        <v>-0.3723168023686159</v>
+        <v>-0.5</v>
       </c>
       <c r="K109">
-        <v>0.5224056603773586</v>
+        <v>4</v>
       </c>
       <c r="L109">
-        <v>0.1116318387548603</v>
+        <v>0.2015970372739011</v>
       </c>
       <c r="M109">
         <v>0</v>
       </c>
       <c r="N109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O109">
-        <v>0.003630331059684621</v>
+        <v>0.5750067028001348</v>
       </c>
     </row>
     <row r="110" spans="1:15">
@@ -5961,46 +5898,46 @@
         <v>123</v>
       </c>
       <c r="B110" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C110" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D110">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="E110">
-        <v>4.300711141212327</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>568</v>
+        <v>25</v>
       </c>
       <c r="G110">
-        <v>19.23467660006773</v>
+        <v>2.538071065989848</v>
       </c>
       <c r="H110">
-        <v>0.001043287560903822</v>
+        <v>0.06681522842639595</v>
       </c>
       <c r="I110">
-        <v>0.05604664676646411</v>
+        <v>0.00420877562357482</v>
       </c>
       <c r="J110">
-        <v>-0.1699346405228758</v>
+        <v>0.062</v>
       </c>
       <c r="K110">
-        <v>0.232142857142857</v>
+        <v>0.08</v>
       </c>
       <c r="L110">
-        <v>0.09532262500821091</v>
+        <v>-0.1961479921746824</v>
       </c>
       <c r="M110">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N110" t="b">
         <v>1</v>
       </c>
       <c r="O110">
-        <v>0.002540535024974365</v>
+        <v>0.003657905990799628</v>
       </c>
     </row>
     <row r="111" spans="1:15">
@@ -6008,1644 +5945,46 @@
         <v>124</v>
       </c>
       <c r="B111" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C111" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D111">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>0.9143244158482898</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>467</v>
+        <v>4</v>
       </c>
       <c r="G111">
-        <v>15.81442600745005</v>
+        <v>0.4060913705583756</v>
       </c>
       <c r="H111">
-        <v>6.39363936499855E-05</v>
+        <v>-6.903553299492403E-05</v>
       </c>
       <c r="I111">
-        <v>0.02190959373249927</v>
+        <v>0.001677749407069815</v>
       </c>
       <c r="J111">
-        <v>-0.1690294438386042</v>
+        <v>-0.001</v>
       </c>
       <c r="K111">
-        <v>0.1311983471074381</v>
+        <v>0.005</v>
       </c>
       <c r="L111">
-        <v>0.01641010505490504</v>
+        <v>0.1952748089604822</v>
       </c>
       <c r="M111">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O111">
-        <v>3.782684966950229E-12</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15">
-      <c r="A112" t="s">
-        <v>125</v>
-      </c>
-      <c r="B112" t="s">
-        <v>160</v>
-      </c>
-      <c r="C112" t="s">
-        <v>163</v>
-      </c>
-      <c r="D112">
-        <v>67</v>
-      </c>
-      <c r="E112">
-        <v>2.268879105993905</v>
-      </c>
-      <c r="F112">
-        <v>534</v>
-      </c>
-      <c r="G112">
-        <v>18.08330511344396</v>
-      </c>
-      <c r="H112">
-        <v>7.630607629969498E-05</v>
-      </c>
-      <c r="I112">
-        <v>0.03839344962383014</v>
-      </c>
-      <c r="J112">
-        <v>-0.1580110497237569</v>
-      </c>
-      <c r="K112">
-        <v>0.1404199475065617</v>
-      </c>
-      <c r="L112">
-        <v>-0.009789962960525353</v>
-      </c>
-      <c r="M112">
-        <v>1</v>
-      </c>
-      <c r="N112" t="b">
-        <v>1</v>
-      </c>
-      <c r="O112">
-        <v>3.422916158264194E-07</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15">
-      <c r="A113" t="s">
-        <v>126</v>
-      </c>
-      <c r="B113" t="s">
-        <v>160</v>
-      </c>
-      <c r="C113" t="s">
-        <v>163</v>
-      </c>
-      <c r="D113">
-        <v>8</v>
-      </c>
-      <c r="E113">
-        <v>0.2709109380291229</v>
-      </c>
-      <c r="F113">
-        <v>485</v>
-      </c>
-      <c r="G113">
-        <v>16.42397561801558</v>
-      </c>
-      <c r="H113">
-        <v>-8.924119111064207E-06</v>
-      </c>
-      <c r="I113">
-        <v>0.005001334586204177</v>
-      </c>
-      <c r="J113">
-        <v>-0.1044533685730036</v>
-      </c>
-      <c r="K113">
-        <v>0.1220909439170361</v>
-      </c>
-      <c r="L113">
-        <v>0.005737084973312562</v>
-      </c>
-      <c r="M113">
-        <v>7</v>
-      </c>
-      <c r="N113" t="b">
-        <v>1</v>
-      </c>
-      <c r="O113">
-        <v>4.316438711202285E-22</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
-      <c r="A114" t="s">
-        <v>127</v>
-      </c>
-      <c r="B114" t="s">
-        <v>161</v>
-      </c>
-      <c r="C114" t="s">
-        <v>163</v>
-      </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114">
-        <v>90</v>
-      </c>
-      <c r="G114">
-        <v>3.047748052827633</v>
-      </c>
-      <c r="H114">
-        <v>1.705773789366746</v>
-      </c>
-      <c r="I114">
-        <v>1.872930009754807</v>
-      </c>
-      <c r="J114">
-        <v>0.05</v>
-      </c>
-      <c r="K114">
-        <v>5.33</v>
-      </c>
-      <c r="L114">
-        <v>-0.4517880898047352</v>
-      </c>
-      <c r="M114">
-        <v>0</v>
-      </c>
-      <c r="N114" t="b">
-        <v>0</v>
-      </c>
-      <c r="O114">
-        <v>0.7702941006039166</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
-      <c r="A115" t="s">
-        <v>128</v>
-      </c>
-      <c r="B115" t="s">
-        <v>161</v>
-      </c>
-      <c r="C115" t="s">
-        <v>163</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115">
-        <v>136</v>
-      </c>
-      <c r="G115">
-        <v>4.60548594649509</v>
-      </c>
-      <c r="H115">
-        <v>3.712021672875043</v>
-      </c>
-      <c r="I115">
-        <v>16.04409873054298</v>
-      </c>
-      <c r="J115">
-        <v>-79.90000000000001</v>
-      </c>
-      <c r="K115">
-        <v>36.8</v>
-      </c>
-      <c r="L115">
-        <v>0.3927561934246497</v>
-      </c>
-      <c r="M115">
-        <v>0</v>
-      </c>
-      <c r="N115" t="b">
-        <v>1</v>
-      </c>
-      <c r="O115">
-        <v>0.0009184594606682925</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15">
-      <c r="A116" t="s">
-        <v>129</v>
-      </c>
-      <c r="B116" t="s">
-        <v>161</v>
-      </c>
-      <c r="C116" t="s">
-        <v>163</v>
-      </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116">
-        <v>107</v>
-      </c>
-      <c r="G116">
-        <v>3.623433796139519</v>
-      </c>
-      <c r="H116">
-        <v>4.798848628513377</v>
-      </c>
-      <c r="I116">
-        <v>1.683111561232103</v>
-      </c>
-      <c r="J116">
-        <v>3.4</v>
-      </c>
-      <c r="K116">
-        <v>14.8</v>
-      </c>
-      <c r="L116">
-        <v>0.3847394315084022</v>
-      </c>
-      <c r="M116">
-        <v>10</v>
-      </c>
-      <c r="N116" t="b">
-        <v>1</v>
-      </c>
-      <c r="O116">
-        <v>0.01118622738810079</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
-      <c r="A117" t="s">
-        <v>130</v>
-      </c>
-      <c r="B117" t="s">
-        <v>161</v>
-      </c>
-      <c r="C117" t="s">
-        <v>163</v>
-      </c>
-      <c r="D117">
-        <v>0</v>
-      </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="F117">
-        <v>133</v>
-      </c>
-      <c r="G117">
-        <v>4.503894344734169</v>
-      </c>
-      <c r="H117">
-        <v>0.0308877576898487</v>
-      </c>
-      <c r="I117">
-        <v>0.1728390450259773</v>
-      </c>
-      <c r="J117">
-        <v>-0.2721088435374149</v>
-      </c>
-      <c r="K117">
-        <v>0.7406143344709895</v>
-      </c>
-      <c r="L117">
-        <v>-0.3685293843600592</v>
-      </c>
-      <c r="M117">
-        <v>0</v>
-      </c>
-      <c r="N117" t="b">
-        <v>1</v>
-      </c>
-      <c r="O117">
-        <v>0.01500409616371746</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
-      <c r="A118" t="s">
-        <v>131</v>
-      </c>
-      <c r="B118" t="s">
-        <v>161</v>
-      </c>
-      <c r="C118" t="s">
-        <v>163</v>
-      </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-      <c r="F118">
-        <v>104</v>
-      </c>
-      <c r="G118">
-        <v>3.521842194378598</v>
-      </c>
-      <c r="H118">
-        <v>0.03652116491703352</v>
-      </c>
-      <c r="I118">
-        <v>0.01820006000013083</v>
-      </c>
-      <c r="J118">
-        <v>0.008</v>
-      </c>
-      <c r="K118">
-        <v>0.096</v>
-      </c>
-      <c r="L118">
-        <v>0.3672946227010764</v>
-      </c>
-      <c r="M118">
-        <v>10</v>
-      </c>
-      <c r="N118" t="b">
-        <v>0</v>
-      </c>
-      <c r="O118">
-        <v>0.3222260602432707</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15">
-      <c r="A119" t="s">
-        <v>132</v>
-      </c>
-      <c r="B119" t="s">
-        <v>161</v>
-      </c>
-      <c r="C119" t="s">
-        <v>163</v>
-      </c>
-      <c r="D119">
-        <v>11</v>
-      </c>
-      <c r="E119">
-        <v>0.3725025397900441</v>
-      </c>
-      <c r="F119">
-        <v>147</v>
-      </c>
-      <c r="G119">
-        <v>4.977988486285134</v>
-      </c>
-      <c r="H119">
-        <v>10.70129163834127</v>
-      </c>
-      <c r="I119">
-        <v>17.65475427617491</v>
-      </c>
-      <c r="J119">
-        <v>-56.6</v>
-      </c>
-      <c r="K119">
-        <v>51.8</v>
-      </c>
-      <c r="L119">
-        <v>0.3639404752790508</v>
-      </c>
-      <c r="M119">
-        <v>0</v>
-      </c>
-      <c r="N119" t="b">
-        <v>1</v>
-      </c>
-      <c r="O119">
-        <v>0.0004119036682365588</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
-      <c r="A120" t="s">
-        <v>133</v>
-      </c>
-      <c r="B120" t="s">
-        <v>161</v>
-      </c>
-      <c r="C120" t="s">
-        <v>163</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-      <c r="E120">
-        <v>0</v>
-      </c>
-      <c r="F120">
-        <v>132</v>
-      </c>
-      <c r="G120">
-        <v>4.470030477480528</v>
-      </c>
-      <c r="H120">
-        <v>-10.91019302404335</v>
-      </c>
-      <c r="I120">
-        <v>5.872224685826665</v>
-      </c>
-      <c r="J120">
-        <v>-28.7</v>
-      </c>
-      <c r="K120">
-        <v>-2.1</v>
-      </c>
-      <c r="L120">
-        <v>0.3363321249097995</v>
-      </c>
-      <c r="M120">
-        <v>0</v>
-      </c>
-      <c r="N120" t="b">
-        <v>0</v>
-      </c>
-      <c r="O120">
-        <v>0.2474350001492523</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15">
-      <c r="A121" t="s">
-        <v>134</v>
-      </c>
-      <c r="B121" t="s">
-        <v>161</v>
-      </c>
-      <c r="C121" t="s">
-        <v>164</v>
-      </c>
-      <c r="D121">
-        <v>0</v>
-      </c>
-      <c r="E121">
-        <v>0</v>
-      </c>
-      <c r="F121">
-        <v>135</v>
-      </c>
-      <c r="G121">
-        <v>4.571622079241449</v>
-      </c>
-      <c r="H121">
-        <v>1308.507619370132</v>
-      </c>
-      <c r="I121">
-        <v>202.7028092760495</v>
-      </c>
-      <c r="J121">
-        <v>886</v>
-      </c>
-      <c r="K121">
-        <v>1828</v>
-      </c>
-      <c r="L121">
-        <v>-0.3337395200843451</v>
-      </c>
-      <c r="M121">
-        <v>10</v>
-      </c>
-      <c r="N121" t="b">
-        <v>0</v>
-      </c>
-      <c r="O121">
-        <v>0.06839139558221229</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15">
-      <c r="A122" t="s">
-        <v>135</v>
-      </c>
-      <c r="B122" t="s">
-        <v>161</v>
-      </c>
-      <c r="C122" t="s">
-        <v>163</v>
-      </c>
-      <c r="D122">
-        <v>22</v>
-      </c>
-      <c r="E122">
-        <v>0.7450050795800881</v>
-      </c>
-      <c r="F122">
-        <v>147</v>
-      </c>
-      <c r="G122">
-        <v>4.977988486285134</v>
-      </c>
-      <c r="H122">
-        <v>50.21801432958035</v>
-      </c>
-      <c r="I122">
-        <v>1.570064328087815</v>
-      </c>
-      <c r="J122">
-        <v>35.7</v>
-      </c>
-      <c r="K122">
-        <v>52.6</v>
-      </c>
-      <c r="L122">
-        <v>0.3087593742849244</v>
-      </c>
-      <c r="M122">
-        <v>10</v>
-      </c>
-      <c r="N122" t="b">
-        <v>1</v>
-      </c>
-      <c r="O122">
-        <v>4.977808411675067E-07</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
-      <c r="A123" t="s">
-        <v>136</v>
-      </c>
-      <c r="B123" t="s">
-        <v>161</v>
-      </c>
-      <c r="C123" t="s">
-        <v>163</v>
-      </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>136</v>
-      </c>
-      <c r="G123">
-        <v>4.60548594649509</v>
-      </c>
-      <c r="H123">
-        <v>0.4646461225871995</v>
-      </c>
-      <c r="I123">
-        <v>9.451454001489706</v>
-      </c>
-      <c r="J123">
-        <v>-63.2</v>
-      </c>
-      <c r="K123">
-        <v>21.8</v>
-      </c>
-      <c r="L123">
-        <v>0.2357085023082047</v>
-      </c>
-      <c r="M123">
-        <v>0</v>
-      </c>
-      <c r="N123" t="b">
-        <v>1</v>
-      </c>
-      <c r="O123">
-        <v>0.001827724546280439</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15">
-      <c r="A124" t="s">
-        <v>137</v>
-      </c>
-      <c r="B124" t="s">
-        <v>161</v>
-      </c>
-      <c r="C124" t="s">
-        <v>163</v>
-      </c>
-      <c r="D124">
-        <v>19</v>
-      </c>
-      <c r="E124">
-        <v>0.6434134778191669</v>
-      </c>
-      <c r="F124">
-        <v>164</v>
-      </c>
-      <c r="G124">
-        <v>5.55367422959702</v>
-      </c>
-      <c r="H124">
-        <v>0.01232647427399326</v>
-      </c>
-      <c r="I124">
-        <v>0.1263126157350767</v>
-      </c>
-      <c r="J124">
-        <v>-0.3296442687747035</v>
-      </c>
-      <c r="K124">
-        <v>0.4571106094808126</v>
-      </c>
-      <c r="L124">
-        <v>0.2222084252000838</v>
-      </c>
-      <c r="M124">
-        <v>0</v>
-      </c>
-      <c r="N124" t="b">
-        <v>1</v>
-      </c>
-      <c r="O124">
-        <v>0.009464112003489603</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15">
-      <c r="A125" t="s">
-        <v>138</v>
-      </c>
-      <c r="B125" t="s">
-        <v>161</v>
-      </c>
-      <c r="C125" t="s">
-        <v>163</v>
-      </c>
-      <c r="D125">
-        <v>19</v>
-      </c>
-      <c r="E125">
-        <v>0.6434134778191669</v>
-      </c>
-      <c r="F125">
-        <v>153</v>
-      </c>
-      <c r="G125">
-        <v>5.181171689806976</v>
-      </c>
-      <c r="H125">
-        <v>0.4975672647894361</v>
-      </c>
-      <c r="I125">
-        <v>0.2448468358501086</v>
-      </c>
-      <c r="J125">
-        <v>0</v>
-      </c>
-      <c r="K125">
-        <v>1</v>
-      </c>
-      <c r="L125">
-        <v>-0.2004662754720856</v>
-      </c>
-      <c r="M125">
-        <v>6</v>
-      </c>
-      <c r="N125" t="b">
-        <v>1</v>
-      </c>
-      <c r="O125">
-        <v>0.04818913506613259</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15">
-      <c r="A126" t="s">
-        <v>139</v>
-      </c>
-      <c r="B126" t="s">
-        <v>161</v>
-      </c>
-      <c r="C126" t="s">
-        <v>163</v>
-      </c>
-      <c r="D126">
-        <v>9</v>
-      </c>
-      <c r="E126">
-        <v>0.3047748052827633</v>
-      </c>
-      <c r="F126">
-        <v>129</v>
-      </c>
-      <c r="G126">
-        <v>4.368438875719607</v>
-      </c>
-      <c r="H126">
-        <v>0.1019891304347826</v>
-      </c>
-      <c r="I126">
-        <v>0.02052867061994831</v>
-      </c>
-      <c r="J126">
-        <v>0.062</v>
-      </c>
-      <c r="K126">
-        <v>0.147</v>
-      </c>
-      <c r="L126">
-        <v>0.198494884849883</v>
-      </c>
-      <c r="M126">
-        <v>8</v>
-      </c>
-      <c r="N126" t="b">
-        <v>0</v>
-      </c>
-      <c r="O126">
-        <v>0.4183667774469672</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15">
-      <c r="A127" t="s">
-        <v>140</v>
-      </c>
-      <c r="B127" t="s">
-        <v>161</v>
-      </c>
-      <c r="C127" t="s">
-        <v>163</v>
-      </c>
-      <c r="D127">
-        <v>6</v>
-      </c>
-      <c r="E127">
-        <v>0.2031832035218422</v>
-      </c>
-      <c r="F127">
-        <v>137</v>
-      </c>
-      <c r="G127">
-        <v>4.63934981374873</v>
-      </c>
-      <c r="H127">
-        <v>0.05888632507634883</v>
-      </c>
-      <c r="I127">
-        <v>0.1325702300381301</v>
-      </c>
-      <c r="J127">
-        <v>-0.254</v>
-      </c>
-      <c r="K127">
-        <v>0.606</v>
-      </c>
-      <c r="L127">
-        <v>0.1830167644275246</v>
-      </c>
-      <c r="M127">
-        <v>0</v>
-      </c>
-      <c r="N127" t="b">
-        <v>1</v>
-      </c>
-      <c r="O127">
-        <v>0.002342212889754227</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15">
-      <c r="A128" t="s">
-        <v>141</v>
-      </c>
-      <c r="B128" t="s">
-        <v>161</v>
-      </c>
-      <c r="C128" t="s">
-        <v>163</v>
-      </c>
-      <c r="D128">
-        <v>20</v>
-      </c>
-      <c r="E128">
-        <v>0.6772773450728073</v>
-      </c>
-      <c r="F128">
-        <v>270</v>
-      </c>
-      <c r="G128">
-        <v>9.143244158482899</v>
-      </c>
-      <c r="H128">
-        <v>0.002335781483848145</v>
-      </c>
-      <c r="I128">
-        <v>0.04928897055673111</v>
-      </c>
-      <c r="J128">
-        <v>-0.195364238410596</v>
-      </c>
-      <c r="K128">
-        <v>0.1306818181818181</v>
-      </c>
-      <c r="L128">
-        <v>-0.1513863717644461</v>
-      </c>
-      <c r="M128">
-        <v>10</v>
-      </c>
-      <c r="N128" t="b">
-        <v>1</v>
-      </c>
-      <c r="O128">
-        <v>1.359306881540203E-09</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15">
-      <c r="A129" t="s">
-        <v>142</v>
-      </c>
-      <c r="B129" t="s">
-        <v>161</v>
-      </c>
-      <c r="C129" t="s">
-        <v>163</v>
-      </c>
-      <c r="D129">
-        <v>0</v>
-      </c>
-      <c r="E129">
-        <v>0</v>
-      </c>
-      <c r="F129">
-        <v>135</v>
-      </c>
-      <c r="G129">
-        <v>4.571622079241449</v>
-      </c>
-      <c r="H129">
-        <v>0.01150355570606163</v>
-      </c>
-      <c r="I129">
-        <v>0.1033937343347424</v>
-      </c>
-      <c r="J129">
-        <v>-0.25</v>
-      </c>
-      <c r="K129">
-        <v>0.242</v>
-      </c>
-      <c r="L129">
-        <v>0.1104820965674743</v>
-      </c>
-      <c r="M129">
-        <v>10</v>
-      </c>
-      <c r="N129" t="b">
-        <v>1</v>
-      </c>
-      <c r="O129">
-        <v>0.0005227845582639617</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15">
-      <c r="A130" t="s">
-        <v>143</v>
-      </c>
-      <c r="B130" t="s">
-        <v>161</v>
-      </c>
-      <c r="C130" t="s">
-        <v>163</v>
-      </c>
-      <c r="D130">
-        <v>7</v>
-      </c>
-      <c r="E130">
-        <v>0.2370470707754826</v>
-      </c>
-      <c r="F130">
-        <v>246</v>
-      </c>
-      <c r="G130">
-        <v>8.33051134439553</v>
-      </c>
-      <c r="H130">
-        <v>0.71704005431093</v>
-      </c>
-      <c r="I130">
-        <v>0.1823535178474504</v>
-      </c>
-      <c r="J130">
-        <v>0</v>
-      </c>
-      <c r="K130">
-        <v>1</v>
-      </c>
-      <c r="L130">
-        <v>0.1011575969297844</v>
-      </c>
-      <c r="M130">
-        <v>0</v>
-      </c>
-      <c r="N130" t="b">
-        <v>0</v>
-      </c>
-      <c r="O130">
-        <v>0.2258848162750833</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15">
-      <c r="A131" t="s">
-        <v>144</v>
-      </c>
-      <c r="B131" t="s">
-        <v>161</v>
-      </c>
-      <c r="C131" t="s">
-        <v>163</v>
-      </c>
-      <c r="D131">
-        <v>12</v>
-      </c>
-      <c r="E131">
-        <v>0.4063664070436844</v>
-      </c>
-      <c r="F131">
-        <v>145</v>
-      </c>
-      <c r="G131">
-        <v>4.910260751777852</v>
-      </c>
-      <c r="H131">
-        <v>0.002363481808908534</v>
-      </c>
-      <c r="I131">
-        <v>0.02788164025388451</v>
-      </c>
-      <c r="J131">
-        <v>-0.181</v>
-      </c>
-      <c r="K131">
-        <v>0.139</v>
-      </c>
-      <c r="L131">
-        <v>0.09972209514194237</v>
-      </c>
-      <c r="M131">
-        <v>0</v>
-      </c>
-      <c r="N131" t="b">
-        <v>1</v>
-      </c>
-      <c r="O131">
-        <v>1.622058333829078E-12</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15">
-      <c r="A132" t="s">
-        <v>145</v>
-      </c>
-      <c r="B132" t="s">
-        <v>161</v>
-      </c>
-      <c r="C132" t="s">
-        <v>163</v>
-      </c>
-      <c r="D132">
-        <v>0</v>
-      </c>
-      <c r="E132">
-        <v>0</v>
-      </c>
-      <c r="F132">
-        <v>135</v>
-      </c>
-      <c r="G132">
-        <v>4.571622079241449</v>
-      </c>
-      <c r="H132">
-        <v>0.003769217744666437</v>
-      </c>
-      <c r="I132">
-        <v>0.003580952692506879</v>
-      </c>
-      <c r="J132">
-        <v>-0.0101</v>
-      </c>
-      <c r="K132">
-        <v>0.017</v>
-      </c>
-      <c r="L132">
-        <v>-0.09318411456060617</v>
-      </c>
-      <c r="M132">
-        <v>10</v>
-      </c>
-      <c r="N132" t="b">
-        <v>1</v>
-      </c>
-      <c r="O132">
-        <v>1.584052936862149E-07</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15">
-      <c r="A133" t="s">
-        <v>146</v>
-      </c>
-      <c r="B133" t="s">
-        <v>161</v>
-      </c>
-      <c r="C133" t="s">
-        <v>163</v>
-      </c>
-      <c r="D133">
-        <v>39</v>
-      </c>
-      <c r="E133">
-        <v>1.320690822891974</v>
-      </c>
-      <c r="F133">
-        <v>226</v>
-      </c>
-      <c r="G133">
-        <v>7.653233999322723</v>
-      </c>
-      <c r="H133">
-        <v>0.002819314016387363</v>
-      </c>
-      <c r="I133">
-        <v>0.06052352487911009</v>
-      </c>
-      <c r="J133">
-        <v>-0.2758333333333333</v>
-      </c>
-      <c r="K133">
-        <v>0.2015334063526835</v>
-      </c>
-      <c r="L133">
-        <v>0.08517073402824681</v>
-      </c>
-      <c r="M133">
-        <v>1</v>
-      </c>
-      <c r="N133" t="b">
-        <v>1</v>
-      </c>
-      <c r="O133">
-        <v>4.056254189231707E-14</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15">
-      <c r="A134" t="s">
-        <v>147</v>
-      </c>
-      <c r="B134" t="s">
-        <v>161</v>
-      </c>
-      <c r="C134" t="s">
-        <v>163</v>
-      </c>
-      <c r="D134">
-        <v>7</v>
-      </c>
-      <c r="E134">
-        <v>0.2370470707754826</v>
-      </c>
-      <c r="F134">
-        <v>257</v>
-      </c>
-      <c r="G134">
-        <v>8.703013884185575</v>
-      </c>
-      <c r="H134">
-        <v>0.000936423785489612</v>
-      </c>
-      <c r="I134">
-        <v>0.04645914777592303</v>
-      </c>
-      <c r="J134">
-        <v>-0.168122270742358</v>
-      </c>
-      <c r="K134">
-        <v>0.1105476673427992</v>
-      </c>
-      <c r="L134">
-        <v>-0.06829784665230958</v>
-      </c>
-      <c r="M134">
-        <v>0</v>
-      </c>
-      <c r="N134" t="b">
-        <v>1</v>
-      </c>
-      <c r="O134">
-        <v>0.006975265182466711</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15">
-      <c r="A135" t="s">
-        <v>148</v>
-      </c>
-      <c r="B135" t="s">
-        <v>161</v>
-      </c>
-      <c r="C135" t="s">
-        <v>163</v>
-      </c>
-      <c r="D135">
-        <v>0</v>
-      </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135">
-        <v>134</v>
-      </c>
-      <c r="G135">
-        <v>4.53775821198781</v>
-      </c>
-      <c r="H135">
-        <v>-0.3890294028169545</v>
-      </c>
-      <c r="I135">
-        <v>7.072005438620732</v>
-      </c>
-      <c r="J135">
-        <v>-33.79168099003093</v>
-      </c>
-      <c r="K135">
-        <v>38.94080996884736</v>
-      </c>
-      <c r="L135">
-        <v>0.05343512914885187</v>
-      </c>
-      <c r="M135">
-        <v>4</v>
-      </c>
-      <c r="N135" t="b">
-        <v>1</v>
-      </c>
-      <c r="O135">
-        <v>7.008437488695363E-10</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15">
-      <c r="A136" t="s">
-        <v>149</v>
-      </c>
-      <c r="B136" t="s">
-        <v>161</v>
-      </c>
-      <c r="C136" t="s">
-        <v>163</v>
-      </c>
-      <c r="D136">
-        <v>0</v>
-      </c>
-      <c r="E136">
-        <v>0</v>
-      </c>
-      <c r="F136">
-        <v>123</v>
-      </c>
-      <c r="G136">
-        <v>4.165255672197765</v>
-      </c>
-      <c r="H136">
-        <v>2.209427700643413</v>
-      </c>
-      <c r="I136">
-        <v>0.4750543874205165</v>
-      </c>
-      <c r="J136">
-        <v>1.41</v>
-      </c>
-      <c r="K136">
-        <v>3.56</v>
-      </c>
-      <c r="L136">
-        <v>0.04160414742191837</v>
-      </c>
-      <c r="M136">
-        <v>10</v>
-      </c>
-      <c r="N136" t="b">
-        <v>0</v>
-      </c>
-      <c r="O136">
-        <v>0.3697686255763487</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15">
-      <c r="A137" t="s">
-        <v>150</v>
-      </c>
-      <c r="B137" t="s">
-        <v>161</v>
-      </c>
-      <c r="C137" t="s">
-        <v>163</v>
-      </c>
-      <c r="D137">
-        <v>1</v>
-      </c>
-      <c r="E137">
-        <v>0.03386386725364036</v>
-      </c>
-      <c r="F137">
-        <v>266</v>
-      </c>
-      <c r="G137">
-        <v>9.007788689468338</v>
-      </c>
-      <c r="H137">
-        <v>4.608157696169032E-05</v>
-      </c>
-      <c r="I137">
-        <v>0.008518551435268321</v>
-      </c>
-      <c r="J137">
-        <v>-0.158721641453081</v>
-      </c>
-      <c r="K137">
-        <v>0.09763846956391586</v>
-      </c>
-      <c r="L137">
-        <v>-0.03590872655569938</v>
-      </c>
-      <c r="M137">
-        <v>1</v>
-      </c>
-      <c r="N137" t="b">
-        <v>1</v>
-      </c>
-      <c r="O137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15">
-      <c r="A138" t="s">
-        <v>151</v>
-      </c>
-      <c r="B138" t="s">
-        <v>161</v>
-      </c>
-      <c r="C138" t="s">
-        <v>163</v>
-      </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138">
-        <v>135</v>
-      </c>
-      <c r="G138">
-        <v>4.571622079241449</v>
-      </c>
-      <c r="H138">
-        <v>5.804156404218486</v>
-      </c>
-      <c r="I138">
-        <v>52.65539063945359</v>
-      </c>
-      <c r="J138">
-        <v>-95.91966713966772</v>
-      </c>
-      <c r="K138">
-        <v>504.1993859953984</v>
-      </c>
-      <c r="L138">
-        <v>0.0340427404817663</v>
-      </c>
-      <c r="M138">
-        <v>10</v>
-      </c>
-      <c r="N138" t="b">
-        <v>1</v>
-      </c>
-      <c r="O138">
-        <v>4.759449298161794E-11</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15">
-      <c r="A139" t="s">
-        <v>152</v>
-      </c>
-      <c r="B139" t="s">
-        <v>161</v>
-      </c>
-      <c r="C139" t="s">
-        <v>163</v>
-      </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139">
-        <v>134</v>
-      </c>
-      <c r="G139">
-        <v>4.53775821198781</v>
-      </c>
-      <c r="H139">
-        <v>0.7371024271382722</v>
-      </c>
-      <c r="I139">
-        <v>12.40386612535567</v>
-      </c>
-      <c r="J139">
-        <v>-40.09744336732132</v>
-      </c>
-      <c r="K139">
-        <v>65.53214002292569</v>
-      </c>
-      <c r="L139">
-        <v>0.0293448293842641</v>
-      </c>
-      <c r="M139">
-        <v>10</v>
-      </c>
-      <c r="N139" t="b">
-        <v>1</v>
-      </c>
-      <c r="O139">
-        <v>1.253045234184877E-14</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15">
-      <c r="A140" t="s">
-        <v>153</v>
-      </c>
-      <c r="B140" t="s">
-        <v>161</v>
-      </c>
-      <c r="C140" t="s">
-        <v>163</v>
-      </c>
-      <c r="D140">
-        <v>20</v>
-      </c>
-      <c r="E140">
-        <v>0.6772773450728073</v>
-      </c>
-      <c r="F140">
-        <v>287</v>
-      </c>
-      <c r="G140">
-        <v>9.718929901794784</v>
-      </c>
-      <c r="H140">
-        <v>4.745188692405719E-05</v>
-      </c>
-      <c r="I140">
-        <v>0.01352699411693788</v>
-      </c>
-      <c r="J140">
-        <v>-0.3195907409056096</v>
-      </c>
-      <c r="K140">
-        <v>0.1817796982057844</v>
-      </c>
-      <c r="L140">
-        <v>0.02149141221473487</v>
-      </c>
-      <c r="M140">
-        <v>1</v>
-      </c>
-      <c r="N140" t="b">
-        <v>1</v>
-      </c>
-      <c r="O140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15">
-      <c r="A141" t="s">
-        <v>154</v>
-      </c>
-      <c r="B141" t="s">
-        <v>161</v>
-      </c>
-      <c r="C141" t="s">
-        <v>163</v>
-      </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141">
-        <v>135</v>
-      </c>
-      <c r="G141">
-        <v>4.571622079241449</v>
-      </c>
-      <c r="H141">
-        <v>59.92998809445149</v>
-      </c>
-      <c r="I141">
-        <v>706.0853630501841</v>
-      </c>
-      <c r="J141">
-        <v>-99.4277539341917</v>
-      </c>
-      <c r="K141">
-        <v>8400</v>
-      </c>
-      <c r="L141">
-        <v>-0.008981190391013125</v>
-      </c>
-      <c r="M141">
-        <v>0</v>
-      </c>
-      <c r="N141" t="b">
-        <v>1</v>
-      </c>
-      <c r="O141">
-        <v>1.289466312265054E-09</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15">
-      <c r="A142" t="s">
-        <v>155</v>
-      </c>
-      <c r="B142" t="s">
-        <v>162</v>
-      </c>
-      <c r="C142" t="s">
-        <v>163</v>
-      </c>
-      <c r="D142">
-        <v>0</v>
-      </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="F142">
-        <v>45</v>
-      </c>
-      <c r="G142">
-        <v>1.523874026413816</v>
-      </c>
-      <c r="H142">
-        <v>-21.63661571351169</v>
-      </c>
-      <c r="I142">
-        <v>13.68739766252945</v>
-      </c>
-      <c r="J142">
-        <v>-55.76297</v>
-      </c>
-      <c r="K142">
-        <v>-1.63847</v>
-      </c>
-      <c r="L142">
-        <v>0.5624263297945221</v>
-      </c>
-      <c r="M142">
-        <v>0</v>
-      </c>
-      <c r="N142" t="b">
-        <v>0</v>
-      </c>
-      <c r="O142">
-        <v>0.1791041072338025</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15">
-      <c r="A143" t="s">
-        <v>156</v>
-      </c>
-      <c r="B143" t="s">
-        <v>162</v>
-      </c>
-      <c r="C143" t="s">
-        <v>163</v>
-      </c>
-      <c r="D143">
-        <v>5</v>
-      </c>
-      <c r="E143">
-        <v>0.1693193362682018</v>
-      </c>
-      <c r="F143">
-        <v>87</v>
-      </c>
-      <c r="G143">
-        <v>2.946156451066712</v>
-      </c>
-      <c r="H143">
-        <v>0.08434362279511533</v>
-      </c>
-      <c r="I143">
-        <v>0.01781430541647675</v>
-      </c>
-      <c r="J143">
-        <v>0.061</v>
-      </c>
-      <c r="K143">
-        <v>0.121</v>
-      </c>
-      <c r="L143">
-        <v>0.5539664663967802</v>
-      </c>
-      <c r="M143">
-        <v>0</v>
-      </c>
-      <c r="N143" t="b">
-        <v>0</v>
-      </c>
-      <c r="O143">
-        <v>0.2235794546054231</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15">
-      <c r="A144" t="s">
-        <v>157</v>
-      </c>
-      <c r="B144" t="s">
-        <v>162</v>
-      </c>
-      <c r="C144" t="s">
-        <v>163</v>
-      </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144">
-        <v>23</v>
-      </c>
-      <c r="G144">
-        <v>0.7788689468337284</v>
-      </c>
-      <c r="H144">
-        <v>0.4493735184558076</v>
-      </c>
-      <c r="I144">
-        <v>1.554525731861444</v>
-      </c>
-      <c r="J144">
-        <v>-0.5</v>
-      </c>
-      <c r="K144">
-        <v>4</v>
-      </c>
-      <c r="L144">
-        <v>-0.3408233723332961</v>
-      </c>
-      <c r="M144">
-        <v>0</v>
-      </c>
-      <c r="N144" t="b">
-        <v>0</v>
-      </c>
-      <c r="O144">
-        <v>0.9612809685684363</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15">
-      <c r="A145" t="s">
-        <v>158</v>
-      </c>
-      <c r="B145" t="s">
-        <v>162</v>
-      </c>
-      <c r="C145" t="s">
-        <v>163</v>
-      </c>
-      <c r="D145">
-        <v>14</v>
-      </c>
-      <c r="E145">
-        <v>0.4740941415509651</v>
-      </c>
-      <c r="F145">
-        <v>19</v>
-      </c>
-      <c r="G145">
-        <v>0.6434134778191669</v>
-      </c>
-      <c r="H145">
-        <v>-0.0002885335148009529</v>
-      </c>
-      <c r="I145">
-        <v>0.001299817180872979</v>
-      </c>
-      <c r="J145">
-        <v>-0.001</v>
-      </c>
-      <c r="K145">
-        <v>0.005</v>
-      </c>
-      <c r="L145">
-        <v>0.07850831578275619</v>
-      </c>
-      <c r="M145">
-        <v>10</v>
-      </c>
-      <c r="N145" t="b">
-        <v>0</v>
-      </c>
-      <c r="O145">
-        <v>0.9935038466030091</v>
+        <v>0.9947697458614819</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2_processed/reporte_variables.xlsx
+++ b/Data/2_processed/reporte_variables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="178">
   <si>
     <t>column</t>
   </si>
@@ -61,336 +61,480 @@
     <t>stationarity_p_value</t>
   </si>
   <si>
-    <t>MACD_signal_PRICE_CAD_USD_Spot_exchange_rate</t>
-  </si>
-  <si>
-    <t>rolling_std_PRICE_Shanghai_Composite_index_pricing</t>
-  </si>
-  <si>
-    <t>rolling_var_PRICE_Gold_Spot_commodities</t>
-  </si>
-  <si>
-    <t>3M_change_PRICE_EUR_GBP_Cross_exchange_rate</t>
+    <t>3M_change_PRICE_Shanghai_Composite_index_pricing</t>
+  </si>
+  <si>
+    <t>zscore_PRICE_Silver_Spot_commodities</t>
+  </si>
+  <si>
+    <t>zscore_PRICE_USDCOP-US_Dollar_Colombian_Peso_exchange_rate</t>
+  </si>
+  <si>
+    <t>momentum_PRICE_Silver_Spot_commodities</t>
+  </si>
+  <si>
+    <t>momentum_PRICE_USDCOP-US_Dollar_Colombian_Peso_exchange_rate</t>
+  </si>
+  <si>
+    <t>momentum_PRICE_DAX_30_index_pricing</t>
+  </si>
+  <si>
+    <t>3M_change_PRICE_GBP_USD_Spot_exchange_rate</t>
+  </si>
+  <si>
+    <t>zscore_Actual_Japan_M2_MoneySupply_YoY_economics</t>
+  </si>
+  <si>
+    <t>3M_change_PRICE_CrudeOil_WTI_commodities</t>
+  </si>
+  <si>
+    <t>momentum_PRICE_Shanghai_Composite_index_pricing</t>
+  </si>
+  <si>
+    <t>MACD_PRICE_Shanghai_Composite_index_pricing</t>
+  </si>
+  <si>
+    <t>zscore_ICSA_US_Initial_Jobless_Claims_unemployment_rate</t>
+  </si>
+  <si>
+    <t>6M_change_PRICE_JPY_USD_Spot_exchange_rate</t>
+  </si>
+  <si>
+    <t>zscore_Actual_China_M2_MoneySupply_YoY_economics</t>
+  </si>
+  <si>
+    <t>3M_change_PRICE_Japan_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>momentum_PRICE_FTSE_100_index_pricing</t>
+  </si>
+  <si>
+    <t>zscore_PRICE_JPY_USD_Spot_exchange_rate</t>
+  </si>
+  <si>
+    <t>zscore_PRICE_Colombia_10_Year_Bond_bond</t>
+  </si>
+  <si>
+    <t>zscore_PRICE_FTSE_100_index_pricing</t>
+  </si>
+  <si>
+    <t>zscore_Reservas_internacionales_brutasDato_fin_de_mes_Brute_Internacional_Reservoir_economics</t>
+  </si>
+  <si>
+    <t>momentum_PRICE_Copper_Futures_commodities</t>
+  </si>
+  <si>
+    <t>rolling_std_PRICE_CNY_USD_Spot_exchange_rate</t>
+  </si>
+  <si>
+    <t>3M_change_PRICE_DAX_30_index_pricing</t>
+  </si>
+  <si>
+    <t>zscore_PRICE_Shanghai_Composite_index_pricing</t>
+  </si>
+  <si>
+    <t>momentum_Índice_COLCAPDato_diario_Índice_COLCAP_index_pricing</t>
+  </si>
+  <si>
+    <t>3M_change_PRICE_Gold_Spot_commodities</t>
+  </si>
+  <si>
+    <t>momentum_PRICE_S&amp;P500_Index_index_pricing</t>
+  </si>
+  <si>
+    <t>6M_change_PRICE_VIX_VolatilityIndex_index_pricing</t>
+  </si>
+  <si>
+    <t>MACD_PRICE_GBP_USD_Spot_exchange_rate</t>
+  </si>
+  <si>
+    <t>rolling_var_DTWEXBGS_Dollar_Index_DXY_index_pricing</t>
+  </si>
+  <si>
+    <t>momentum_PRICE_Gold_Spot_commodities</t>
+  </si>
+  <si>
+    <t>zscore_UNRATE_US_Unemployment_Rate_unemployment_rate</t>
+  </si>
+  <si>
+    <t>6M_change_PRICE_UK_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>rolling_var_PRICE_Japan_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>6M_change_PRICE_Japan_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>zscore_Actual_Eurozone_Unemployment_Rate_unemployment_rate</t>
+  </si>
+  <si>
+    <t>3M_change_PRICE_CNY_USD_Spot_exchange_rate</t>
+  </si>
+  <si>
+    <t>3M_change_PRICE_Germany_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>log_diff_PRICE_USDCOP-US_Dollar_Colombian_Peso_exchange_rate</t>
   </si>
   <si>
     <t>6M_change_PRICE_Shanghai_Composite_index_pricing</t>
   </si>
   <si>
+    <t>momentum_PRICE_GBP_USD_Spot_exchange_rate</t>
+  </si>
+  <si>
+    <t>log_diff_PRICE_Silver_Spot_commodities</t>
+  </si>
+  <si>
+    <t>zscore_PRICE_CNY_USD_Spot_exchange_rate</t>
+  </si>
+  <si>
+    <t>zscore_Índice_COLCAPDato_diario_Índice_COLCAP_index_pricing</t>
+  </si>
+  <si>
+    <t>log_diff_Índice_COLCAPDato_diario_Índice_COLCAP_index_pricing</t>
+  </si>
+  <si>
     <t>momentum_PRICE_JPY_USD_Spot_exchange_rate</t>
   </si>
   <si>
-    <t>3M_change_PRICE_Shanghai_Composite_index_pricing</t>
-  </si>
-  <si>
-    <t>rolling_var_AAA_Corporate_Bond_AAA_Spread_bond</t>
-  </si>
-  <si>
-    <t>MoM_PRICE_China_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>3M_change_PRICE_Platinum_Spot_commodities</t>
-  </si>
-  <si>
-    <t>MACD_signal_PRICE_EUR_GBP_Cross_exchange_rate</t>
-  </si>
-  <si>
-    <t>6M_change_PRICE_Japan_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>MACD_PRICE_Shanghai_Composite_index_pricing</t>
-  </si>
-  <si>
-    <t>MoM_PRICE_Australia_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>rolling_var_PRICE_EUR_USD_Spot_exchange_rate</t>
-  </si>
-  <si>
-    <t>rolling_var_PRICE_Japan_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>rolling_var_PRICE_CNY_USD_Spot_exchange_rate</t>
+    <t>MACD_PRICE_CrudeOil_WTI_commodities</t>
+  </si>
+  <si>
+    <t>log_diff_PRICE_DAX_30_index_pricing</t>
+  </si>
+  <si>
+    <t>MACD_PRICE_Copper_Futures_commodities</t>
+  </si>
+  <si>
+    <t>6M_change_Índice_COLCAPDato_diario_Índice_COLCAP_index_pricing</t>
+  </si>
+  <si>
+    <t>MoM_PRICE_Japan_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>YoY_PRICE_Japan_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>MoM_PRICE_UK_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>6M_change_PRICE_GBP_USD_Spot_exchange_rate</t>
+  </si>
+  <si>
+    <t>log_diff_PRICE_FTSE_100_index_pricing</t>
+  </si>
+  <si>
+    <t>rolling_var_DGS10_DGS10_bond</t>
+  </si>
+  <si>
+    <t>MACD_signal_PRICE_VIX_VolatilityIndex_index_pricing</t>
+  </si>
+  <si>
+    <t>zscore_Actual_China_Exports_exports</t>
+  </si>
+  <si>
+    <t>momentum_PRICE_VIX_VolatilityIndex_index_pricing</t>
+  </si>
+  <si>
+    <t>MACD_signal_PRICE_EUR_USD_Spot_exchange_rate</t>
+  </si>
+  <si>
+    <t>YTD_PRICE_Colombia_5_Year_Bond_bond</t>
+  </si>
+  <si>
+    <t>zscore_PRICE_VIX_VolatilityIndex_index_pricing</t>
+  </si>
+  <si>
+    <t>3M_change_PRICE_Colombia_10_Year_Bond_bond</t>
+  </si>
+  <si>
+    <t>log_diff_PRICE_Shanghai_Composite_index_pricing</t>
+  </si>
+  <si>
+    <t>bollinger_upper_PRICE_Colombia_5_Year_Bond_bond</t>
   </si>
   <si>
     <t>momentum_PRICE_CrudeOil_WTI_commodities</t>
   </si>
   <si>
-    <t>MoM_PRICE_UK_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>MoM_PRICE_Japan_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>rolling_var_PRICE_CAD_USD_Spot_exchange_rate</t>
+    <t>MoM_PRICE_Germany_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>YoY_PRICE_Germany_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>log_diff_PRICE_Copper_Futures_commodities</t>
+  </si>
+  <si>
+    <t>zscore_PRICE_Germany_10Y_Bond_bond</t>
   </si>
   <si>
     <t>momentum_PRICE_EUR_USD_Spot_exchange_rate</t>
   </si>
   <si>
-    <t>3M_change_PRICE_Japan_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>3M_change_PRICE_Germany_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>momentum_PRICE_CAD_USD_Spot_exchange_rate</t>
-  </si>
-  <si>
-    <t>rolling_var_PRICE_Platinum_Spot_commodities</t>
-  </si>
-  <si>
-    <t>YoY_PRICE_Germany_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>momentum_PRICE_Shanghai_Composite_index_pricing</t>
-  </si>
-  <si>
-    <t>zscore_AAA_Corporate_Bond_AAA_Spread_bond</t>
-  </si>
-  <si>
-    <t>zscore_PRICE_CNY_USD_Spot_exchange_rate</t>
-  </si>
-  <si>
-    <t>rolling_var_PRICE_Australia_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>zscore_Actual_Japan_Leading_Indicator_leading_economic_index</t>
-  </si>
-  <si>
     <t>log_diff_PRICE_JPY_USD_Spot_exchange_rate</t>
   </si>
   <si>
+    <t>zscore_Actual_IPC Colombia_economics</t>
+  </si>
+  <si>
+    <t>log_diff_PRICE_CrudeOil_WTI_commodities</t>
+  </si>
+  <si>
+    <t>log_diff_PRICE_EUR_USD_Spot_exchange_rate</t>
+  </si>
+  <si>
+    <t>rolling_var_PRICE_CrudeOil_WTI_commodities</t>
+  </si>
+  <si>
+    <t>zscore_PRICE_Nikkei_225_index_pricing</t>
+  </si>
+  <si>
+    <t>log_diff_PRICE_Dow_Jones_Industrial_Average_index_pricing</t>
+  </si>
+  <si>
+    <t>momentum_PRICE_Nikkei_225_index_pricing</t>
+  </si>
+  <si>
+    <t>log_diff_PRICE_Japan_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>log_diff_PRICE_Germany_10Y_Bond_bond</t>
+  </si>
+  <si>
     <t>zscore_PRICE_Japan_10Y_Bond_bond</t>
   </si>
   <si>
-    <t>6M_change_PRICE_Platinum_Spot_commodities</t>
-  </si>
-  <si>
-    <t>momentum_PRICE_Gold_Spot_commodities</t>
-  </si>
-  <si>
-    <t>momentum_PRICE_MXN_USD_Spot_exchange_rate</t>
-  </si>
-  <si>
-    <t>YoY_PRICE_Japan_10Y_Bond_bond</t>
+    <t>momentum_PRICE_CNY_USD_Spot_exchange_rate</t>
+  </si>
+  <si>
+    <t>log_diff_PRICE_VIX_VolatilityIndex_index_pricing</t>
+  </si>
+  <si>
+    <t>zscore_PRICE_UK_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>log_diff_PRICE_Gold_Spot_commodities</t>
+  </si>
+  <si>
+    <t>log_diff_DTWEXBGS_Dollar_Index_DXY_index_pricing</t>
+  </si>
+  <si>
+    <t>log_diff_PRICE_GBP_USD_Spot_exchange_rate</t>
+  </si>
+  <si>
+    <t>6M_change_PRICE_CrudeOil_WTI_commodities</t>
   </si>
   <si>
     <t>6M_change_PRICE_Germany_10Y_Bond_bond</t>
   </si>
   <si>
-    <t>log_diff_PRICE_Germany_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>log_diff_PRICE_Italy_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>zscore_Actual_US_ConferenceBoard_LEI_leading_economic_index</t>
-  </si>
-  <si>
-    <t>zscore_PRICE_Italy_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>rolling_var_PRICE_China_10Y_Bond_bond</t>
+    <t>3M_change_PRICE_UK_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>rolling_var_PRICE_Nikkei_225_index_pricing</t>
   </si>
   <si>
     <t>log_diff_PRICE_UK_10Y_Bond_bond</t>
   </si>
   <si>
-    <t>log_diff_PRICE_China_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>log_diff_PRICE_Canada_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>momentum_PRICE_Silver_Spot_commodities</t>
-  </si>
-  <si>
-    <t>momentum_PRICE_CNY_USD_Spot_exchange_rate</t>
-  </si>
-  <si>
-    <t>log_diff_PRICE_Australia_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>momentum_PRICE_Platinum_Spot_commodities</t>
-  </si>
-  <si>
-    <t>momentum_PRICE_EUR_GBP_Cross_exchange_rate</t>
-  </si>
-  <si>
-    <t>MACD_signal_PRICE_Silver_Spot_commodities</t>
-  </si>
-  <si>
-    <t>log_diff_PRICE_MXN_USD_Spot_exchange_rate</t>
-  </si>
-  <si>
-    <t>log_diff_PRICE_EUR_USD_Spot_exchange_rate</t>
-  </si>
-  <si>
-    <t>log_diff_PRICE_Shanghai_Composite_index_pricing</t>
-  </si>
-  <si>
-    <t>log_diff_PRICE_Silver_Spot_commodities</t>
-  </si>
-  <si>
-    <t>rolling_var_PRICE_MXN_USD_Spot_exchange_rate</t>
-  </si>
-  <si>
-    <t>MoM_PRICE_Germany_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>log_diff_PRICE_AUD_USD_Spot_exchange_rate</t>
-  </si>
-  <si>
-    <t>momentum_PRICE_Copper_Futures_commodities</t>
+    <t>log_diff_ICSA_US_Initial_Jobless_Claims_unemployment_rate</t>
+  </si>
+  <si>
+    <t>zscore_PRICE_Copper_Futures_commodities</t>
+  </si>
+  <si>
+    <t>MACD_signal_PRICE_JPY_USD_Spot_exchange_rate</t>
   </si>
   <si>
     <t>log_diff_PRICE_CNY_USD_Spot_exchange_rate</t>
   </si>
   <si>
-    <t>log_diff_PRICE_CrudeOil_WTI_commodities</t>
-  </si>
-  <si>
-    <t>log_diff_PRICE_Platinum_Spot_commodities</t>
-  </si>
-  <si>
-    <t>log_diff_PRICE_Japan_10Y_Bond_bond</t>
-  </si>
-  <si>
-    <t>log_diff_PRICE_Copper_Futures_commodities</t>
-  </si>
-  <si>
-    <t>log_diff_PRICE_EUR_GBP_Cross_exchange_rate</t>
-  </si>
-  <si>
-    <t>log_diff_PRICE_Gold_Spot_commodities</t>
-  </si>
-  <si>
-    <t>log_diff_PRICE_CAD_USD_Spot_exchange_rate</t>
-  </si>
-  <si>
-    <t>3M_change_Actual_Japan_Leading_Indicator_leading_economic_index</t>
-  </si>
-  <si>
-    <t>MoM_Actual_Japan_Leading_Indicator_leading_economic_index</t>
-  </si>
-  <si>
-    <t>6M_change_Actual_Japan_Leading_Indicator_leading_economic_index</t>
-  </si>
-  <si>
-    <t>log_diff_Actual_Japan_Leading_Indicator_leading_economic_index</t>
-  </si>
-  <si>
-    <t>ESI_AWCDISA_US_Empire_State_Index_business_confidence</t>
-  </si>
-  <si>
-    <t>Actual_China_Exports_exports</t>
-  </si>
-  <si>
-    <t>ESI_GACDISA_US_Empire_State_Index_business_confidence</t>
-  </si>
-  <si>
-    <t>GBRSLRTCR03GPSAM_United_Kingdom_Car_Registrations_MoM</t>
-  </si>
-  <si>
-    <t>HOUST_US_Housing_Starts_economics</t>
-  </si>
-  <si>
-    <t>YoY_Actual_US_ConferenceBoard_LEI_leading_economic_index</t>
-  </si>
-  <si>
-    <t>YoY_AAA_Corporate_Bond_AAA_Spread_bond</t>
-  </si>
-  <si>
-    <t>Actual_Singapore_NonOil_Exports_YoY_economics</t>
-  </si>
-  <si>
-    <t>YTD_AAA_Corporate_Bond_AAA_Spread_bond</t>
-  </si>
-  <si>
-    <t>Actual_Japan_M2_MoneySupply_YoY_economics</t>
-  </si>
-  <si>
-    <t>YTD_Actual_Japan_Leading_Indicator_leading_economic_index</t>
-  </si>
-  <si>
-    <t>MoM_AAA_Corporate_Bond_AAA_Spread_bond</t>
-  </si>
-  <si>
-    <t>UMCSENT_Michigan_Consumer_Sentiment_consumer_confidence</t>
-  </si>
-  <si>
-    <t>CSCICP02EZM460S_EuroZone_Consumer_Confidence_consumer_confidence</t>
-  </si>
-  <si>
-    <t>YTD_Actual_US_ConferenceBoard_LEI_leading_economic_index</t>
-  </si>
-  <si>
-    <t>Actual_US_Philly_Fed_Index_business_confidence</t>
-  </si>
-  <si>
-    <t>Actual_U.S. All Car Sales_car_registrations</t>
-  </si>
-  <si>
-    <t>ESPSLRTCR03GPSAM_Spain_Car_Registrations_MoM</t>
-  </si>
-  <si>
-    <t>ZAFSLRTCR03GPSAM_SouthAfrica_Car_Registrations_MoM</t>
-  </si>
-  <si>
-    <t>log_diff_AAA_Corporate_Bond_AAA_Spread_bond</t>
-  </si>
-  <si>
-    <t>Actual_China_M2_MoneySupply_YoY_economics</t>
-  </si>
-  <si>
-    <t>Actual_UK_Retail_Sales_MoM_economics</t>
-  </si>
-  <si>
-    <t>3M_change_AAA_Corporate_Bond_AAA_Spread_bond</t>
-  </si>
-  <si>
-    <t>USASLRTCR03GPSAM_US_Car_Registrations_MoM</t>
-  </si>
-  <si>
-    <t>BAA10YM_Corporate_Bond_BBB_Spread_bond</t>
-  </si>
-  <si>
-    <t>MoM_Actual_US_ConferenceBoard_LEI_leading_economic_index</t>
-  </si>
-  <si>
-    <t>6M_change_Actual_US_ConferenceBoard_LEI_leading_economic_index</t>
-  </si>
-  <si>
-    <t>6M_change_AAA_Corporate_Bond_AAA_Spread_bond</t>
-  </si>
-  <si>
-    <t>DNKSLRTCR03GPSAM_Denmark_Car_Registrations_MoM</t>
-  </si>
-  <si>
-    <t>log_diff_Actual_US_ConferenceBoard_LEI_leading_economic_index</t>
-  </si>
-  <si>
-    <t>Actual_Mexico_CPI_MoM_economics</t>
-  </si>
-  <si>
-    <t>3M_change_Actual_US_ConferenceBoard_LEI_leading_economic_index</t>
-  </si>
-  <si>
-    <t>CSCICP02CHQ460S_Switzerland_Consumer_Confidence_consumer_confidence</t>
-  </si>
-  <si>
-    <t>FEDFUNDS_US_FedFunds_Rate_economics</t>
+    <t>log_diff_DGS10_DGS10_bond</t>
+  </si>
+  <si>
+    <t>MoM_DGS10_DGS10_bond</t>
+  </si>
+  <si>
+    <t>log_diff_PRICE_Nikkei_225_index_pricing</t>
+  </si>
+  <si>
+    <t>YTD_PRICE_Japan_10Y_Bond_bond</t>
+  </si>
+  <si>
+    <t>zscore_Actual_IPC EEUU_economics</t>
+  </si>
+  <si>
+    <t>log_diff_PRICE_Colombia_10_Year_Bond_bond</t>
+  </si>
+  <si>
+    <t>zscore_Índice_de_precios_de_exportaciones_según_ippDato_f_Indice_Intercambios_IPP_index_pricing</t>
+  </si>
+  <si>
+    <t>log_diff_PRICE_Colombia_5_Year_Bond_bond</t>
+  </si>
+  <si>
+    <t>ANFCI_Chicago_Fed_NFCI_leading_economic_index</t>
+  </si>
+  <si>
+    <t>3M_change_ICSA_US_Initial_Jobless_Claims_unemployment_rate</t>
+  </si>
+  <si>
+    <t>MoM_ICSA_US_Initial_Jobless_Claims_unemployment_rate</t>
+  </si>
+  <si>
+    <t>3M_change_Actual_China_Exports_exports</t>
+  </si>
+  <si>
+    <t>MoM_Actual_China_M2_MoneySupply_YoY_economics</t>
+  </si>
+  <si>
+    <t>YoY_Actual_China_M2_MoneySupply_YoY_economics</t>
+  </si>
+  <si>
+    <t>MoM_UNRATE_US_Unemployment_Rate_unemployment_rate</t>
+  </si>
+  <si>
+    <t>3M_change_Actual_China_M2_MoneySupply_YoY_economics</t>
+  </si>
+  <si>
+    <t>MoM_Actual_Japan_M2_MoneySupply_YoY_economics</t>
+  </si>
+  <si>
+    <t>3M_change_PAYEMS_US_Nonfarm_Payrolls_unemployment_rate</t>
+  </si>
+  <si>
+    <t>3M_change_Índice_de_precios_de_exportaciones_según_ippDato_f_Indice_Intercambios_IPP_index_pricing</t>
+  </si>
+  <si>
+    <t>YoY_Actual_China_Exports_exports</t>
+  </si>
+  <si>
+    <t>3M_change_Reservas_internacionales_brutasDato_fin_de_mes_Brute_Internacional_Reservoir_economics</t>
+  </si>
+  <si>
+    <t>YTD_Actual_China_Exports_exports</t>
+  </si>
+  <si>
+    <t>YoY_Actual_IPC EEUU_economics</t>
+  </si>
+  <si>
+    <t>YTD_Actual_China_M2_MoneySupply_YoY_economics</t>
+  </si>
+  <si>
+    <t>YoY_Reservas_internacionales_brutasDato_fin_de_mes_Brute_Internacional_Reservoir_economics</t>
+  </si>
+  <si>
+    <t>6M_change_Actual_IPC EEUU_economics</t>
+  </si>
+  <si>
+    <t>MoM_Reservas_internacionales_brutasDato_fin_de_mes_Brute_Internacional_Reservoir_economics</t>
+  </si>
+  <si>
+    <t>YoY_Índice_de_precios_de_exportaciones_según_ippDato_f_Indice_Intercambios_IPP_index_pricing</t>
+  </si>
+  <si>
+    <t>6M_change_Índice_de_precios_de_exportaciones_según_ippDato_f_Indice_Intercambios_IPP_index_pricing</t>
+  </si>
+  <si>
+    <t>MoM_Actual_China_Exports_exports</t>
+  </si>
+  <si>
+    <t>MoM_Índice_de_precios_de_exportaciones_según_ippDato_f_Indice_Intercambios_IPP_index_pricing</t>
+  </si>
+  <si>
+    <t>3M_change_Actual_IPC EEUU_economics</t>
+  </si>
+  <si>
+    <t>YTD_Reservas_internacionales_brutasDato_fin_de_mes_Brute_Internacional_Reservoir_economics</t>
+  </si>
+  <si>
+    <t>6M_change_UNRATE_US_Unemployment_Rate_unemployment_rate</t>
+  </si>
+  <si>
+    <t>6M_change_Actual_China_Exports_exports</t>
+  </si>
+  <si>
+    <t>3M_change_Actual_Eurozone_Unemployment_Rate_unemployment_rate</t>
+  </si>
+  <si>
+    <t>log_Actual_China_Exports_exports</t>
+  </si>
+  <si>
+    <t>6M_change_Actual_Eurozone_Unemployment_Rate_unemployment_rate</t>
+  </si>
+  <si>
+    <t>MoM_Actual_IPC Colombia_economics</t>
+  </si>
+  <si>
+    <t>YTD_Actual_IPC Colombia_economics</t>
+  </si>
+  <si>
+    <t>MoM_Actual_Eurozone_Unemployment_Rate_unemployment_rate</t>
+  </si>
+  <si>
+    <t>6M_change_Actual_Japan_M2_MoneySupply_YoY_economics</t>
+  </si>
+  <si>
+    <t>YTD_Actual_IPC EEUU_economics</t>
+  </si>
+  <si>
+    <t>log_diff_Actual_China_M2_MoneySupply_YoY_economics</t>
+  </si>
+  <si>
+    <t>6M_change_Actual_China_M2_MoneySupply_YoY_economics</t>
+  </si>
+  <si>
+    <t>3M_change_Actual_Japan_M2_MoneySupply_YoY_economics</t>
+  </si>
+  <si>
+    <t>3M_change_Actual_IPC Colombia_economics</t>
+  </si>
+  <si>
+    <t>log_diff_Actual_Japan_M2_MoneySupply_YoY_economics</t>
+  </si>
+  <si>
+    <t>log_diff_Actual_Eurozone_Unemployment_Rate_unemployment_rate</t>
+  </si>
+  <si>
+    <t>YoY_Actual_Japan_M2_MoneySupply_YoY_economics</t>
+  </si>
+  <si>
+    <t>log_diff_Reservas_internacionales_brutasDato_fin_de_mes_Brute_Internacional_Reservoir_economics</t>
+  </si>
+  <si>
+    <t>log_diff_Actual_IPC EEUU_economics</t>
+  </si>
+  <si>
+    <t>MoM_Actual_IPC EEUU_economics</t>
+  </si>
+  <si>
+    <t>log_diff_UNRATE_US_Unemployment_Rate_unemployment_rate</t>
+  </si>
+  <si>
+    <t>log_diff_Índice_de_precios_de_exportaciones_según_ippDato_f_Indice_Intercambios_IPP_index_pricing</t>
+  </si>
+  <si>
+    <t>6M_change_Actual_IPC Colombia_economics</t>
+  </si>
+  <si>
+    <t>log_diff_Actual_IPC Colombia_economics</t>
+  </si>
+  <si>
+    <t>YoY_Actual_IPC Colombia_economics</t>
+  </si>
+  <si>
+    <t>log_diff_Actual_China_Exports_exports</t>
+  </si>
+  <si>
+    <t>6M_change_Reservas_internacionales_brutasDato_fin_de_mes_Brute_Internacional_Reservoir_economics</t>
   </si>
   <si>
     <t>ECBDFR_ECB_Deposit_Rate_economics</t>
   </si>
   <si>
-    <t>Actual_Eurozone_Unemployment_Rate_unemployment_rate</t>
-  </si>
-  <si>
-    <t>Actual_BOJ_Policy_Rate_economics</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -404,9 +548,6 @@
   </si>
   <si>
     <t>float64</t>
-  </si>
-  <si>
-    <t>int64</t>
   </si>
 </sst>
 </file>
@@ -764,7 +905,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O111"/>
+  <dimension ref="A1:O159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -822,10 +963,10 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -834,34 +975,34 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>985</v>
+        <v>2308</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>99.91341991341992</v>
       </c>
       <c r="H2">
-        <v>0.001541084504002359</v>
+        <v>0.007429918255608042</v>
       </c>
       <c r="I2">
-        <v>0.004485565920569624</v>
+        <v>0.1035302354439656</v>
       </c>
       <c r="J2">
-        <v>-0.009888011663902883</v>
+        <v>-0.3915808642719025</v>
       </c>
       <c r="K2">
-        <v>0.01601484461059535</v>
+        <v>0.5068348208432305</v>
       </c>
       <c r="L2">
-        <v>0.3120855064814685</v>
+        <v>0.1653091825522214</v>
       </c>
       <c r="M2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
       </c>
       <c r="O2">
-        <v>1.305024603079563E-07</v>
+        <v>4.425540689681762E-07</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -869,10 +1010,10 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -881,34 +1022,34 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>985</v>
+        <v>2310</v>
       </c>
       <c r="G3">
         <v>100</v>
       </c>
       <c r="H3">
-        <v>48.60144322775337</v>
+        <v>0.05295843027087925</v>
       </c>
       <c r="I3">
-        <v>32.79275422909944</v>
+        <v>1.315151045262815</v>
       </c>
       <c r="J3">
-        <v>12.22218753551732</v>
+        <v>-5.311403794766402</v>
       </c>
       <c r="K3">
-        <v>295.3396252381041</v>
+        <v>4.189542624908878</v>
       </c>
       <c r="L3">
-        <v>-0.2782328100240871</v>
+        <v>0.1621516871706068</v>
       </c>
       <c r="M3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N3" t="b">
         <v>1</v>
       </c>
       <c r="O3">
-        <v>7.271623416886001E-07</v>
+        <v>3.771021063283214E-12</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -916,10 +1057,10 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -928,34 +1069,34 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>984</v>
+        <v>2310</v>
       </c>
       <c r="G4">
-        <v>99.8984771573604</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>1218.415974399615</v>
+        <v>0.1525956975441805</v>
       </c>
       <c r="I4">
-        <v>1162.382210488737</v>
+        <v>1.325165641686307</v>
       </c>
       <c r="J4">
-        <v>88.42221052235793</v>
+        <v>-3.653471238501506</v>
       </c>
       <c r="K4">
-        <v>6394.587999993043</v>
+        <v>4.544030342205993</v>
       </c>
       <c r="L4">
-        <v>0.2508193538176379</v>
+        <v>-0.1361762913898416</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" t="b">
         <v>1</v>
       </c>
       <c r="O4">
-        <v>4.284576372430173E-07</v>
+        <v>9.921473327491855E-12</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -963,10 +1104,10 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -975,34 +1116,34 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>985</v>
+        <v>2309</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>99.95670995670996</v>
       </c>
       <c r="H5">
-        <v>-0.001783055301255225</v>
+        <v>0.04272034632034632</v>
       </c>
       <c r="I5">
-        <v>0.01555086685563319</v>
+        <v>1.172371048709678</v>
       </c>
       <c r="J5">
-        <v>-0.03624419526560207</v>
+        <v>-5.473999999999998</v>
       </c>
       <c r="K5">
-        <v>0.04710017574692449</v>
+        <v>4.812000000000001</v>
       </c>
       <c r="L5">
-        <v>0.2480320013770387</v>
+        <v>0.1335445781667704</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N5" t="b">
         <v>1</v>
       </c>
       <c r="O5">
-        <v>0.0007739312668070715</v>
+        <v>8.120352382657907E-15</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1010,10 +1151,10 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1022,34 +1163,34 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>984</v>
+        <v>2303</v>
       </c>
       <c r="G6">
-        <v>99.8984771573604</v>
+        <v>99.69696969696969</v>
       </c>
       <c r="H6">
-        <v>-0.004042320566044189</v>
+        <v>3.445437229437228</v>
       </c>
       <c r="I6">
-        <v>0.07426582678333461</v>
+        <v>103.6471100373899</v>
       </c>
       <c r="J6">
-        <v>-0.1769518106643856</v>
+        <v>-321</v>
       </c>
       <c r="K6">
-        <v>0.246930573548463</v>
+        <v>682</v>
       </c>
       <c r="L6">
-        <v>0.2392274973438743</v>
+        <v>-0.1293824502796432</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N6" t="b">
         <v>1</v>
       </c>
       <c r="O6">
-        <v>0.03276617772438163</v>
+        <v>3.23179519494154E-14</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1057,10 +1198,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1069,34 +1210,34 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>982</v>
+        <v>2309</v>
       </c>
       <c r="G7">
-        <v>99.69543147208122</v>
+        <v>99.95670995670996</v>
       </c>
       <c r="H7">
-        <v>0.4048324873096448</v>
+        <v>42.79945021645022</v>
       </c>
       <c r="I7">
-        <v>2.826069945840142</v>
+        <v>472.8101132107405</v>
       </c>
       <c r="J7">
-        <v>-12.83000000000001</v>
+        <v>-3685.980000000001</v>
       </c>
       <c r="K7">
-        <v>7.590000000000003</v>
+        <v>1773.809999999999</v>
       </c>
       <c r="L7">
-        <v>-0.2234037222116838</v>
+        <v>0.1212896999193838</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N7" t="b">
         <v>1</v>
       </c>
       <c r="O7">
-        <v>0.0002986398078756584</v>
+        <v>1.510302664505631E-14</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1104,10 +1245,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1116,34 +1257,34 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>984</v>
+        <v>2309</v>
       </c>
       <c r="G8">
-        <v>99.8984771573604</v>
+        <v>99.95670995670996</v>
       </c>
       <c r="H8">
-        <v>-0.001206009237190903</v>
+        <v>-0.003273245558994682</v>
       </c>
       <c r="I8">
-        <v>0.06679141063376384</v>
+        <v>0.0385343425042295</v>
       </c>
       <c r="J8">
-        <v>-0.1547972072725669</v>
+        <v>-0.1193472126896972</v>
       </c>
       <c r="K8">
-        <v>0.2657344984819292</v>
+        <v>0.1368401347809809</v>
       </c>
       <c r="L8">
-        <v>-0.2104199179954596</v>
+        <v>0.1185081704988289</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N8" t="b">
         <v>1</v>
       </c>
       <c r="O8">
-        <v>0.002334576061437967</v>
+        <v>1.289309082897271E-06</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1151,10 +1292,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1163,34 +1304,34 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>906</v>
+        <v>2158</v>
       </c>
       <c r="G9">
-        <v>91.97969543147208</v>
+        <v>93.41991341991343</v>
       </c>
       <c r="H9">
-        <v>0.009380439487068791</v>
+        <v>-0.1618799200803464</v>
       </c>
       <c r="I9">
-        <v>0.0152594933385542</v>
+        <v>1.536075260851576</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>-7.616867247541588</v>
       </c>
       <c r="K9">
-        <v>0.07673684210528908</v>
+        <v>7.616867247629992</v>
       </c>
       <c r="L9">
-        <v>0.20192452857265</v>
+        <v>-0.1176090543636659</v>
       </c>
       <c r="M9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N9" t="b">
         <v>1</v>
       </c>
       <c r="O9">
-        <v>2.430298331447225E-06</v>
+        <v>3.176727731420362E-09</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1198,10 +1339,10 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1210,34 +1351,34 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>971</v>
+        <v>2309</v>
       </c>
       <c r="G10">
-        <v>98.57868020304569</v>
+        <v>99.95670995670996</v>
       </c>
       <c r="H10">
-        <v>-0.009579850170640419</v>
+        <v>0.01947439049002532</v>
       </c>
       <c r="I10">
-        <v>0.03960004993958163</v>
+        <v>0.2047041826771154</v>
       </c>
       <c r="J10">
-        <v>-0.1883988494726749</v>
+        <v>-0.7838191330343797</v>
       </c>
       <c r="K10">
-        <v>0.1660561660561661</v>
+        <v>2.504753673292999</v>
       </c>
       <c r="L10">
-        <v>0.1933665809790484</v>
+        <v>0.1172839350736799</v>
       </c>
       <c r="M10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N10" t="b">
         <v>1</v>
       </c>
       <c r="O10">
-        <v>0.0088538783010944</v>
+        <v>2.597721353798572E-09</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1245,10 +1386,10 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1257,34 +1398,34 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>985</v>
+        <v>2305</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>99.78354978354979</v>
       </c>
       <c r="H11">
-        <v>-0.007674696966710084</v>
+        <v>6.432186147186147</v>
       </c>
       <c r="I11">
-        <v>0.08973651233129271</v>
+        <v>126.9232317645897</v>
       </c>
       <c r="J11">
-        <v>-0.2198092795897107</v>
+        <v>-718.5100000000002</v>
       </c>
       <c r="K11">
-        <v>0.2638858397365533</v>
+        <v>632.4099999999999</v>
       </c>
       <c r="L11">
-        <v>0.1921272634321874</v>
+        <v>0.1134063514126196</v>
       </c>
       <c r="M11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N11" t="b">
         <v>1</v>
       </c>
       <c r="O11">
-        <v>0.0001647551819791495</v>
+        <v>3.551411347284626E-12</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1292,10 +1433,10 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1304,25 +1445,25 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>985</v>
+        <v>2310</v>
       </c>
       <c r="G12">
         <v>100</v>
       </c>
       <c r="H12">
-        <v>-0.0001933000082243708</v>
+        <v>0.9597874162424824</v>
       </c>
       <c r="I12">
-        <v>0.002005167104036001</v>
+        <v>49.73954959777949</v>
       </c>
       <c r="J12">
-        <v>-0.004335093518478673</v>
+        <v>-270.0739585416509</v>
       </c>
       <c r="K12">
-        <v>0.008446683142440512</v>
+        <v>219.9922384430365</v>
       </c>
       <c r="L12">
-        <v>0.1863846845458847</v>
+        <v>0.1130851184842423</v>
       </c>
       <c r="M12">
         <v>10</v>
@@ -1331,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="O12">
-        <v>2.99757114745732E-07</v>
+        <v>3.927511838246278E-12</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1339,10 +1480,10 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1351,34 +1492,34 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>969</v>
+        <v>2277</v>
       </c>
       <c r="G13">
-        <v>98.3756345177665</v>
+        <v>98.57142857142858</v>
       </c>
       <c r="H13">
-        <v>0.8697447163131869</v>
+        <v>-0.2184113769562741</v>
       </c>
       <c r="I13">
-        <v>2.213759745709871</v>
+        <v>1.258974726463987</v>
       </c>
       <c r="J13">
-        <v>-0.96</v>
+        <v>-3.14917323826654</v>
       </c>
       <c r="K13">
-        <v>32.5</v>
+        <v>7.60635108328762</v>
       </c>
       <c r="L13">
-        <v>-0.1851388868772849</v>
+        <v>-0.1125903824451203</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N13" t="b">
         <v>1</v>
       </c>
       <c r="O13">
-        <v>0.0003895155005138455</v>
+        <v>4.36445376116442E-13</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1386,10 +1527,10 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1398,34 +1539,34 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>985</v>
+        <v>2310</v>
       </c>
       <c r="G14">
         <v>100</v>
       </c>
       <c r="H14">
-        <v>-1.302973104204504</v>
+        <v>0.01319315254329497</v>
       </c>
       <c r="I14">
-        <v>31.93279933729494</v>
+        <v>0.06289617959911104</v>
       </c>
       <c r="J14">
-        <v>-84.58326734852699</v>
+        <v>-0.153574134882546</v>
       </c>
       <c r="K14">
-        <v>159.6782781462334</v>
+        <v>0.2076197133869275</v>
       </c>
       <c r="L14">
-        <v>-0.1790891502194795</v>
+        <v>0.1113398669084405</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N14" t="b">
         <v>1</v>
       </c>
       <c r="O14">
-        <v>0.0002535574146679177</v>
+        <v>0.001050901036849728</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1433,10 +1574,10 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1445,34 +1586,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>984</v>
+        <v>2234</v>
       </c>
       <c r="G15">
-        <v>99.8984771573604</v>
+        <v>96.70995670995671</v>
       </c>
       <c r="H15">
-        <v>0.02633143530701574</v>
+        <v>-0.2995046059754468</v>
       </c>
       <c r="I15">
-        <v>0.1042907284441089</v>
+        <v>1.474208170874119</v>
       </c>
       <c r="J15">
-        <v>-0.2443584784010316</v>
+        <v>-7.61686724747458</v>
       </c>
       <c r="K15">
-        <v>0.46875</v>
+        <v>6.409854279356587</v>
       </c>
       <c r="L15">
-        <v>-0.1769473293542837</v>
+        <v>-0.1106145285082591</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N15" t="b">
         <v>1</v>
       </c>
       <c r="O15">
-        <v>0.0001871391561712863</v>
+        <v>4.109865884541374E-12</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1480,10 +1621,10 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1492,25 +1633,25 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>984</v>
+        <v>2268</v>
       </c>
       <c r="G16">
-        <v>99.8984771573604</v>
+        <v>98.18181818181819</v>
       </c>
       <c r="H16">
-        <v>8.469807170807819E-05</v>
+        <v>0.316200025578899</v>
       </c>
       <c r="I16">
-        <v>8.206387188074381E-05</v>
+        <v>4.795150331939154</v>
       </c>
       <c r="J16">
-        <v>7.465552632501176E-06</v>
+        <v>-64</v>
       </c>
       <c r="K16">
-        <v>0.0005008466052639567</v>
+        <v>139</v>
       </c>
       <c r="L16">
-        <v>0.1765159245602979</v>
+        <v>0.1097326191961521</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1519,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="O16">
-        <v>2.933827355408432E-07</v>
+        <v>5.329754102571201E-15</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1527,10 +1668,10 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1539,34 +1680,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>962</v>
+        <v>2308</v>
       </c>
       <c r="G17">
-        <v>97.66497461928934</v>
+        <v>99.91341991341992</v>
       </c>
       <c r="H17">
-        <v>0.001567567194764335</v>
+        <v>8.489774891774895</v>
       </c>
       <c r="I17">
-        <v>0.002126983570708099</v>
+        <v>196.7504756129246</v>
       </c>
       <c r="J17">
-        <v>6.765789474374008E-06</v>
+        <v>-1735.01</v>
       </c>
       <c r="K17">
-        <v>0.01134034473684268</v>
+        <v>799.3000000000002</v>
       </c>
       <c r="L17">
-        <v>0.1758685935060612</v>
+        <v>0.1074236849789016</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N17" t="b">
         <v>1</v>
       </c>
       <c r="O17">
-        <v>0.00018776996218689</v>
+        <v>1.07461930737944E-14</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1574,10 +1715,10 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1586,34 +1727,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>985</v>
+        <v>2310</v>
       </c>
       <c r="G18">
         <v>100</v>
       </c>
       <c r="H18">
-        <v>0.001392444572826578</v>
+        <v>0.1693426555447411</v>
       </c>
       <c r="I18">
-        <v>0.002240090996099728</v>
+        <v>1.389628130834306</v>
       </c>
       <c r="J18">
-        <v>8.952078910861942E-06</v>
+        <v>-4.832854407463256</v>
       </c>
       <c r="K18">
-        <v>0.01588102568419095</v>
+        <v>3.982663738699765</v>
       </c>
       <c r="L18">
-        <v>0.1710818450759205</v>
+        <v>0.1058772580107715</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N18" t="b">
         <v>1</v>
       </c>
       <c r="O18">
-        <v>0.00123343654339831</v>
+        <v>1.219150754239274E-11</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1621,10 +1762,10 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1633,34 +1774,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>982</v>
+        <v>2310</v>
       </c>
       <c r="G19">
-        <v>99.69543147208122</v>
+        <v>100</v>
       </c>
       <c r="H19">
-        <v>-0.02120812182741123</v>
+        <v>0.1819731032955006</v>
       </c>
       <c r="I19">
-        <v>5.073472362328988</v>
+        <v>1.409442629927259</v>
       </c>
       <c r="J19">
-        <v>-17.51000000000001</v>
+        <v>-4.468415194508154</v>
       </c>
       <c r="K19">
-        <v>27.74000000000001</v>
+        <v>7.616449488059229</v>
       </c>
       <c r="L19">
-        <v>-0.1651504470300594</v>
+        <v>-0.1041247484356081</v>
       </c>
       <c r="M19">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N19" t="b">
         <v>1</v>
       </c>
       <c r="O19">
-        <v>1.291282381236128E-05</v>
+        <v>4.359528086972773E-10</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1668,10 +1809,10 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1680,34 +1821,34 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>983</v>
+        <v>2310</v>
       </c>
       <c r="G20">
-        <v>99.79695431472081</v>
+        <v>100</v>
       </c>
       <c r="H20">
-        <v>0.0492037300621703</v>
+        <v>0.2100378381666499</v>
       </c>
       <c r="I20">
-        <v>0.1667505054358195</v>
+        <v>1.251242661018084</v>
       </c>
       <c r="J20">
-        <v>-0.2831010452961672</v>
+        <v>-4.431362762161196</v>
       </c>
       <c r="K20">
-        <v>0.7122302158273381</v>
+        <v>3.128442942837577</v>
       </c>
       <c r="L20">
-        <v>-0.1638967085908771</v>
+        <v>0.1024395133837777</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N20" t="b">
         <v>1</v>
       </c>
       <c r="O20">
-        <v>4.071639584461884E-05</v>
+        <v>6.503595648188915E-16</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1715,10 +1856,10 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1727,34 +1868,34 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>966</v>
+        <v>2310</v>
       </c>
       <c r="G21">
-        <v>98.07106598984771</v>
+        <v>100</v>
       </c>
       <c r="H21">
-        <v>0.1373593711866193</v>
+        <v>0.2058792583744226</v>
       </c>
       <c r="I21">
-        <v>0.4863759062512272</v>
+        <v>1.503095095018156</v>
       </c>
       <c r="J21">
-        <v>-0.875</v>
+        <v>-6.149135378521346</v>
       </c>
       <c r="K21">
-        <v>6.25</v>
+        <v>6.882380135675802</v>
       </c>
       <c r="L21">
-        <v>-0.1622242254278627</v>
+        <v>0.09678950691299545</v>
       </c>
       <c r="M21">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N21" t="b">
         <v>1</v>
       </c>
       <c r="O21">
-        <v>1.197198695715119E-05</v>
+        <v>7.653005178950604E-12</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1762,10 +1903,10 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1774,34 +1915,34 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>980</v>
+        <v>2306</v>
       </c>
       <c r="G22">
-        <v>99.49238578680203</v>
+        <v>99.82683982683983</v>
       </c>
       <c r="H22">
-        <v>8.730089334659506E-05</v>
+        <v>0.01313246753246753</v>
       </c>
       <c r="I22">
-        <v>7.94566558030041E-05</v>
+        <v>0.1428538825681862</v>
       </c>
       <c r="J22">
-        <v>8.220947365398915E-06</v>
+        <v>-0.6295000000000002</v>
       </c>
       <c r="K22">
-        <v>0.0006966609210515984</v>
+        <v>0.5869999999999997</v>
       </c>
       <c r="L22">
-        <v>0.1569882163127607</v>
+        <v>0.09564729012897009</v>
       </c>
       <c r="M22">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N22" t="b">
         <v>1</v>
       </c>
       <c r="O22">
-        <v>0.0001477443150443701</v>
+        <v>1.720657681447969E-12</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1809,10 +1950,10 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1821,34 +1962,34 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>984</v>
+        <v>2309</v>
       </c>
       <c r="G23">
-        <v>99.8984771573604</v>
+        <v>99.95670995670996</v>
       </c>
       <c r="H23">
-        <v>-0.001260304568527919</v>
+        <v>0.02709528643534385</v>
       </c>
       <c r="I23">
-        <v>0.01547564694224857</v>
+        <v>0.01894453537470545</v>
       </c>
       <c r="J23">
-        <v>-0.0544</v>
+        <v>0.0004684520961541369</v>
       </c>
       <c r="K23">
-        <v>0.06090000000000007</v>
+        <v>0.1260199416131866</v>
       </c>
       <c r="L23">
-        <v>0.1536606361341533</v>
+        <v>-0.09386647134323754</v>
       </c>
       <c r="M23">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N23" t="b">
         <v>1</v>
       </c>
       <c r="O23">
-        <v>0.0001279935704629913</v>
+        <v>2.806633809344667E-10</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1856,10 +1997,10 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1868,34 +2009,34 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>967</v>
+        <v>2307</v>
       </c>
       <c r="G24">
-        <v>98.17258883248731</v>
+        <v>99.87012987012987</v>
       </c>
       <c r="H24">
-        <v>0.4322750720609245</v>
+        <v>0.01973012834568726</v>
       </c>
       <c r="I24">
-        <v>1.304201132646063</v>
+        <v>0.08655903647629594</v>
       </c>
       <c r="J24">
-        <v>-0.9493670886075949</v>
+        <v>-0.365331727436625</v>
       </c>
       <c r="K24">
-        <v>23.75</v>
+        <v>0.4843153815992258</v>
       </c>
       <c r="L24">
-        <v>-0.1503315842011338</v>
+        <v>0.09211176042635363</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="b">
         <v>1</v>
       </c>
       <c r="O24">
-        <v>1.275988005609182E-05</v>
+        <v>5.846291999966443E-07</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1903,10 +2044,10 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1915,34 +2056,34 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>985</v>
+        <v>2310</v>
       </c>
       <c r="G25">
         <v>100</v>
       </c>
       <c r="H25">
-        <v>-0.1185457876232147</v>
+        <v>0.02714680898251717</v>
       </c>
       <c r="I25">
-        <v>6.208834741075694</v>
+        <v>1.362268653182339</v>
       </c>
       <c r="J25">
-        <v>-87.11111111111111</v>
+        <v>-3.774480058795238</v>
       </c>
       <c r="K25">
-        <v>94.5</v>
+        <v>4.815559884745857</v>
       </c>
       <c r="L25">
-        <v>0.1302541800611785</v>
+        <v>0.08900707754800469</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="b">
         <v>1</v>
       </c>
       <c r="O25">
-        <v>5.301795784185287E-07</v>
+        <v>7.24933177265393E-12</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1950,10 +2091,10 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C26" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1962,34 +2103,34 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>983</v>
+        <v>2295</v>
       </c>
       <c r="G26">
-        <v>99.79695431472081</v>
+        <v>99.35064935064936</v>
       </c>
       <c r="H26">
-        <v>0.002141725888324873</v>
+        <v>1.180103896103895</v>
       </c>
       <c r="I26">
-        <v>0.01547035964372152</v>
+        <v>56.11952359577113</v>
       </c>
       <c r="J26">
-        <v>-0.04190000000000005</v>
+        <v>-650.5</v>
       </c>
       <c r="K26">
-        <v>0.07410000000000005</v>
+        <v>240.5299999999999</v>
       </c>
       <c r="L26">
-        <v>0.1247441558817174</v>
+        <v>0.08882329621638338</v>
       </c>
       <c r="M26">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N26" t="b">
         <v>1</v>
       </c>
       <c r="O26">
-        <v>1.729792240472295E-08</v>
+        <v>4.490534547670124E-15</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1997,10 +2138,10 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C27" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2009,34 +2150,34 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>983</v>
+        <v>2307</v>
       </c>
       <c r="G27">
-        <v>99.79695431472081</v>
+        <v>99.87012987012987</v>
       </c>
       <c r="H27">
-        <v>856.8300338229637</v>
+        <v>0.02446359406867527</v>
       </c>
       <c r="I27">
-        <v>578.0883926499673</v>
+        <v>0.06581584017493093</v>
       </c>
       <c r="J27">
-        <v>108.1602894736866</v>
+        <v>-0.1598125976054139</v>
       </c>
       <c r="K27">
-        <v>4106.563052631441</v>
+        <v>0.2126524390243902</v>
       </c>
       <c r="L27">
-        <v>-0.1142342582541216</v>
+        <v>0.08705605841216894</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="b">
         <v>1</v>
       </c>
       <c r="O27">
-        <v>2.001823963238395E-17</v>
+        <v>8.12001227968285E-07</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2044,10 +2185,10 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2056,34 +2197,34 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>985</v>
+        <v>2298</v>
       </c>
       <c r="G28">
-        <v>100</v>
+        <v>99.48051948051948</v>
       </c>
       <c r="H28">
-        <v>-2.058764871594642</v>
+        <v>15.65290043290043</v>
       </c>
       <c r="I28">
-        <v>16.86055762817902</v>
+        <v>107.7947946882131</v>
       </c>
       <c r="J28">
-        <v>-246.5555555555556</v>
+        <v>-732</v>
       </c>
       <c r="K28">
-        <v>244.7</v>
+        <v>426.2999999999997</v>
       </c>
       <c r="L28">
-        <v>-0.1139732514779669</v>
+        <v>0.08680176456062264</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N28" t="b">
         <v>1</v>
       </c>
       <c r="O28">
-        <v>6.772056481836644E-06</v>
+        <v>1.724046086827408E-14</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2091,10 +2232,10 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2103,34 +2244,34 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>981</v>
+        <v>2300</v>
       </c>
       <c r="G29">
-        <v>99.59390862944163</v>
+        <v>99.56709956709958</v>
       </c>
       <c r="H29">
-        <v>-1.824497461928934</v>
+        <v>0.08953529268531804</v>
       </c>
       <c r="I29">
-        <v>99.74196986228203</v>
+        <v>0.5150738329326708</v>
       </c>
       <c r="J29">
-        <v>-424.8600000000001</v>
+        <v>-0.6806143427258435</v>
       </c>
       <c r="K29">
-        <v>632.4099999999999</v>
+        <v>4.091748768472907</v>
       </c>
       <c r="L29">
-        <v>-0.1114525468873764</v>
+        <v>-0.08043110028778734</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N29" t="b">
         <v>1</v>
       </c>
       <c r="O29">
-        <v>1.033996176367919E-05</v>
+        <v>2.176736706054208E-05</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2138,10 +2279,10 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2150,25 +2291,25 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>985</v>
+        <v>2310</v>
       </c>
       <c r="G30">
         <v>100</v>
       </c>
       <c r="H30">
-        <v>0.4271113053985609</v>
+        <v>-0.0006171502500731028</v>
       </c>
       <c r="I30">
-        <v>1.441644913798526</v>
+        <v>0.007660286945778946</v>
       </c>
       <c r="J30">
-        <v>-4.225425250884761</v>
+        <v>-0.0393746811080582</v>
       </c>
       <c r="K30">
-        <v>7.451430757365499</v>
+        <v>0.01932216561793987</v>
       </c>
       <c r="L30">
-        <v>-0.1100404586787619</v>
+        <v>0.07711862102568463</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -2177,7 +2318,7 @@
         <v>1</v>
       </c>
       <c r="O30">
-        <v>2.168977151605124E-05</v>
+        <v>2.029686580255582E-14</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2185,10 +2326,10 @@
         <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2197,34 +2338,34 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>985</v>
+        <v>2310</v>
       </c>
       <c r="G31">
         <v>100</v>
       </c>
       <c r="H31">
-        <v>0.2852611288738474</v>
+        <v>0.5101299158847262</v>
       </c>
       <c r="I31">
-        <v>1.477877881317988</v>
+        <v>0.8388523889955635</v>
       </c>
       <c r="J31">
-        <v>-4.840216877043</v>
+        <v>0.02322539062766399</v>
       </c>
       <c r="K31">
-        <v>4.862838842597895</v>
+        <v>12.90441653818358</v>
       </c>
       <c r="L31">
-        <v>0.1077161680641706</v>
+        <v>-0.07635592368336709</v>
       </c>
       <c r="M31">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N31" t="b">
         <v>1</v>
       </c>
       <c r="O31">
-        <v>0.004559461037933647</v>
+        <v>5.298781137602295E-15</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2232,10 +2373,10 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2244,34 +2385,34 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>981</v>
+        <v>2305</v>
       </c>
       <c r="G32">
-        <v>99.59390862944163</v>
+        <v>99.78354978354979</v>
       </c>
       <c r="H32">
-        <v>0.01547757285600725</v>
+        <v>5.575714285714287</v>
       </c>
       <c r="I32">
-        <v>0.01498859113996242</v>
+        <v>46.91385500111897</v>
       </c>
       <c r="J32">
-        <v>0.0005675236842422023</v>
+        <v>-214.3000000000002</v>
       </c>
       <c r="K32">
-        <v>0.1119691684210587</v>
+        <v>173.6999999999998</v>
       </c>
       <c r="L32">
-        <v>-0.1055982045608367</v>
+        <v>0.07289152235960594</v>
       </c>
       <c r="M32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N32" t="b">
         <v>1</v>
       </c>
       <c r="O32">
-        <v>3.688792768838423E-06</v>
+        <v>3.502429817549071E-13</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2279,10 +2420,10 @@
         <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C33" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2291,34 +2432,34 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>973</v>
+        <v>1976</v>
       </c>
       <c r="G33">
-        <v>98.78172588832487</v>
+        <v>85.54112554112554</v>
       </c>
       <c r="H33">
-        <v>-0.07242465230407616</v>
+        <v>-0.4379178903798447</v>
       </c>
       <c r="I33">
-        <v>1.348227029284573</v>
+        <v>1.423226654425774</v>
       </c>
       <c r="J33">
-        <v>-5.030382545693702</v>
+        <v>-7.616867247218773</v>
       </c>
       <c r="K33">
-        <v>7.426249808564735</v>
+        <v>7.616867246359723</v>
       </c>
       <c r="L33">
-        <v>-0.0970880203600651</v>
+        <v>-0.07154865453026527</v>
       </c>
       <c r="M33">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N33" t="b">
         <v>1</v>
       </c>
       <c r="O33">
-        <v>4.077501879457791E-08</v>
+        <v>6.436294529760599E-13</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2326,10 +2467,10 @@
         <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2338,34 +2479,34 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>985</v>
+        <v>2310</v>
       </c>
       <c r="G34">
         <v>100</v>
       </c>
       <c r="H34">
-        <v>0.0003094216412765851</v>
+        <v>0.1407649380105708</v>
       </c>
       <c r="I34">
-        <v>0.006229129661631174</v>
+        <v>0.5999357303586761</v>
       </c>
       <c r="J34">
-        <v>-0.03829280031050253</v>
+        <v>-0.8602150537634409</v>
       </c>
       <c r="K34">
-        <v>0.02050896672162672</v>
+        <v>3.71875</v>
       </c>
       <c r="L34">
-        <v>-0.09024227934765718</v>
+        <v>0.06950935994515177</v>
       </c>
       <c r="M34">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N34" t="b">
         <v>1</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.001641078049521607</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2373,10 +2514,10 @@
         <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C35" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2385,34 +2526,34 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>985</v>
+        <v>2281</v>
       </c>
       <c r="G35">
-        <v>100</v>
+        <v>98.74458874458874</v>
       </c>
       <c r="H35">
-        <v>0.591311480665115</v>
+        <v>0.001021876588061486</v>
       </c>
       <c r="I35">
-        <v>1.373291199071527</v>
+        <v>0.001694812216091518</v>
       </c>
       <c r="J35">
-        <v>-4.220912750872667</v>
+        <v>6.765789474374008E-06</v>
       </c>
       <c r="K35">
-        <v>7.448418942354899</v>
+        <v>0.01134034473684268</v>
       </c>
       <c r="L35">
-        <v>0.08741033550961001</v>
+        <v>-0.0687162079184738</v>
       </c>
       <c r="M35">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N35" t="b">
         <v>1</v>
       </c>
       <c r="O35">
-        <v>7.774278008713791E-05</v>
+        <v>1.764481849541885E-08</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2420,10 +2561,10 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2432,34 +2573,34 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>985</v>
+        <v>2275</v>
       </c>
       <c r="G36">
-        <v>100</v>
+        <v>98.48484848484848</v>
       </c>
       <c r="H36">
-        <v>-0.01697731159272337</v>
+        <v>-0.07051428750249814</v>
       </c>
       <c r="I36">
-        <v>0.1033106640936027</v>
+        <v>7.77877643537499</v>
       </c>
       <c r="J36">
-        <v>-0.2565713341048107</v>
+        <v>-155</v>
       </c>
       <c r="K36">
-        <v>0.2990642994241843</v>
+        <v>81.66666666666667</v>
       </c>
       <c r="L36">
-        <v>0.0872253277515781</v>
+        <v>-0.06697843452688026</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N36" t="b">
         <v>1</v>
       </c>
       <c r="O36">
-        <v>0.0124405788475396</v>
+        <v>3.203752371999014E-12</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2467,10 +2608,10 @@
         <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2479,34 +2620,34 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>983</v>
+        <v>2165</v>
       </c>
       <c r="G37">
-        <v>99.79695431472081</v>
+        <v>93.72294372294373</v>
       </c>
       <c r="H37">
-        <v>12.20446700507614</v>
+        <v>-0.959900051872342</v>
       </c>
       <c r="I37">
-        <v>58.85277708205017</v>
+        <v>1.349430921496252</v>
       </c>
       <c r="J37">
-        <v>-214.3000000000002</v>
+        <v>-7.616867247526829</v>
       </c>
       <c r="K37">
-        <v>182</v>
+        <v>7.616867241184657</v>
       </c>
       <c r="L37">
-        <v>0.0849761869647284</v>
+        <v>-0.06463912315175531</v>
       </c>
       <c r="M37">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N37" t="b">
         <v>1</v>
       </c>
       <c r="O37">
-        <v>0.0007087331349182193</v>
+        <v>4.085834354363135E-14</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2514,10 +2655,10 @@
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2526,34 +2667,34 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>984</v>
+        <v>2308</v>
       </c>
       <c r="G38">
-        <v>99.8984771573604</v>
+        <v>99.91341991341992</v>
       </c>
       <c r="H38">
-        <v>0.0008732994923857894</v>
+        <v>0.002802268313117376</v>
       </c>
       <c r="I38">
-        <v>0.4116882447947865</v>
+        <v>0.02509550543754664</v>
       </c>
       <c r="J38">
-        <v>-1.099</v>
+        <v>-0.07443472976146082</v>
       </c>
       <c r="K38">
-        <v>1.790699999999998</v>
+        <v>0.0854011741682974</v>
       </c>
       <c r="L38">
-        <v>0.08180532121628858</v>
+        <v>-0.06307446382486367</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N38" t="b">
         <v>1</v>
       </c>
       <c r="O38">
-        <v>7.611849948465173E-09</v>
+        <v>2.603485278603546E-06</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2561,10 +2702,10 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2573,34 +2714,34 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>971</v>
+        <v>2310</v>
       </c>
       <c r="G39">
-        <v>98.57868020304569</v>
+        <v>100</v>
       </c>
       <c r="H39">
-        <v>1.943304403376071</v>
+        <v>-0.08330565249081158</v>
       </c>
       <c r="I39">
-        <v>3.232426264425179</v>
+        <v>6.413549933507307</v>
       </c>
       <c r="J39">
-        <v>-0.9024390243902439</v>
+        <v>-87.11111111111111</v>
       </c>
       <c r="K39">
-        <v>53.75</v>
+        <v>108</v>
       </c>
       <c r="L39">
-        <v>-0.07948170265743988</v>
+        <v>-0.06278408348192514</v>
       </c>
       <c r="M39">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N39" t="b">
         <v>1</v>
       </c>
       <c r="O39">
-        <v>0.0006081136066202484</v>
+        <v>1.798221886848215E-16</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2608,10 +2749,10 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C40" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2620,34 +2761,34 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>985</v>
+        <v>2305</v>
       </c>
       <c r="G40">
-        <v>100</v>
+        <v>99.78354978354979</v>
       </c>
       <c r="H40">
-        <v>-0.6858045834295924</v>
+        <v>0.0001061895965108417</v>
       </c>
       <c r="I40">
-        <v>8.75811315545349</v>
+        <v>0.00872416415765323</v>
       </c>
       <c r="J40">
-        <v>-129.6666666666667</v>
+        <v>-0.03415145796212471</v>
       </c>
       <c r="K40">
-        <v>106.8</v>
+        <v>0.06045929113544446</v>
       </c>
       <c r="L40">
-        <v>0.077351652268003</v>
+        <v>-0.06009723754301587</v>
       </c>
       <c r="M40">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N40" t="b">
         <v>1</v>
       </c>
       <c r="O40">
-        <v>5.714046939711822E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2655,10 +2796,10 @@
         <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C41" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2667,34 +2808,34 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>984</v>
+        <v>2307</v>
       </c>
       <c r="G41">
-        <v>99.8984771573604</v>
+        <v>99.87012987012987</v>
       </c>
       <c r="H41">
-        <v>0.001567355211347228</v>
+        <v>0.01859207679387989</v>
       </c>
       <c r="I41">
-        <v>0.02836120130714875</v>
+        <v>0.1579394716134529</v>
       </c>
       <c r="J41">
-        <v>-0.2190535660626846</v>
+        <v>-0.3348689113203712</v>
       </c>
       <c r="K41">
-        <v>0.1147388932751553</v>
+        <v>0.8302360460368601</v>
       </c>
       <c r="L41">
-        <v>-0.07536192835635575</v>
+        <v>0.05854719260070638</v>
       </c>
       <c r="M41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N41" t="b">
         <v>1</v>
       </c>
       <c r="O41">
-        <v>7.810728905806605E-30</v>
+        <v>0.00305500271950415</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2702,10 +2843,10 @@
         <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C42" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2714,34 +2855,34 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>983</v>
+        <v>2304</v>
       </c>
       <c r="G42">
-        <v>99.79695431472081</v>
+        <v>99.74025974025975</v>
       </c>
       <c r="H42">
-        <v>0.000968305929735689</v>
+        <v>-0.0008073160173160176</v>
       </c>
       <c r="I42">
-        <v>0.01909610045522526</v>
+        <v>0.02366466398465962</v>
       </c>
       <c r="J42">
-        <v>-0.1323924992985416</v>
+        <v>-0.1971000000000001</v>
       </c>
       <c r="K42">
-        <v>0.08991196381860034</v>
+        <v>0.0907</v>
       </c>
       <c r="L42">
-        <v>-0.07391102064514445</v>
+        <v>0.0554842562995092</v>
       </c>
       <c r="M42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N42" t="b">
         <v>1</v>
       </c>
       <c r="O42">
-        <v>1.169061118583286E-25</v>
+        <v>1.095399051928587E-14</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2749,10 +2890,10 @@
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C43" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2761,34 +2902,34 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>963</v>
+        <v>2310</v>
       </c>
       <c r="G43">
-        <v>97.76649746192894</v>
+        <v>100</v>
       </c>
       <c r="H43">
-        <v>-0.1958042091498208</v>
+        <v>0.0001809628667199131</v>
       </c>
       <c r="I43">
-        <v>1.409936569668178</v>
+        <v>0.01642997786683265</v>
       </c>
       <c r="J43">
-        <v>-7.108732758180511</v>
+        <v>-0.1150126830808231</v>
       </c>
       <c r="K43">
-        <v>7.115049192816833</v>
+        <v>0.06799046296149358</v>
       </c>
       <c r="L43">
-        <v>-0.07157032592829794</v>
+        <v>0.05488397040105963</v>
       </c>
       <c r="M43">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N43" t="b">
         <v>1</v>
       </c>
       <c r="O43">
-        <v>3.170045590544638E-05</v>
+        <v>9.022880152883525E-26</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2796,10 +2937,10 @@
         <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2808,34 +2949,34 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>985</v>
+        <v>2310</v>
       </c>
       <c r="G44">
         <v>100</v>
       </c>
       <c r="H44">
-        <v>0.2806765771472941</v>
+        <v>0.1256779583847136</v>
       </c>
       <c r="I44">
-        <v>1.299091018073084</v>
+        <v>1.493157711367287</v>
       </c>
       <c r="J44">
-        <v>-2.842085753097962</v>
+        <v>-4.840216877043</v>
       </c>
       <c r="K44">
-        <v>3.278633712748289</v>
+        <v>7.365045866571771</v>
       </c>
       <c r="L44">
-        <v>0.07148642023721759</v>
+        <v>-0.04981682927187699</v>
       </c>
       <c r="M44">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N44" t="b">
         <v>1</v>
       </c>
       <c r="O44">
-        <v>0.0006633437096385806</v>
+        <v>4.381061568619485E-07</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2843,10 +2984,10 @@
         <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2855,34 +2996,34 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>982</v>
+        <v>2310</v>
       </c>
       <c r="G45">
-        <v>99.69543147208122</v>
+        <v>100</v>
       </c>
       <c r="H45">
-        <v>0.001358646449393406</v>
+        <v>0.1138507469312682</v>
       </c>
       <c r="I45">
-        <v>0.001943394267192754</v>
+        <v>1.368114367205313</v>
       </c>
       <c r="J45">
-        <v>2.939736844981496E-05</v>
+        <v>-5.160358261478408</v>
       </c>
       <c r="K45">
-        <v>0.01778514736846258</v>
+        <v>4.129329641497274</v>
       </c>
       <c r="L45">
-        <v>0.07127785122482161</v>
+        <v>0.04978854097785686</v>
       </c>
       <c r="M45">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N45" t="b">
         <v>1</v>
       </c>
       <c r="O45">
-        <v>8.468506677490604E-08</v>
+        <v>9.304261216221855E-10</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2890,10 +3031,10 @@
         <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2902,34 +3043,34 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>983</v>
+        <v>2285</v>
       </c>
       <c r="G46">
-        <v>99.79695431472081</v>
+        <v>98.91774891774891</v>
       </c>
       <c r="H46">
-        <v>0.001197762332768972</v>
+        <v>3.970212200530951E-05</v>
       </c>
       <c r="I46">
-        <v>0.01907433085729117</v>
+        <v>0.01141886300456321</v>
       </c>
       <c r="J46">
-        <v>-0.1354853856078985</v>
+        <v>-0.1627526873922349</v>
       </c>
       <c r="K46">
-        <v>0.08236906828867396</v>
+        <v>0.1245706155911517</v>
       </c>
       <c r="L46">
-        <v>-0.06984471955648246</v>
+        <v>0.04927571946458154</v>
       </c>
       <c r="M46">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N46" t="b">
         <v>1</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>2.519844384424904E-23</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2937,10 +3078,10 @@
         <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2949,34 +3090,34 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>942</v>
+        <v>2304</v>
       </c>
       <c r="G47">
-        <v>95.63451776649747</v>
+        <v>99.74025974025975</v>
       </c>
       <c r="H47">
-        <v>-0.0003695079971587935</v>
+        <v>0.1633939393939394</v>
       </c>
       <c r="I47">
-        <v>0.005560135665499421</v>
+        <v>2.204815136040261</v>
       </c>
       <c r="J47">
-        <v>-0.02531780798428973</v>
+        <v>-12.83000000000001</v>
       </c>
       <c r="K47">
-        <v>0.04541386789394175</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="L47">
-        <v>0.06610652304894533</v>
+        <v>0.04868955721523958</v>
       </c>
       <c r="M47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N47" t="b">
         <v>1</v>
       </c>
       <c r="O47">
-        <v>5.09640948270755E-23</v>
+        <v>4.595122617912472E-13</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2984,10 +3125,10 @@
         <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2996,34 +3137,34 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>981</v>
+        <v>2310</v>
       </c>
       <c r="G48">
-        <v>99.59390862944163</v>
+        <v>100</v>
       </c>
       <c r="H48">
-        <v>0.0005357235858986353</v>
+        <v>0.01543910992186265</v>
       </c>
       <c r="I48">
-        <v>0.01658050624504966</v>
+        <v>1.543251465635672</v>
       </c>
       <c r="J48">
-        <v>-0.05924623070009327</v>
+        <v>-7.232459043822676</v>
       </c>
       <c r="K48">
-        <v>0.06376661835898934</v>
+        <v>7.195184727375178</v>
       </c>
       <c r="L48">
-        <v>-0.06463504673174048</v>
+        <v>0.04864650217397715</v>
       </c>
       <c r="M48">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N48" t="b">
         <v>1</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>6.364945703162466E-11</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3031,10 +3172,10 @@
         <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C49" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -3043,34 +3184,34 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>985</v>
+        <v>2294</v>
       </c>
       <c r="G49">
-        <v>100</v>
+        <v>99.30735930735931</v>
       </c>
       <c r="H49">
-        <v>0.06761319796954314</v>
+        <v>0.0002112971798056565</v>
       </c>
       <c r="I49">
-        <v>1.411500384338679</v>
+        <v>0.01203556328973575</v>
       </c>
       <c r="J49">
-        <v>-3.695999999999998</v>
+        <v>-0.1305352462381535</v>
       </c>
       <c r="K49">
-        <v>4.812000000000001</v>
+        <v>0.1041315732433521</v>
       </c>
       <c r="L49">
-        <v>-0.06233439979898459</v>
+        <v>0.04839945507700284</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N49" t="b">
         <v>1</v>
       </c>
       <c r="O49">
-        <v>1.397090105855814E-05</v>
+        <v>3.522097038826313E-28</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3078,10 +3219,10 @@
         <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C50" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -3090,25 +3231,25 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>980</v>
+        <v>2310</v>
       </c>
       <c r="G50">
-        <v>99.49238578680203</v>
+        <v>100</v>
       </c>
       <c r="H50">
-        <v>0.008548020304568528</v>
+        <v>0.00521782147875684</v>
       </c>
       <c r="I50">
-        <v>0.06291201543115069</v>
+        <v>0.05076300014157478</v>
       </c>
       <c r="J50">
-        <v>-0.2305000000000001</v>
+        <v>-0.2318311037847427</v>
       </c>
       <c r="K50">
-        <v>0.2515000000000001</v>
+        <v>0.1862174916183488</v>
       </c>
       <c r="L50">
-        <v>0.05983993462480097</v>
+        <v>0.0479428182203263</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -3117,7 +3258,7 @@
         <v>1</v>
       </c>
       <c r="O50">
-        <v>0.002233301970195006</v>
+        <v>1.700392468707519E-11</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3125,10 +3266,10 @@
         <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -3137,34 +3278,34 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>982</v>
+        <v>2296</v>
       </c>
       <c r="G51">
-        <v>99.69543147208122</v>
+        <v>99.39393939393939</v>
       </c>
       <c r="H51">
-        <v>0.000772209866774253</v>
+        <v>0.00365031190165752</v>
       </c>
       <c r="I51">
-        <v>0.01456545519267779</v>
+        <v>0.1253441523510233</v>
       </c>
       <c r="J51">
-        <v>-0.055826855720436</v>
+        <v>-0.4336279286424696</v>
       </c>
       <c r="K51">
-        <v>0.07082985461144997</v>
+        <v>0.4072905830900531</v>
       </c>
       <c r="L51">
-        <v>-0.05596016728980203</v>
+        <v>0.04781989220205111</v>
       </c>
       <c r="M51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N51" t="b">
         <v>1</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.006073180123994432</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3172,10 +3313,10 @@
         <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C52" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -3184,34 +3325,34 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>984</v>
+        <v>2274</v>
       </c>
       <c r="G52">
-        <v>99.8984771573604</v>
+        <v>98.44155844155844</v>
       </c>
       <c r="H52">
-        <v>-1.429441624365483</v>
+        <v>0.007900256882780404</v>
       </c>
       <c r="I52">
-        <v>48.60187692092435</v>
+        <v>2.894327390040594</v>
       </c>
       <c r="J52">
-        <v>-146.3999999999999</v>
+        <v>-49.5</v>
       </c>
       <c r="K52">
-        <v>123.7</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="L52">
-        <v>-0.05365300636495778</v>
+        <v>0.04756934054002476</v>
       </c>
       <c r="M52">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N52" t="b">
         <v>1</v>
       </c>
       <c r="O52">
-        <v>4.634064126115417E-07</v>
+        <v>1.894119546853881E-20</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3219,10 +3360,10 @@
         <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C53" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -3231,34 +3372,34 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>977</v>
+        <v>2278</v>
       </c>
       <c r="G53">
-        <v>99.18781725888324</v>
+        <v>98.61471861471861</v>
       </c>
       <c r="H53">
-        <v>-0.0002239593908629442</v>
+        <v>0.3609564216189567</v>
       </c>
       <c r="I53">
-        <v>0.007951771199022345</v>
+        <v>6.173235476878896</v>
       </c>
       <c r="J53">
-        <v>-0.02150000000000007</v>
+        <v>-90</v>
       </c>
       <c r="K53">
-        <v>0.03280000000000005</v>
+        <v>99</v>
       </c>
       <c r="L53">
-        <v>-0.05085263434371793</v>
+        <v>0.04744457565846971</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N53" t="b">
         <v>1</v>
       </c>
       <c r="O53">
-        <v>2.445742460462201E-08</v>
+        <v>6.727378171912835E-08</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3266,10 +3407,10 @@
         <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C54" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -3278,34 +3419,34 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>985</v>
+        <v>2306</v>
       </c>
       <c r="G54">
-        <v>100</v>
+        <v>99.82683982683983</v>
       </c>
       <c r="H54">
-        <v>0.0388018664858458</v>
+        <v>0.02559682481073296</v>
       </c>
       <c r="I54">
-        <v>0.394592764545993</v>
+        <v>0.2447505891100605</v>
       </c>
       <c r="J54">
-        <v>-0.8373653784629596</v>
+        <v>-0.7150537634408602</v>
       </c>
       <c r="K54">
-        <v>1.077573153073077</v>
+        <v>2.973333333333333</v>
       </c>
       <c r="L54">
-        <v>0.04999780460028775</v>
+        <v>0.04675073577783116</v>
       </c>
       <c r="M54">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N54" t="b">
         <v>1</v>
       </c>
       <c r="O54">
-        <v>0.0007537735813404265</v>
+        <v>1.249034359220676E-10</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3313,10 +3454,10 @@
         <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C55" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -3325,34 +3466,34 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>985</v>
+        <v>2310</v>
       </c>
       <c r="G55">
         <v>100</v>
       </c>
       <c r="H55">
-        <v>-1.473150529382213E-05</v>
+        <v>-0.006049104506127118</v>
       </c>
       <c r="I55">
-        <v>0.006730226868218381</v>
+        <v>0.05261860936895062</v>
       </c>
       <c r="J55">
-        <v>-0.0215547984943032</v>
+        <v>-0.1558459235061931</v>
       </c>
       <c r="K55">
-        <v>0.03698872461281688</v>
+        <v>0.1562908141053547</v>
       </c>
       <c r="L55">
-        <v>0.04998831589362972</v>
+        <v>0.04514721096950861</v>
       </c>
       <c r="M55">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N55" t="b">
         <v>1</v>
       </c>
       <c r="O55">
-        <v>4.770680155299928E-30</v>
+        <v>0.0002795806981751864</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3360,10 +3501,10 @@
         <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C56" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -3372,34 +3513,34 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>984</v>
+        <v>2294</v>
       </c>
       <c r="G56">
-        <v>99.8984771573604</v>
+        <v>99.30735930735931</v>
       </c>
       <c r="H56">
-        <v>-4.91454425294551E-05</v>
+        <v>8.22424338648917E-05</v>
       </c>
       <c r="I56">
-        <v>0.002461769688413344</v>
+        <v>0.009832850892289857</v>
       </c>
       <c r="J56">
-        <v>-0.009698093198099556</v>
+        <v>-0.1151035243168188</v>
       </c>
       <c r="K56">
-        <v>0.01052614790659723</v>
+        <v>0.08665144443680362</v>
       </c>
       <c r="L56">
-        <v>0.04770593379818916</v>
+        <v>0.04492909801260229</v>
       </c>
       <c r="M56">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N56" t="b">
         <v>1</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>7.816133081423279E-29</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3407,10 +3548,10 @@
         <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C57" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -3419,34 +3560,34 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>939</v>
+        <v>2275</v>
       </c>
       <c r="G57">
-        <v>95.32994923857868</v>
+        <v>98.48484848484848</v>
       </c>
       <c r="H57">
-        <v>-5.131247094251334E-05</v>
+        <v>0.008861812713605229</v>
       </c>
       <c r="I57">
-        <v>0.009803743051372627</v>
+        <v>0.01061975747226608</v>
       </c>
       <c r="J57">
-        <v>-0.06844095727370991</v>
+        <v>0.0002357894736766733</v>
       </c>
       <c r="K57">
-        <v>0.07752677416659282</v>
+        <v>0.1110660526315742</v>
       </c>
       <c r="L57">
-        <v>-0.04642804878723648</v>
+        <v>-0.04399218076874343</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N57" t="b">
         <v>1</v>
       </c>
       <c r="O57">
-        <v>1.074240305183718E-10</v>
+        <v>3.00880297756733E-09</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3454,10 +3595,10 @@
         <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C58" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -3466,34 +3607,34 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>985</v>
+        <v>2310</v>
       </c>
       <c r="G58">
         <v>100</v>
       </c>
       <c r="H58">
-        <v>0.0002873682460344791</v>
+        <v>-0.01006242989846814</v>
       </c>
       <c r="I58">
-        <v>0.01699893179527755</v>
+        <v>1.336308473865334</v>
       </c>
       <c r="J58">
-        <v>-0.06138762339002524</v>
+        <v>-3.799098480870783</v>
       </c>
       <c r="K58">
-        <v>0.07450355094231487</v>
+        <v>12.24933524500131</v>
       </c>
       <c r="L58">
-        <v>-0.0454798799963702</v>
+        <v>-0.04396282210270316</v>
       </c>
       <c r="M58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N58" t="b">
         <v>1</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>8.648899554248815E-18</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3501,10 +3642,10 @@
         <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C59" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -3513,34 +3654,34 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>985</v>
+        <v>2310</v>
       </c>
       <c r="G59">
         <v>100</v>
       </c>
       <c r="H59">
-        <v>0.05843998076659453</v>
+        <v>0.06037616854323927</v>
       </c>
       <c r="I59">
-        <v>0.07094729306759788</v>
+        <v>1.463922711176332</v>
       </c>
       <c r="J59">
-        <v>0.001517307658279876</v>
+        <v>-7.158381601894628</v>
       </c>
       <c r="K59">
-        <v>0.6158194548424155</v>
+        <v>7.537861538521581</v>
       </c>
       <c r="L59">
-        <v>0.04158552715800166</v>
+        <v>-0.04322046090268402</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" t="b">
         <v>1</v>
       </c>
       <c r="O59">
-        <v>0.0002014909409034328</v>
+        <v>2.742582381428036E-17</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3548,10 +3689,10 @@
         <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C60" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -3560,34 +3701,34 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>984</v>
+        <v>2304</v>
       </c>
       <c r="G60">
-        <v>99.8984771573604</v>
+        <v>99.74025974025975</v>
       </c>
       <c r="H60">
-        <v>-0.02259303624233623</v>
+        <v>-0.09847619047619048</v>
       </c>
       <c r="I60">
-        <v>2.996774113571165</v>
+        <v>4.925230076920927</v>
       </c>
       <c r="J60">
-        <v>-40.76923076923077</v>
+        <v>-25.61</v>
       </c>
       <c r="K60">
-        <v>64.8</v>
+        <v>49.27</v>
       </c>
       <c r="L60">
-        <v>0.04150392304463107</v>
+        <v>-0.04255875187316933</v>
       </c>
       <c r="M60">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N60" t="b">
         <v>1</v>
       </c>
       <c r="O60">
-        <v>2.551782711334769E-06</v>
+        <v>5.668192548560802E-20</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3595,10 +3736,10 @@
         <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C61" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -3607,34 +3748,34 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>985</v>
+        <v>2310</v>
       </c>
       <c r="G61">
         <v>100</v>
       </c>
       <c r="H61">
-        <v>-7.159237278456894E-05</v>
+        <v>-0.00042393422046051</v>
       </c>
       <c r="I61">
-        <v>0.002654390685958872</v>
+        <v>0.005491386143323056</v>
       </c>
       <c r="J61">
-        <v>-0.009653274818567259</v>
+        <v>-0.02141455256861435</v>
       </c>
       <c r="K61">
-        <v>0.01131733566989984</v>
+        <v>0.01311035082450127</v>
       </c>
       <c r="L61">
-        <v>-0.03972213081317805</v>
+        <v>-0.04244670445557347</v>
       </c>
       <c r="M61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N61" t="b">
         <v>1</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>7.127841774439572E-12</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3642,10 +3783,10 @@
         <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C62" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -3654,25 +3795,25 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>985</v>
+        <v>2111</v>
       </c>
       <c r="G62">
-        <v>100</v>
+        <v>91.38528138528137</v>
       </c>
       <c r="H62">
-        <v>0.006874111675126901</v>
+        <v>0.04495059329160284</v>
       </c>
       <c r="I62">
-        <v>0.1869550107555109</v>
+        <v>0.4667996228544352</v>
       </c>
       <c r="J62">
-        <v>-0.6435</v>
+        <v>-0.2758353360725637</v>
       </c>
       <c r="K62">
-        <v>0.5869999999999997</v>
+        <v>19.36</v>
       </c>
       <c r="L62">
-        <v>0.0361314540826909</v>
+        <v>0.04237490396290414</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -3681,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="O62">
-        <v>8.427737493001719E-05</v>
+        <v>6.226518142708082E-05</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3689,10 +3830,10 @@
         <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C63" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -3701,34 +3842,34 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>940</v>
+        <v>2310</v>
       </c>
       <c r="G63">
-        <v>95.43147208121827</v>
+        <v>100</v>
       </c>
       <c r="H63">
-        <v>0.0001047857528648439</v>
+        <v>-0.07698039655991386</v>
       </c>
       <c r="I63">
-        <v>0.00238762388709314</v>
+        <v>1.238499328054473</v>
       </c>
       <c r="J63">
-        <v>-0.01424556628024343</v>
+        <v>-2.082670590082913</v>
       </c>
       <c r="K63">
-        <v>0.009027937186763424</v>
+        <v>6.985474257313557</v>
       </c>
       <c r="L63">
-        <v>0.03367672022295524</v>
+        <v>-0.04208230450433025</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N63" t="b">
         <v>1</v>
       </c>
       <c r="O63">
-        <v>9.963580600734063E-09</v>
+        <v>9.420542661149752E-15</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3736,10 +3877,10 @@
         <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C64" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -3748,25 +3889,25 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>985</v>
+        <v>2269</v>
       </c>
       <c r="G64">
-        <v>100</v>
+        <v>98.22510822510823</v>
       </c>
       <c r="H64">
-        <v>-2.747298187091234E-05</v>
+        <v>0.02554717432831613</v>
       </c>
       <c r="I64">
-        <v>0.02249780061361145</v>
+        <v>0.3823394200014536</v>
       </c>
       <c r="J64">
-        <v>-0.1330698423201673</v>
+        <v>-0.9297038738079241</v>
       </c>
       <c r="K64">
-        <v>0.08177338123986377</v>
+        <v>12.47216968386923</v>
       </c>
       <c r="L64">
-        <v>-0.03293065732385993</v>
+        <v>-0.04159158647902435</v>
       </c>
       <c r="M64">
         <v>1</v>
@@ -3775,7 +3916,7 @@
         <v>1</v>
       </c>
       <c r="O64">
-        <v>5.269107802653159E-17</v>
+        <v>2.747392130257351E-19</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -3783,10 +3924,10 @@
         <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C65" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -3795,34 +3936,34 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>985</v>
+        <v>2220</v>
       </c>
       <c r="G65">
-        <v>100</v>
+        <v>96.1038961038961</v>
       </c>
       <c r="H65">
-        <v>-4.880077675305898E-05</v>
+        <v>0.0001028034840921127</v>
       </c>
       <c r="I65">
-        <v>0.0176271093951369</v>
+        <v>0.01212934064887082</v>
       </c>
       <c r="J65">
-        <v>-0.05932443670405707</v>
+        <v>-0.08870261260902446</v>
       </c>
       <c r="K65">
-        <v>0.05618963192382687</v>
+        <v>0.07752677416659282</v>
       </c>
       <c r="L65">
-        <v>-0.02715224617989022</v>
+        <v>0.03992048284532922</v>
       </c>
       <c r="M65">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N65" t="b">
         <v>1</v>
       </c>
       <c r="O65">
-        <v>1.076563250967352E-26</v>
+        <v>2.473334584987732E-29</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3830,10 +3971,10 @@
         <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C66" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -3842,25 +3983,25 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>954</v>
+        <v>2302</v>
       </c>
       <c r="G66">
-        <v>96.85279187817258</v>
+        <v>99.65367965367965</v>
       </c>
       <c r="H66">
-        <v>0.0008881584021984166</v>
+        <v>8.133877313883101</v>
       </c>
       <c r="I66">
-        <v>0.01351192437978198</v>
+        <v>5.473985357028999</v>
       </c>
       <c r="J66">
-        <v>-0.1030955090269741</v>
+        <v>3.92757009195691</v>
       </c>
       <c r="K66">
-        <v>0.1234287810689567</v>
+        <v>60.9580468373787</v>
       </c>
       <c r="L66">
-        <v>0.02390998940850774</v>
+        <v>-0.03816594188719617</v>
       </c>
       <c r="M66">
         <v>1</v>
@@ -3869,7 +4010,7 @@
         <v>1</v>
       </c>
       <c r="O66">
-        <v>4.394014097019161E-22</v>
+        <v>3.185524238152103E-06</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -3877,10 +4018,10 @@
         <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C67" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -3889,34 +4030,34 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>985</v>
+        <v>2305</v>
       </c>
       <c r="G67">
-        <v>100</v>
+        <v>99.78354978354979</v>
       </c>
       <c r="H67">
-        <v>0.0001745863096696572</v>
+        <v>0.1492034632034632</v>
       </c>
       <c r="I67">
-        <v>0.01174076841965945</v>
+        <v>4.300217270406631</v>
       </c>
       <c r="J67">
-        <v>-0.04308667620406137</v>
+        <v>-26.12</v>
       </c>
       <c r="K67">
-        <v>0.0563173550606193</v>
+        <v>27.74000000000001</v>
       </c>
       <c r="L67">
-        <v>0.0236736283255199</v>
+        <v>0.03584973137597103</v>
       </c>
       <c r="M67">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N67" t="b">
         <v>1</v>
       </c>
       <c r="O67">
-        <v>1.648132341831641E-24</v>
+        <v>1.765637831053689E-13</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -3924,10 +4065,10 @@
         <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C68" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -3936,34 +4077,34 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>985</v>
+        <v>2309</v>
       </c>
       <c r="G68">
-        <v>100</v>
+        <v>99.95670995670996</v>
       </c>
       <c r="H68">
-        <v>-1.225465847523359E-05</v>
+        <v>0.06066695233022516</v>
       </c>
       <c r="I68">
-        <v>0.00161257550417851</v>
+        <v>3.50898456224112</v>
       </c>
       <c r="J68">
-        <v>-0.006154524256717142</v>
+        <v>-40.76923076923077</v>
       </c>
       <c r="K68">
-        <v>0.009984681176262722</v>
+        <v>91.8</v>
       </c>
       <c r="L68">
-        <v>-0.022580494331793</v>
+        <v>0.03539607086280522</v>
       </c>
       <c r="M68">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N68" t="b">
         <v>1</v>
       </c>
       <c r="O68">
-        <v>9.373742182623478E-30</v>
+        <v>3.25631776681856E-30</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -3971,10 +4112,10 @@
         <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C69" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3983,25 +4124,25 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>985</v>
+        <v>2308</v>
       </c>
       <c r="G69">
-        <v>100</v>
+        <v>99.91341991341992</v>
       </c>
       <c r="H69">
-        <v>0.0005742994413412472</v>
+        <v>-0.9445583998637395</v>
       </c>
       <c r="I69">
-        <v>0.008959683198122889</v>
+        <v>14.56030020687942</v>
       </c>
       <c r="J69">
-        <v>-0.03514529022365043</v>
+        <v>-309</v>
       </c>
       <c r="K69">
-        <v>0.03087184608640658</v>
+        <v>244.7</v>
       </c>
       <c r="L69">
-        <v>0.02182305911521486</v>
+        <v>-0.03505340167989235</v>
       </c>
       <c r="M69">
         <v>8</v>
@@ -4010,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>2.988752261283694E-15</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -4018,10 +4159,10 @@
         <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C70" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -4030,34 +4171,34 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>985</v>
+        <v>2309</v>
       </c>
       <c r="G70">
-        <v>100</v>
+        <v>99.95670995670996</v>
       </c>
       <c r="H70">
-        <v>8.055908800515518E-05</v>
+        <v>0.0002675208143277954</v>
       </c>
       <c r="I70">
-        <v>0.00236030852257129</v>
+        <v>0.01017309999645951</v>
       </c>
       <c r="J70">
-        <v>-0.01130816954475478</v>
+        <v>-0.05028516977100694</v>
       </c>
       <c r="K70">
-        <v>0.007713296766514999</v>
+        <v>0.04185448570359451</v>
       </c>
       <c r="L70">
-        <v>0.02084413403274858</v>
+        <v>0.03368528016050174</v>
       </c>
       <c r="M70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N70" t="b">
         <v>1</v>
       </c>
       <c r="O70">
-        <v>2.95684362654756E-29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -4065,10 +4206,10 @@
         <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="C71" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -4077,34 +4218,34 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>163</v>
+        <v>2310</v>
       </c>
       <c r="G71">
-        <v>16.54822335025381</v>
+        <v>100</v>
       </c>
       <c r="H71">
-        <v>0.004986098441017598</v>
+        <v>-0.03766834803136782</v>
       </c>
       <c r="I71">
-        <v>0.03432128984584249</v>
+        <v>1.350585354415729</v>
       </c>
       <c r="J71">
-        <v>-0.04226705091258398</v>
+        <v>-4.135201136252989</v>
       </c>
       <c r="K71">
-        <v>0.1207778915046058</v>
+        <v>3.677521279073388</v>
       </c>
       <c r="L71">
-        <v>-0.1677189417711944</v>
+        <v>0.03326314784612366</v>
       </c>
       <c r="M71">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N71" t="b">
         <v>1</v>
       </c>
       <c r="O71">
-        <v>0.007940493304612073</v>
+        <v>1.272144460387852E-11</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -4112,10 +4253,10 @@
         <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="C72" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -4124,34 +4265,34 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>155</v>
+        <v>2306</v>
       </c>
       <c r="G72">
-        <v>15.73604060913706</v>
+        <v>99.82683982683983</v>
       </c>
       <c r="H72">
-        <v>0.001312754221821091</v>
+        <v>-0.0002617316017316011</v>
       </c>
       <c r="I72">
-        <v>0.02267158335444301</v>
+        <v>0.01648702308801434</v>
       </c>
       <c r="J72">
-        <v>-0.03849950641658428</v>
+        <v>-0.08160000000000012</v>
       </c>
       <c r="K72">
-        <v>0.1311983471074381</v>
+        <v>0.06259999999999999</v>
       </c>
       <c r="L72">
-        <v>-0.1018697533191913</v>
+        <v>0.03205324410034428</v>
       </c>
       <c r="M72">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N72" t="b">
         <v>1</v>
       </c>
       <c r="O72">
-        <v>0.0001019090835329796</v>
+        <v>2.373467897647347E-13</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -4159,10 +4300,10 @@
         <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="C73" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -4171,34 +4312,34 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>158</v>
+        <v>2310</v>
       </c>
       <c r="G73">
-        <v>16.04060913705584</v>
+        <v>100</v>
       </c>
       <c r="H73">
-        <v>0.01267670205330771</v>
+        <v>0.0001005047128264737</v>
       </c>
       <c r="I73">
-        <v>0.04853917308186154</v>
+        <v>0.005566886404616217</v>
       </c>
       <c r="J73">
-        <v>-0.05344995140913511</v>
+        <v>-0.03829280031050253</v>
       </c>
       <c r="K73">
-        <v>0.1284974093264248</v>
+        <v>0.03134037517104993</v>
       </c>
       <c r="L73">
-        <v>-0.03013387533973619</v>
+        <v>0.03112459175898215</v>
       </c>
       <c r="M73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.07176443517402352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4206,10 +4347,10 @@
         <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="C74" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -4218,34 +4359,34 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>167</v>
+        <v>2307</v>
       </c>
       <c r="G74">
-        <v>16.95431472081218</v>
+        <v>99.87012987012987</v>
       </c>
       <c r="H74">
-        <v>5.046243252905633E-05</v>
+        <v>0.01922911225511595</v>
       </c>
       <c r="I74">
-        <v>0.005011725025875956</v>
+        <v>1.656674832979332</v>
       </c>
       <c r="J74">
-        <v>-0.03886886889937369</v>
+        <v>-7.397257630334879</v>
       </c>
       <c r="K74">
-        <v>0.1220909439170361</v>
+        <v>6.676978485905321</v>
       </c>
       <c r="L74">
-        <v>-0.007921240283604979</v>
+        <v>-0.03084331522547719</v>
       </c>
       <c r="M74">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N74" t="b">
         <v>1</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>1.311731051625048E-08</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -4253,10 +4394,10 @@
         <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C75" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -4265,34 +4406,34 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>46</v>
+        <v>2310</v>
       </c>
       <c r="G75">
-        <v>4.67005076142132</v>
+        <v>100</v>
       </c>
       <c r="H75">
-        <v>0.5125888324873102</v>
+        <v>0.0001665534315764046</v>
       </c>
       <c r="I75">
-        <v>9.28598712078557</v>
+        <v>0.03069250718106637</v>
       </c>
       <c r="J75">
-        <v>-15.1</v>
+        <v>-0.5334787868833297</v>
       </c>
       <c r="K75">
-        <v>21.8</v>
+        <v>0.5455383022366269</v>
       </c>
       <c r="L75">
-        <v>-0.2987213778551783</v>
+        <v>0.03068916521200601</v>
       </c>
       <c r="M75">
         <v>10</v>
       </c>
       <c r="N75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.2687669826888242</v>
+        <v>5.194766226126655E-14</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -4300,10 +4441,10 @@
         <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C76" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -4312,34 +4453,34 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>42</v>
+        <v>2307</v>
       </c>
       <c r="G76">
-        <v>4.263959390862944</v>
+        <v>99.87012987012987</v>
       </c>
       <c r="H76">
-        <v>0.07191065989847716</v>
+        <v>1.693006759929551E-05</v>
       </c>
       <c r="I76">
-        <v>0.1195110641290555</v>
+        <v>0.002557000080866794</v>
       </c>
       <c r="J76">
-        <v>-0.145</v>
+        <v>-0.01270605329296515</v>
       </c>
       <c r="K76">
-        <v>0.322</v>
+        <v>0.01574077603600299</v>
       </c>
       <c r="L76">
-        <v>-0.2460667810883574</v>
+        <v>0.03066293996105992</v>
       </c>
       <c r="M76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.1501602644379804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -4347,10 +4488,10 @@
         <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C77" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -4359,34 +4500,34 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>46</v>
+        <v>2310</v>
       </c>
       <c r="G77">
-        <v>4.67005076142132</v>
+        <v>100</v>
       </c>
       <c r="H77">
-        <v>-1.112994923857868</v>
+        <v>6.833952347914427</v>
       </c>
       <c r="I77">
-        <v>16.00301336159528</v>
+        <v>10.46316016529576</v>
       </c>
       <c r="J77">
-        <v>-34</v>
+        <v>0.2404684210487513</v>
       </c>
       <c r="K77">
-        <v>36.8</v>
+        <v>101.2760157894635</v>
       </c>
       <c r="L77">
-        <v>-0.2443003772954115</v>
+        <v>-0.02931242967155154</v>
       </c>
       <c r="M77">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.1209827635792378</v>
+        <v>5.888014490262872E-07</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4394,10 +4535,10 @@
         <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C78" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -4406,34 +4547,34 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>46</v>
+        <v>2310</v>
       </c>
       <c r="G78">
-        <v>4.67005076142132</v>
+        <v>100</v>
       </c>
       <c r="H78">
-        <v>0.503634854332232</v>
+        <v>0.2951390550925966</v>
       </c>
       <c r="I78">
-        <v>6.43813223827182</v>
+        <v>1.339939330068071</v>
       </c>
       <c r="J78">
-        <v>-14.5186652069256</v>
+        <v>-5.028385356217518</v>
       </c>
       <c r="K78">
-        <v>15.72856783571619</v>
+        <v>4.461010878656334</v>
       </c>
       <c r="L78">
-        <v>0.2396366981205463</v>
+        <v>-0.02929559301429437</v>
       </c>
       <c r="M78">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N78" t="b">
         <v>1</v>
       </c>
       <c r="O78">
-        <v>0.0001213381938365995</v>
+        <v>1.306123310295975E-12</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4441,10 +4582,10 @@
         <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C79" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -4453,34 +4594,34 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>46</v>
+        <v>2310</v>
       </c>
       <c r="G79">
-        <v>4.67005076142132</v>
+        <v>100</v>
       </c>
       <c r="H79">
-        <v>1469.53807106599</v>
+        <v>0.0003154144135404387</v>
       </c>
       <c r="I79">
-        <v>141.341327128358</v>
+        <v>0.01092398097810391</v>
       </c>
       <c r="J79">
-        <v>1262</v>
+        <v>-0.1384117302684782</v>
       </c>
       <c r="K79">
-        <v>1828</v>
+        <v>0.1076377658351664</v>
       </c>
       <c r="L79">
-        <v>-0.2345997418427514</v>
+        <v>0.02850125616916824</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.2426750401795348</v>
+        <v>8.899477037376398E-28</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4488,10 +4629,10 @@
         <v>93</v>
       </c>
       <c r="B80" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C80" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -4500,34 +4641,34 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>92</v>
+        <v>2308</v>
       </c>
       <c r="G80">
-        <v>9.340101522842639</v>
+        <v>99.91341991341992</v>
       </c>
       <c r="H80">
-        <v>0.02118497825498532</v>
+        <v>91.01562770562768</v>
       </c>
       <c r="I80">
-        <v>0.1477777299492757</v>
+        <v>972.8383770602278</v>
       </c>
       <c r="J80">
-        <v>-0.2587141750580945</v>
+        <v>-8140.580000000002</v>
       </c>
       <c r="K80">
-        <v>0.5224056603773586</v>
+        <v>5930.200000000004</v>
       </c>
       <c r="L80">
-        <v>-0.2118191090802552</v>
+        <v>0.02826774004353766</v>
       </c>
       <c r="M80">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N80" t="b">
         <v>1</v>
       </c>
       <c r="O80">
-        <v>0.007966734222098745</v>
+        <v>5.397880410190404E-13</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4535,10 +4676,10 @@
         <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C81" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -4547,34 +4688,34 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>91</v>
+        <v>2269</v>
       </c>
       <c r="G81">
-        <v>9.238578680203045</v>
+        <v>98.22510822510823</v>
       </c>
       <c r="H81">
-        <v>0.2212071777515353</v>
+        <v>0.0002640442686241772</v>
       </c>
       <c r="I81">
-        <v>0.2402788073194465</v>
+        <v>0.01434469893064795</v>
       </c>
       <c r="J81">
-        <v>-0.1657754010695188</v>
+        <v>-0.1030955090269741</v>
       </c>
       <c r="K81">
-        <v>0.946564885496183</v>
+        <v>0.1333599101581845</v>
       </c>
       <c r="L81">
-        <v>0.1977128612720906</v>
+        <v>0.02792531738055844</v>
       </c>
       <c r="M81">
         <v>10</v>
       </c>
       <c r="N81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O81">
-        <v>0.5314142040550838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -4582,10 +4723,10 @@
         <v>95</v>
       </c>
       <c r="B82" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C82" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -4594,34 +4735,34 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>46</v>
+        <v>2307</v>
       </c>
       <c r="G82">
-        <v>4.67005076142132</v>
+        <v>99.87012987012987</v>
       </c>
       <c r="H82">
-        <v>0.005720812182741114</v>
+        <v>0.000530497097850319</v>
       </c>
       <c r="I82">
-        <v>0.1273168867742071</v>
+        <v>0.04081689651672454</v>
       </c>
       <c r="J82">
-        <v>-0.25</v>
+        <v>-0.6758755940512846</v>
       </c>
       <c r="K82">
-        <v>0.242</v>
+        <v>0.5646060949370112</v>
       </c>
       <c r="L82">
-        <v>-0.1944810281060123</v>
+        <v>0.02787469569453509</v>
       </c>
       <c r="M82">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>0.2134912375958836</v>
+        <v>3.551291915024999E-22</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -4629,10 +4770,10 @@
         <v>96</v>
       </c>
       <c r="B83" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C83" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -4641,34 +4782,34 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>46</v>
+        <v>2309</v>
       </c>
       <c r="G83">
-        <v>4.67005076142132</v>
+        <v>99.95670995670996</v>
       </c>
       <c r="H83">
-        <v>0.14608671629634</v>
+        <v>0.07262236700829285</v>
       </c>
       <c r="I83">
-        <v>0.1909399961125095</v>
+        <v>1.441076504385293</v>
       </c>
       <c r="J83">
-        <v>-0.03901437371663252</v>
+        <v>-4.220912750872667</v>
       </c>
       <c r="K83">
-        <v>0.7406143344709895</v>
+        <v>7.448418942354899</v>
       </c>
       <c r="L83">
-        <v>0.1923621512929977</v>
+        <v>-0.02666442928506054</v>
       </c>
       <c r="M83">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.1604880324877051</v>
+        <v>1.124413724363736E-09</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -4676,10 +4817,10 @@
         <v>97</v>
       </c>
       <c r="B84" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C84" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -4688,34 +4829,34 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>34</v>
+        <v>2302</v>
       </c>
       <c r="G84">
-        <v>3.451776649746193</v>
+        <v>99.65367965367965</v>
       </c>
       <c r="H84">
-        <v>0.02896345177664976</v>
+        <v>0.003537402597402601</v>
       </c>
       <c r="I84">
-        <v>0.01271221022820727</v>
+        <v>0.0557988965013167</v>
       </c>
       <c r="J84">
-        <v>0.012</v>
+        <v>-0.2301000000000002</v>
       </c>
       <c r="K84">
-        <v>0.079</v>
+        <v>0.2467999999999995</v>
       </c>
       <c r="L84">
-        <v>-0.1680219635781086</v>
+        <v>-0.02647032984610921</v>
       </c>
       <c r="M84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N84" t="b">
         <v>1</v>
       </c>
       <c r="O84">
-        <v>0.0002172829974127661</v>
+        <v>6.692105529402639E-10</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -4723,10 +4864,10 @@
         <v>98</v>
       </c>
       <c r="B85" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C85" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -4735,34 +4876,34 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>88</v>
+        <v>2309</v>
       </c>
       <c r="G85">
-        <v>8.934010152284264</v>
+        <v>99.95670995670996</v>
       </c>
       <c r="H85">
-        <v>0.02450015351333258</v>
+        <v>-0.0003005752018130544</v>
       </c>
       <c r="I85">
-        <v>0.04583729594640673</v>
+        <v>0.07444529753220198</v>
       </c>
       <c r="J85">
-        <v>-0.04039408866995065</v>
+        <v>-0.3208257612643606</v>
       </c>
       <c r="K85">
-        <v>0.1105476673427992</v>
+        <v>0.7385245944162406</v>
       </c>
       <c r="L85">
-        <v>-0.1576155309312106</v>
+        <v>-0.0255301169071277</v>
       </c>
       <c r="M85">
         <v>10</v>
       </c>
       <c r="N85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O85">
-        <v>0.1179809587212998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -4770,10 +4911,10 @@
         <v>99</v>
       </c>
       <c r="B86" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C86" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -4782,34 +4923,34 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>86</v>
+        <v>2310</v>
       </c>
       <c r="G86">
-        <v>8.730964467005077</v>
+        <v>100</v>
       </c>
       <c r="H86">
-        <v>0.01409172271080339</v>
+        <v>0.004054937359068069</v>
       </c>
       <c r="I86">
-        <v>0.05300020519388755</v>
+        <v>1.345183226485969</v>
       </c>
       <c r="J86">
-        <v>-0.1022727272727273</v>
+        <v>-3.741587655015711</v>
       </c>
       <c r="K86">
-        <v>0.1277641277641277</v>
+        <v>3.386439902936519</v>
       </c>
       <c r="L86">
-        <v>-0.1570749293803364</v>
+        <v>0.02549023263807845</v>
       </c>
       <c r="M86">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N86" t="b">
         <v>1</v>
       </c>
       <c r="O86">
-        <v>0.003772220253368679</v>
+        <v>1.004503227617446E-11</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -4817,10 +4958,10 @@
         <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C87" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -4829,34 +4970,34 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>46</v>
+        <v>2310</v>
       </c>
       <c r="G87">
-        <v>4.67005076142132</v>
+        <v>100</v>
       </c>
       <c r="H87">
-        <v>66.60467005076141</v>
+        <v>0.0003169330719642799</v>
       </c>
       <c r="I87">
-        <v>7.221439294595993</v>
+        <v>0.009100278444685132</v>
       </c>
       <c r="J87">
-        <v>50</v>
+        <v>-0.05111272402728062</v>
       </c>
       <c r="K87">
-        <v>85.5</v>
+        <v>0.05771785045231503</v>
       </c>
       <c r="L87">
-        <v>-0.1442674913442241</v>
+        <v>0.02526467879334541</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>0.06203567466426684</v>
+        <v>5.315430486070085E-19</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -4864,10 +5005,10 @@
         <v>101</v>
       </c>
       <c r="B88" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C88" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -4876,34 +5017,34 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>46</v>
+        <v>2305</v>
       </c>
       <c r="G88">
-        <v>4.67005076142132</v>
+        <v>99.78354978354979</v>
       </c>
       <c r="H88">
-        <v>-15.83218274111675</v>
+        <v>6.093450390468099E-05</v>
       </c>
       <c r="I88">
-        <v>6.126094543574695</v>
+        <v>0.003166118900046968</v>
       </c>
       <c r="J88">
-        <v>-28.7</v>
+        <v>-0.02069952856263679</v>
       </c>
       <c r="K88">
-        <v>-2.1</v>
+        <v>0.01859319717485075</v>
       </c>
       <c r="L88">
-        <v>-0.1433215207441244</v>
+        <v>-0.02516029683050508</v>
       </c>
       <c r="M88">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O88">
-        <v>0.1836750650879083</v>
+        <v>6.968110193311112E-28</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -4911,10 +5052,10 @@
         <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C89" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -4923,34 +5064,34 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>51</v>
+        <v>2310</v>
       </c>
       <c r="G89">
-        <v>5.177664974619289</v>
+        <v>100</v>
       </c>
       <c r="H89">
-        <v>0.001163556115556038</v>
+        <v>-1.499683633033246E-05</v>
       </c>
       <c r="I89">
-        <v>0.1451316673007936</v>
+        <v>0.003279153840691921</v>
       </c>
       <c r="J89">
-        <v>-0.1735751295336787</v>
+        <v>-0.04943753179832844</v>
       </c>
       <c r="K89">
-        <v>0.4571106094808126</v>
+        <v>0.01664605648757289</v>
       </c>
       <c r="L89">
-        <v>-0.1164319085814579</v>
+        <v>0.02467380927769088</v>
       </c>
       <c r="M89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O89">
-        <v>0.160921722074077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -4958,10 +5099,10 @@
         <v>103</v>
       </c>
       <c r="B90" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C90" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -4970,34 +5111,34 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>46</v>
+        <v>2310</v>
       </c>
       <c r="G90">
-        <v>4.67005076142132</v>
+        <v>100</v>
       </c>
       <c r="H90">
-        <v>3.204670050761422</v>
+        <v>0.02890532349702807</v>
       </c>
       <c r="I90">
-        <v>17.65635605278651</v>
+        <v>0.2602069532631358</v>
       </c>
       <c r="J90">
-        <v>-31.3</v>
+        <v>-0.7980450340373538</v>
       </c>
       <c r="K90">
-        <v>44.3</v>
+        <v>2.537597234226447</v>
       </c>
       <c r="L90">
-        <v>-0.1086954758863152</v>
+        <v>0.02412122933931058</v>
       </c>
       <c r="M90">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N90" t="b">
         <v>1</v>
       </c>
       <c r="O90">
-        <v>0.02514150819958977</v>
+        <v>0.0006541115084903141</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -5005,10 +5146,10 @@
         <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C91" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -5017,34 +5158,34 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>45</v>
+        <v>2309</v>
       </c>
       <c r="G91">
-        <v>4.568527918781726</v>
+        <v>99.95670995670996</v>
       </c>
       <c r="H91">
-        <v>2987604.060913706</v>
+        <v>-0.471665221232912</v>
       </c>
       <c r="I91">
-        <v>231895.129752663</v>
+        <v>9.505338717152684</v>
       </c>
       <c r="J91">
-        <v>2580000</v>
+        <v>-222</v>
       </c>
       <c r="K91">
-        <v>3950000</v>
+        <v>122</v>
       </c>
       <c r="L91">
-        <v>0.1077094705708911</v>
+        <v>0.02290531638113065</v>
       </c>
       <c r="M91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N91" t="b">
         <v>1</v>
       </c>
       <c r="O91">
-        <v>0.0002370343669692418</v>
+        <v>3.611091499553183E-13</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -5052,10 +5193,10 @@
         <v>105</v>
       </c>
       <c r="B92" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C92" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -5064,34 +5205,34 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>46</v>
+        <v>2310</v>
       </c>
       <c r="G92">
-        <v>4.67005076142132</v>
+        <v>100</v>
       </c>
       <c r="H92">
-        <v>1.2622067957662</v>
+        <v>0.06966878090311117</v>
       </c>
       <c r="I92">
-        <v>12.73101475298149</v>
+        <v>0.4292565201070753</v>
       </c>
       <c r="J92">
-        <v>-35.83881364227151</v>
+        <v>-0.8072727272727273</v>
       </c>
       <c r="K92">
-        <v>33.31422182055761</v>
+        <v>3.53448275862069</v>
       </c>
       <c r="L92">
-        <v>-0.1028448939453502</v>
+        <v>-0.02274245143784335</v>
       </c>
       <c r="M92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N92" t="b">
         <v>1</v>
       </c>
       <c r="O92">
-        <v>1.347745778051487E-10</v>
+        <v>2.021815576199497E-07</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -5099,10 +5240,10 @@
         <v>106</v>
       </c>
       <c r="B93" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C93" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -5111,25 +5252,25 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>46</v>
+        <v>2310</v>
       </c>
       <c r="G93">
-        <v>4.67005076142132</v>
+        <v>100</v>
       </c>
       <c r="H93">
-        <v>0.7541074725043078</v>
+        <v>335756.3483034862</v>
       </c>
       <c r="I93">
-        <v>7.368338757108084</v>
+        <v>619588.9583929046</v>
       </c>
       <c r="J93">
-        <v>-15.71594877764842</v>
+        <v>4363.390339970275</v>
       </c>
       <c r="K93">
-        <v>29.97237569060771</v>
+        <v>7082995.824264857</v>
       </c>
       <c r="L93">
-        <v>-0.09241575012698963</v>
+        <v>0.02218748480706094</v>
       </c>
       <c r="M93">
         <v>10</v>
@@ -5138,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="O93">
-        <v>1.369500917006894E-08</v>
+        <v>3.491729583928919E-09</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -5146,10 +5287,10 @@
         <v>107</v>
       </c>
       <c r="B94" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C94" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -5158,34 +5299,34 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>91</v>
+        <v>2303</v>
       </c>
       <c r="G94">
-        <v>9.238578680203045</v>
+        <v>99.69696969696969</v>
       </c>
       <c r="H94">
-        <v>0.0005143096970741261</v>
+        <v>0.0003006659333690835</v>
       </c>
       <c r="I94">
-        <v>0.009603305380714222</v>
+        <v>0.02055226093731107</v>
       </c>
       <c r="J94">
-        <v>-0.08991077014863236</v>
+        <v>-0.1354853856078985</v>
       </c>
       <c r="K94">
-        <v>0.09763846956391586</v>
+        <v>0.1407400742214661</v>
       </c>
       <c r="L94">
-        <v>-0.09084514813927719</v>
+        <v>0.02169056608938111</v>
       </c>
       <c r="M94">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N94" t="b">
         <v>1</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>8.340898110477397E-29</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -5193,10 +5334,10 @@
         <v>108</v>
       </c>
       <c r="B95" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C95" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -5205,34 +5346,34 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>42</v>
+        <v>895</v>
       </c>
       <c r="G95">
-        <v>4.263959390862944</v>
+        <v>38.74458874458874</v>
       </c>
       <c r="H95">
-        <v>0.09562436548223351</v>
+        <v>-9.148701843247622E-05</v>
       </c>
       <c r="I95">
-        <v>0.0201283234701737</v>
+        <v>0.05644930182568693</v>
       </c>
       <c r="J95">
-        <v>0.062</v>
+        <v>-0.2314474037714866</v>
       </c>
       <c r="K95">
-        <v>0.129</v>
+        <v>2.367806871744078</v>
       </c>
       <c r="L95">
-        <v>0.08807708335224176</v>
+        <v>-0.0213894775366499</v>
       </c>
       <c r="M95">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O95">
-        <v>0.9058548561032816</v>
+        <v>1.039205959850844E-25</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -5240,10 +5381,10 @@
         <v>109</v>
       </c>
       <c r="B96" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C96" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -5252,34 +5393,34 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>45</v>
+        <v>2310</v>
       </c>
       <c r="G96">
-        <v>4.568527918781726</v>
+        <v>100</v>
       </c>
       <c r="H96">
-        <v>-0.0007015228426395939</v>
+        <v>0.1867709064682921</v>
       </c>
       <c r="I96">
-        <v>0.01398693669411203</v>
+        <v>1.347262566837694</v>
       </c>
       <c r="J96">
-        <v>-0.037</v>
+        <v>-3.24879315057396</v>
       </c>
       <c r="K96">
-        <v>0.034</v>
+        <v>4.334850957260083</v>
       </c>
       <c r="L96">
-        <v>-0.0804326281170325</v>
+        <v>-0.02103899917572489</v>
       </c>
       <c r="M96">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N96" t="b">
         <v>1</v>
       </c>
       <c r="O96">
-        <v>2.160280543435893E-07</v>
+        <v>2.34697639334023E-12</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -5287,10 +5428,10 @@
         <v>110</v>
       </c>
       <c r="B97" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C97" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -5299,34 +5440,34 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>92</v>
+        <v>2310</v>
       </c>
       <c r="G97">
-        <v>9.340101522842639</v>
+        <v>100</v>
       </c>
       <c r="H97">
-        <v>0.04373824481319202</v>
+        <v>0.05815790830605352</v>
       </c>
       <c r="I97">
-        <v>0.110376268548012</v>
+        <v>0.8035551258829593</v>
       </c>
       <c r="J97">
-        <v>-0.1550802139037434</v>
+        <v>-2.853630179291144</v>
       </c>
       <c r="K97">
-        <v>0.2943396226415096</v>
+        <v>2.318463346763078</v>
       </c>
       <c r="L97">
-        <v>0.06628771469493104</v>
+        <v>-0.02100694000499002</v>
       </c>
       <c r="M97">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N97" t="b">
         <v>1</v>
       </c>
       <c r="O97">
-        <v>0.001541705138268914</v>
+        <v>1.206783515292886E-10</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -5334,10 +5475,10 @@
         <v>111</v>
       </c>
       <c r="B98" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C98" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -5346,34 +5487,34 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>45</v>
+        <v>2227</v>
       </c>
       <c r="G98">
-        <v>4.568527918781726</v>
+        <v>96.4069264069264</v>
       </c>
       <c r="H98">
-        <v>-0.311023714053383</v>
+        <v>4.30836247722447E-05</v>
       </c>
       <c r="I98">
-        <v>5.373605738416132</v>
+        <v>0.002096716189474669</v>
       </c>
       <c r="J98">
-        <v>-11.93599999999999</v>
+        <v>-0.01246536540535548</v>
       </c>
       <c r="K98">
-        <v>9.769094138543506</v>
+        <v>0.01566166083629295</v>
       </c>
       <c r="L98">
-        <v>0.06624526262470835</v>
+        <v>-0.02093534862790644</v>
       </c>
       <c r="M98">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N98" t="b">
         <v>1</v>
       </c>
       <c r="O98">
-        <v>0.0001407990078349326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -5381,10 +5522,10 @@
         <v>112</v>
       </c>
       <c r="B99" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C99" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -5393,34 +5534,34 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>43</v>
+        <v>2277</v>
       </c>
       <c r="G99">
-        <v>4.365482233502538</v>
+        <v>98.57142857142858</v>
       </c>
       <c r="H99">
-        <v>1.834294416243655</v>
+        <v>0.0002805153249865739</v>
       </c>
       <c r="I99">
-        <v>0.2598254859510212</v>
+        <v>0.01663593472286208</v>
       </c>
       <c r="J99">
-        <v>1.41</v>
+        <v>-0.1221026968008998</v>
       </c>
       <c r="K99">
-        <v>2.31</v>
+        <v>0.1549761029034258</v>
       </c>
       <c r="L99">
-        <v>-0.0655721480157259</v>
+        <v>0.02081445001317174</v>
       </c>
       <c r="M99">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O99">
-        <v>0.5261402921491326</v>
+        <v>1.395321445676717E-29</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -5428,10 +5569,10 @@
         <v>113</v>
       </c>
       <c r="B100" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C100" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -5440,34 +5581,34 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>68</v>
+        <v>2272</v>
       </c>
       <c r="G100">
-        <v>6.903553299492386</v>
+        <v>98.35497835497836</v>
       </c>
       <c r="H100">
-        <v>-0.002618387156550853</v>
+        <v>0.009685326903305109</v>
       </c>
       <c r="I100">
-        <v>0.04925483444747046</v>
+        <v>0.1100824034083325</v>
       </c>
       <c r="J100">
-        <v>-0.1185127807900852</v>
+        <v>-0.6538461538461539</v>
       </c>
       <c r="K100">
-        <v>0.1013171225937184</v>
+        <v>0.4392523364485981</v>
       </c>
       <c r="L100">
-        <v>-0.0638787718063791</v>
+        <v>-0.0207722704658092</v>
       </c>
       <c r="M100">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N100" t="b">
         <v>1</v>
       </c>
       <c r="O100">
-        <v>6.937772223524848E-05</v>
+        <v>5.200939247097124E-08</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -5475,10 +5616,10 @@
         <v>114</v>
       </c>
       <c r="B101" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C101" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -5487,34 +5628,34 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>92</v>
+        <v>2278</v>
       </c>
       <c r="G101">
-        <v>9.340101522842639</v>
+        <v>98.61471861471861</v>
       </c>
       <c r="H101">
-        <v>0.008795270316930004</v>
+        <v>0.000306350721845543</v>
       </c>
       <c r="I101">
-        <v>0.118321848836837</v>
+        <v>0.01270298975408795</v>
       </c>
       <c r="J101">
-        <v>-0.1590509666080843</v>
+        <v>-0.132336839874549</v>
       </c>
       <c r="K101">
-        <v>0.4456886898096304</v>
+        <v>0.09736260922681161</v>
       </c>
       <c r="L101">
-        <v>-0.05028057818738318</v>
+        <v>0.02030636923626793</v>
       </c>
       <c r="M101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N101" t="b">
         <v>1</v>
       </c>
       <c r="O101">
-        <v>0.0001525358498086887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -5522,10 +5663,10 @@
         <v>115</v>
       </c>
       <c r="B102" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C102" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -5534,34 +5675,34 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>91</v>
+        <v>2102</v>
       </c>
       <c r="G102">
-        <v>9.238578680203045</v>
+        <v>90.99567099567099</v>
       </c>
       <c r="H102">
-        <v>0.09066187564502354</v>
+        <v>-4.11170636612662</v>
       </c>
       <c r="I102">
-        <v>0.1663789012075775</v>
+        <v>18.71519066884336</v>
       </c>
       <c r="J102">
-        <v>-0.1677631578947369</v>
+        <v>-144.5</v>
       </c>
       <c r="K102">
-        <v>0.6000000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="L102">
-        <v>-0.04621495270808691</v>
+        <v>0.01451344813618688</v>
       </c>
       <c r="M102">
         <v>0</v>
       </c>
       <c r="N102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O102">
-        <v>0.1181851426302591</v>
+        <v>0.01551960899040054</v>
       </c>
     </row>
     <row r="103" spans="1:15">
@@ -5569,10 +5710,10 @@
         <v>116</v>
       </c>
       <c r="B103" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C103" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -5581,34 +5722,34 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>45</v>
+        <v>2196</v>
       </c>
       <c r="G103">
-        <v>4.568527918781726</v>
+        <v>95.06493506493506</v>
       </c>
       <c r="H103">
-        <v>0.03606341552805113</v>
+        <v>0.08881736970634226</v>
       </c>
       <c r="I103">
-        <v>9.968225245441207</v>
+        <v>1.488761375275822</v>
       </c>
       <c r="J103">
-        <v>-33.82847038019452</v>
+        <v>-5.839691772688366</v>
       </c>
       <c r="K103">
-        <v>22.80130293159609</v>
+        <v>6.961932346278826</v>
       </c>
       <c r="L103">
-        <v>0.03646814020067123</v>
+        <v>-0.01393091999367644</v>
       </c>
       <c r="M103">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N103" t="b">
         <v>1</v>
       </c>
       <c r="O103">
-        <v>2.338546479829151E-12</v>
+        <v>1.065178812924219E-07</v>
       </c>
     </row>
     <row r="104" spans="1:15">
@@ -5616,10 +5757,10 @@
         <v>117</v>
       </c>
       <c r="B104" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C104" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -5628,34 +5769,34 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>93</v>
+        <v>2282</v>
       </c>
       <c r="G104">
-        <v>9.441624365482234</v>
+        <v>98.7878787878788</v>
       </c>
       <c r="H104">
-        <v>-0.0002336525063530771</v>
+        <v>0.0002636303539834181</v>
       </c>
       <c r="I104">
-        <v>0.01116320151243035</v>
+        <v>0.1028148378228485</v>
       </c>
       <c r="J104">
-        <v>-0.1251119016329936</v>
+        <v>-2.485909922926327</v>
       </c>
       <c r="K104">
-        <v>0.09558369031339264</v>
+        <v>2.472288154705228</v>
       </c>
       <c r="L104">
-        <v>-0.02860317619441061</v>
+        <v>-0.01281207156562476</v>
       </c>
       <c r="M104">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N104" t="b">
         <v>1</v>
       </c>
       <c r="O104">
-        <v>0</v>
+        <v>2.031569370136696E-30</v>
       </c>
     </row>
     <row r="105" spans="1:15">
@@ -5663,10 +5804,10 @@
         <v>118</v>
       </c>
       <c r="B105" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C105" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -5675,34 +5816,34 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>46</v>
+        <v>2310</v>
       </c>
       <c r="G105">
-        <v>4.67005076142132</v>
+        <v>100</v>
       </c>
       <c r="H105">
-        <v>0.004663248730964463</v>
+        <v>0.215525980961452</v>
       </c>
       <c r="I105">
-        <v>0.003070944613166292</v>
+        <v>1.486955736452134</v>
       </c>
       <c r="J105">
-        <v>-0.0022</v>
+        <v>-3.93935675369186</v>
       </c>
       <c r="K105">
-        <v>0.0114</v>
+        <v>7.027263637011916</v>
       </c>
       <c r="L105">
-        <v>-0.02750137665610098</v>
+        <v>0.01117008870363132</v>
       </c>
       <c r="M105">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N105" t="b">
         <v>1</v>
       </c>
       <c r="O105">
-        <v>0.001505585914138263</v>
+        <v>1.46390846479116E-09</v>
       </c>
     </row>
     <row r="106" spans="1:15">
@@ -5710,10 +5851,10 @@
         <v>119</v>
       </c>
       <c r="B106" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C106" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -5722,34 +5863,34 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>91</v>
+        <v>2283</v>
       </c>
       <c r="G106">
-        <v>9.238578680203045</v>
+        <v>98.83116883116884</v>
       </c>
       <c r="H106">
-        <v>-0.00504794612111344</v>
+        <v>0.000270184219580923</v>
       </c>
       <c r="I106">
-        <v>0.07542665669985399</v>
+        <v>0.08180206564004527</v>
       </c>
       <c r="J106">
-        <v>-0.1550522648083623</v>
+        <v>-2.739747090314581</v>
       </c>
       <c r="K106">
-        <v>0.2836801752464404</v>
+        <v>2.75507561437005</v>
       </c>
       <c r="L106">
-        <v>-0.008401172142012392</v>
+        <v>-0.008329835849716005</v>
       </c>
       <c r="M106">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N106" t="b">
         <v>1</v>
       </c>
       <c r="O106">
-        <v>8.535443570359076E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:15">
@@ -5757,10 +5898,10 @@
         <v>120</v>
       </c>
       <c r="B107" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="C107" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -5769,34 +5910,34 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>16</v>
+        <v>482</v>
       </c>
       <c r="G107">
-        <v>1.624365482233503</v>
+        <v>20.86580086580086</v>
       </c>
       <c r="H107">
-        <v>-33.54525407715736</v>
+        <v>-0.4433777260436834</v>
       </c>
       <c r="I107">
-        <v>15.30132147272254</v>
+        <v>0.2043997546360713</v>
       </c>
       <c r="J107">
-        <v>-55.76297</v>
+        <v>-0.874774072033862</v>
       </c>
       <c r="K107">
-        <v>-1.63847</v>
+        <v>0.638367633514506</v>
       </c>
       <c r="L107">
-        <v>-0.2582592499976374</v>
+        <v>-0.1697165524224813</v>
       </c>
       <c r="M107">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O107">
-        <v>0.4924805881890084</v>
+        <v>0.01377625115244629</v>
       </c>
     </row>
     <row r="108" spans="1:15">
@@ -5804,10 +5945,10 @@
         <v>121</v>
       </c>
       <c r="B108" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="C108" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -5816,34 +5957,34 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>27</v>
+        <v>480</v>
       </c>
       <c r="G108">
-        <v>2.741116751269036</v>
+        <v>20.77922077922078</v>
       </c>
       <c r="H108">
-        <v>3.432142131979695</v>
+        <v>0.3221097129049619</v>
       </c>
       <c r="I108">
-        <v>2.112659620202668</v>
+        <v>2.591593671297399</v>
       </c>
       <c r="J108">
-        <v>0.08</v>
+        <v>-0.7643799902232361</v>
       </c>
       <c r="K108">
-        <v>5.33</v>
+        <v>28.64734299516908</v>
       </c>
       <c r="L108">
-        <v>0.2478531563799765</v>
+        <v>-0.1245642489871883</v>
       </c>
       <c r="M108">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O108">
-        <v>0.424622910631265</v>
+        <v>1.449936398506497E-05</v>
       </c>
     </row>
     <row r="109" spans="1:15">
@@ -5851,10 +5992,10 @@
         <v>122</v>
       </c>
       <c r="B109" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="C109" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -5863,34 +6004,34 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>17</v>
+        <v>479</v>
       </c>
       <c r="G109">
-        <v>1.725888324873097</v>
+        <v>20.73593073593074</v>
       </c>
       <c r="H109">
-        <v>1.995177664974619</v>
+        <v>0.1614607294321951</v>
       </c>
       <c r="I109">
-        <v>1.860660504803277</v>
+        <v>2.055901196366618</v>
       </c>
       <c r="J109">
-        <v>-0.5</v>
+        <v>-0.5444028026723154</v>
       </c>
       <c r="K109">
-        <v>4</v>
+        <v>28.50480769230769</v>
       </c>
       <c r="L109">
-        <v>0.2015970372739011</v>
+        <v>-0.07056622337405059</v>
       </c>
       <c r="M109">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O109">
-        <v>0.5750067028001348</v>
+        <v>6.278359108377437E-10</v>
       </c>
     </row>
     <row r="110" spans="1:15">
@@ -5898,10 +6039,10 @@
         <v>123</v>
       </c>
       <c r="B110" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="C110" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -5910,34 +6051,34 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="G110">
-        <v>2.538071065989848</v>
+        <v>9.393939393939393</v>
       </c>
       <c r="H110">
-        <v>0.06681522842639595</v>
+        <v>0.2459741634303103</v>
       </c>
       <c r="I110">
-        <v>0.00420877562357482</v>
+        <v>6.033135705525758</v>
       </c>
       <c r="J110">
-        <v>0.062</v>
+        <v>-14</v>
       </c>
       <c r="K110">
-        <v>0.08</v>
+        <v>78</v>
       </c>
       <c r="L110">
-        <v>-0.1961479921746824</v>
+        <v>-0.2028344674503755</v>
       </c>
       <c r="M110">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N110" t="b">
         <v>1</v>
       </c>
       <c r="O110">
-        <v>0.003657905990799628</v>
+        <v>1.819793646554349E-15</v>
       </c>
     </row>
     <row r="111" spans="1:15">
@@ -5945,46 +6086,2302 @@
         <v>124</v>
       </c>
       <c r="B111" t="s">
+        <v>175</v>
+      </c>
+      <c r="C111" t="s">
+        <v>177</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>189</v>
+      </c>
+      <c r="G111">
+        <v>8.181818181818182</v>
+      </c>
+      <c r="H111">
+        <v>-0.005562732619708411</v>
+      </c>
+      <c r="I111">
+        <v>0.05536103654333972</v>
+      </c>
+      <c r="J111">
+        <v>-0.1382978723404255</v>
+      </c>
+      <c r="K111">
+        <v>0.1574074074074074</v>
+      </c>
+      <c r="L111">
+        <v>-0.1774691904711352</v>
+      </c>
+      <c r="M111">
+        <v>10</v>
+      </c>
+      <c r="N111" t="b">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>1.259008131188465E-09</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" t="s">
+        <v>125</v>
+      </c>
+      <c r="B112" t="s">
+        <v>175</v>
+      </c>
+      <c r="C112" t="s">
+        <v>177</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>202</v>
+      </c>
+      <c r="G112">
+        <v>8.744588744588745</v>
+      </c>
+      <c r="H112">
+        <v>-0.04587695542618495</v>
+      </c>
+      <c r="I112">
+        <v>0.2139236825796901</v>
+      </c>
+      <c r="J112">
+        <v>-0.4513274336283186</v>
+      </c>
+      <c r="K112">
+        <v>0.4878048780487823</v>
+      </c>
+      <c r="L112">
+        <v>-0.1469433457868688</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112" t="b">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0.3090478226265481</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113" t="s">
+        <v>126</v>
+      </c>
+      <c r="B113" t="s">
+        <v>175</v>
+      </c>
+      <c r="C113" t="s">
+        <v>177</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>161</v>
+      </c>
+      <c r="G113">
+        <v>6.969696969696971</v>
+      </c>
+      <c r="H113">
+        <v>0.01000612867584043</v>
+      </c>
+      <c r="I113">
+        <v>0.2246335175390535</v>
+      </c>
+      <c r="J113">
+        <v>-0.176470588235294</v>
+      </c>
+      <c r="K113">
+        <v>2.363636363636363</v>
+      </c>
+      <c r="L113">
+        <v>-0.1375754170150086</v>
+      </c>
+      <c r="M113">
+        <v>10</v>
+      </c>
+      <c r="N113" t="b">
+        <v>1</v>
+      </c>
+      <c r="O113">
+        <v>9.268124766523649E-09</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" t="s">
+        <v>127</v>
+      </c>
+      <c r="B114" t="s">
+        <v>175</v>
+      </c>
+      <c r="C114" t="s">
+        <v>177</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>203</v>
+      </c>
+      <c r="G114">
+        <v>8.787878787878787</v>
+      </c>
+      <c r="H114">
+        <v>-0.009548710736992231</v>
+      </c>
+      <c r="I114">
+        <v>0.09855308940409906</v>
+      </c>
+      <c r="J114">
+        <v>-0.2530120481927711</v>
+      </c>
+      <c r="K114">
+        <v>0.3214285714285714</v>
+      </c>
+      <c r="L114">
+        <v>-0.1297489285152248</v>
+      </c>
+      <c r="M114">
+        <v>3</v>
+      </c>
+      <c r="N114" t="b">
+        <v>1</v>
+      </c>
+      <c r="O114">
+        <v>0.0001154530964227371</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115" t="s">
         <v>128</v>
       </c>
-      <c r="C111" t="s">
+      <c r="B115" t="s">
+        <v>175</v>
+      </c>
+      <c r="C115" t="s">
+        <v>177</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>163</v>
+      </c>
+      <c r="G115">
+        <v>7.056277056277056</v>
+      </c>
+      <c r="H115">
+        <v>-0.006042644593943399</v>
+      </c>
+      <c r="I115">
+        <v>0.08191874987896199</v>
+      </c>
+      <c r="J115">
+        <v>-0.2531645569620253</v>
+      </c>
+      <c r="K115">
+        <v>0.5454545454545452</v>
+      </c>
+      <c r="L115">
+        <v>-0.1284442118351724</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115" t="b">
+        <v>1</v>
+      </c>
+      <c r="O115">
+        <v>0.0002374263987968597</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116" t="s">
         <v>129</v>
       </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
+      <c r="B116" t="s">
+        <v>175</v>
+      </c>
+      <c r="C116" t="s">
+        <v>177</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>221</v>
+      </c>
+      <c r="G116">
+        <v>9.567099567099566</v>
+      </c>
+      <c r="H116">
+        <v>0.002797102395296269</v>
+      </c>
+      <c r="I116">
+        <v>0.02203461689754712</v>
+      </c>
+      <c r="J116">
+        <v>-0.1435925721640008</v>
+      </c>
+      <c r="K116">
+        <v>0.06770993068760345</v>
+      </c>
+      <c r="L116">
+        <v>0.1259412578914265</v>
+      </c>
+      <c r="M116">
+        <v>7</v>
+      </c>
+      <c r="N116" t="b">
+        <v>1</v>
+      </c>
+      <c r="O116">
+        <v>2.827759433646502E-07</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117" t="s">
+        <v>130</v>
+      </c>
+      <c r="B117" t="s">
+        <v>175</v>
+      </c>
+      <c r="C117" t="s">
+        <v>177</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>219</v>
+      </c>
+      <c r="G117">
+        <v>9.480519480519481</v>
+      </c>
+      <c r="H117">
+        <v>0.008498195268540959</v>
+      </c>
+      <c r="I117">
+        <v>0.07339910105283885</v>
+      </c>
+      <c r="J117">
+        <v>-0.2571562891767655</v>
+      </c>
+      <c r="K117">
+        <v>0.2511778355952465</v>
+      </c>
+      <c r="L117">
+        <v>0.1072952877731864</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117" t="b">
+        <v>1</v>
+      </c>
+      <c r="O117">
+        <v>9.41094052385865E-07</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" t="s">
+        <v>131</v>
+      </c>
+      <c r="B118" t="s">
+        <v>175</v>
+      </c>
+      <c r="C118" t="s">
+        <v>177</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>222</v>
+      </c>
+      <c r="G118">
+        <v>9.61038961038961</v>
+      </c>
+      <c r="H118">
+        <v>0.1753153596093074</v>
+      </c>
+      <c r="I118">
+        <v>13.58082885239828</v>
+      </c>
+      <c r="J118">
+        <v>-35.23076923076923</v>
+      </c>
+      <c r="K118">
+        <v>122</v>
+      </c>
+      <c r="L118">
+        <v>-0.1046923502388268</v>
+      </c>
+      <c r="M118">
+        <v>9</v>
+      </c>
+      <c r="N118" t="b">
+        <v>1</v>
+      </c>
+      <c r="O118">
+        <v>6.736520633446783E-08</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119" t="s">
+        <v>132</v>
+      </c>
+      <c r="B119" t="s">
+        <v>175</v>
+      </c>
+      <c r="C119" t="s">
+        <v>177</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>219</v>
+      </c>
+      <c r="G119">
+        <v>9.480519480519481</v>
+      </c>
+      <c r="H119">
+        <v>0.00656415005504541</v>
+      </c>
+      <c r="I119">
+        <v>0.01499481657355714</v>
+      </c>
+      <c r="J119">
+        <v>-0.01734844067765162</v>
+      </c>
+      <c r="K119">
+        <v>0.06164952404092028</v>
+      </c>
+      <c r="L119">
+        <v>0.09820076227611312</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119" t="b">
+        <v>1</v>
+      </c>
+      <c r="O119">
+        <v>0.0002810920048890836</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120" t="s">
+        <v>133</v>
+      </c>
+      <c r="B120" t="s">
+        <v>175</v>
+      </c>
+      <c r="C120" t="s">
+        <v>177</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>124</v>
+      </c>
+      <c r="G120">
+        <v>5.367965367965368</v>
+      </c>
+      <c r="H120">
+        <v>7.364687018624061</v>
+      </c>
+      <c r="I120">
+        <v>27.26392488295097</v>
+      </c>
+      <c r="J120">
+        <v>-62</v>
+      </c>
+      <c r="K120">
+        <v>163</v>
+      </c>
+      <c r="L120">
+        <v>-0.09616292735931474</v>
+      </c>
+      <c r="M120">
+        <v>7</v>
+      </c>
+      <c r="N120" t="b">
+        <v>1</v>
+      </c>
+      <c r="O120">
+        <v>0.01771368836543957</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" t="s">
+        <v>134</v>
+      </c>
+      <c r="B121" t="s">
+        <v>175</v>
+      </c>
+      <c r="C121" t="s">
+        <v>177</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>205</v>
+      </c>
+      <c r="G121">
+        <v>8.874458874458876</v>
+      </c>
+      <c r="H121">
+        <v>0.6498172810953434</v>
+      </c>
+      <c r="I121">
+        <v>5.598080128930875</v>
+      </c>
+      <c r="J121">
+        <v>-15</v>
+      </c>
+      <c r="K121">
+        <v>49</v>
+      </c>
+      <c r="L121">
+        <v>0.09228472400073073</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121" t="b">
+        <v>1</v>
+      </c>
+      <c r="O121">
+        <v>0.0001719369022174562</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" t="s">
+        <v>135</v>
+      </c>
+      <c r="B122" t="s">
+        <v>175</v>
+      </c>
+      <c r="C122" t="s">
+        <v>177</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>114</v>
+      </c>
+      <c r="G122">
+        <v>4.935064935064935</v>
+      </c>
+      <c r="H122">
+        <v>-0.03661470672322247</v>
+      </c>
+      <c r="I122">
+        <v>0.1767483297839812</v>
+      </c>
+      <c r="J122">
+        <v>-0.38</v>
+      </c>
+      <c r="K122">
+        <v>0.4588235294117646</v>
+      </c>
+      <c r="L122">
+        <v>-0.09067129623726203</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122" t="b">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0.06260463764912987</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" t="s">
+        <v>136</v>
+      </c>
+      <c r="B123" t="s">
+        <v>175</v>
+      </c>
+      <c r="C123" t="s">
+        <v>177</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>231</v>
+      </c>
+      <c r="G123">
+        <v>10</v>
+      </c>
+      <c r="H123">
+        <v>0.02941869963771683</v>
+      </c>
+      <c r="I123">
+        <v>0.03807004053143405</v>
+      </c>
+      <c r="J123">
+        <v>-0.03168649554043623</v>
+      </c>
+      <c r="K123">
+        <v>0.1175625857925353</v>
+      </c>
+      <c r="L123">
+        <v>0.08736906178506185</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123" t="b">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>0.1734997977835553</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" t="s">
+        <v>137</v>
+      </c>
+      <c r="B124" t="s">
+        <v>175</v>
+      </c>
+      <c r="C124" t="s">
+        <v>177</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>203</v>
+      </c>
+      <c r="G124">
+        <v>8.787878787878787</v>
+      </c>
+      <c r="H124">
+        <v>0.3726386005722178</v>
+      </c>
+      <c r="I124">
+        <v>1.702668429182675</v>
+      </c>
+      <c r="J124">
+        <v>-3</v>
+      </c>
+      <c r="K124">
+        <v>11</v>
+      </c>
+      <c r="L124">
+        <v>-0.08425953620694351</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124" t="b">
+        <v>1</v>
+      </c>
+      <c r="O124">
+        <v>0.0005319917354313663</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" t="s">
+        <v>138</v>
+      </c>
+      <c r="B125" t="s">
+        <v>175</v>
+      </c>
+      <c r="C125" t="s">
+        <v>177</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>203</v>
+      </c>
+      <c r="G125">
+        <v>8.787878787878787</v>
+      </c>
+      <c r="H125">
+        <v>0.00209893276054783</v>
+      </c>
+      <c r="I125">
+        <v>0.007563566235303376</v>
+      </c>
+      <c r="J125">
+        <v>-0.01258465026367939</v>
+      </c>
+      <c r="K125">
+        <v>0.04640074552471685</v>
+      </c>
+      <c r="L125">
+        <v>0.0834882287046224</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125" t="b">
+        <v>1</v>
+      </c>
+      <c r="O125">
+        <v>4.169850107671904E-07</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" t="s">
+        <v>139</v>
+      </c>
+      <c r="B126" t="s">
+        <v>175</v>
+      </c>
+      <c r="C126" t="s">
+        <v>177</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>231</v>
+      </c>
+      <c r="G126">
+        <v>10</v>
+      </c>
+      <c r="H126">
+        <v>0.0354154689876626</v>
+      </c>
+      <c r="I126">
+        <v>0.1701933062537524</v>
+      </c>
+      <c r="J126">
+        <v>-0.3089221498687919</v>
+      </c>
+      <c r="K126">
+        <v>0.4517249816491316</v>
+      </c>
+      <c r="L126">
+        <v>0.07855057546900035</v>
+      </c>
+      <c r="M126">
+        <v>2</v>
+      </c>
+      <c r="N126" t="b">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>0.2914631351994497</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" t="s">
+        <v>140</v>
+      </c>
+      <c r="B127" t="s">
+        <v>175</v>
+      </c>
+      <c r="C127" t="s">
+        <v>177</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>231</v>
+      </c>
+      <c r="G127">
+        <v>10</v>
+      </c>
+      <c r="H127">
+        <v>0.01894788301811526</v>
+      </c>
+      <c r="I127">
+        <v>0.1071633310749856</v>
+      </c>
+      <c r="J127">
+        <v>-0.2740684022460439</v>
+      </c>
+      <c r="K127">
+        <v>0.294986287884115</v>
+      </c>
+      <c r="L127">
+        <v>0.07761282325922966</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127" t="b">
+        <v>1</v>
+      </c>
+      <c r="O127">
+        <v>0.02799424806786901</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" t="s">
+        <v>141</v>
+      </c>
+      <c r="B128" t="s">
+        <v>175</v>
+      </c>
+      <c r="C128" t="s">
+        <v>177</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>213</v>
+      </c>
+      <c r="G128">
+        <v>9.220779220779221</v>
+      </c>
+      <c r="H128">
+        <v>-0.4590816318373446</v>
+      </c>
+      <c r="I128">
+        <v>6.010091964176162</v>
+      </c>
+      <c r="J128">
+        <v>-62</v>
+      </c>
+      <c r="K128">
+        <v>28</v>
+      </c>
+      <c r="L128">
+        <v>-0.07088354488299239</v>
+      </c>
+      <c r="M128">
+        <v>6</v>
+      </c>
+      <c r="N128" t="b">
+        <v>1</v>
+      </c>
+      <c r="O128">
+        <v>5.828166145983356E-10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" t="s">
+        <v>142</v>
+      </c>
+      <c r="B129" t="s">
+        <v>175</v>
+      </c>
+      <c r="C129" t="s">
+        <v>177</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>203</v>
+      </c>
+      <c r="G129">
+        <v>8.787878787878787</v>
+      </c>
+      <c r="H129">
+        <v>0.002223246988404239</v>
+      </c>
+      <c r="I129">
+        <v>0.04116540077665939</v>
+      </c>
+      <c r="J129">
+        <v>-0.1626825247291568</v>
+      </c>
+      <c r="K129">
+        <v>0.1539074430648695</v>
+      </c>
+      <c r="L129">
+        <v>0.07072468731416888</v>
+      </c>
+      <c r="M129">
+        <v>10</v>
+      </c>
+      <c r="N129" t="b">
+        <v>1</v>
+      </c>
+      <c r="O129">
+        <v>1.546985551429731E-09</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130" t="s">
+        <v>143</v>
+      </c>
+      <c r="B130" t="s">
+        <v>175</v>
+      </c>
+      <c r="C130" t="s">
+        <v>177</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>209</v>
+      </c>
+      <c r="G130">
+        <v>9.047619047619047</v>
+      </c>
+      <c r="H130">
+        <v>0.1960342149362597</v>
+      </c>
+      <c r="I130">
+        <v>1.36781770491919</v>
+      </c>
+      <c r="J130">
+        <v>-2</v>
+      </c>
+      <c r="K130">
+        <v>12</v>
+      </c>
+      <c r="L130">
+        <v>-0.06823433998479558</v>
+      </c>
+      <c r="M130">
+        <v>10</v>
+      </c>
+      <c r="N130" t="b">
+        <v>1</v>
+      </c>
+      <c r="O130">
+        <v>4.584026660722005E-07</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131" t="s">
+        <v>144</v>
+      </c>
+      <c r="B131" t="s">
+        <v>175</v>
+      </c>
+      <c r="C131" t="s">
+        <v>177</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>120</v>
+      </c>
+      <c r="G131">
+        <v>5.194805194805195</v>
+      </c>
+      <c r="H131">
+        <v>0.0139278837187218</v>
+      </c>
+      <c r="I131">
+        <v>0.02836609950537734</v>
+      </c>
+      <c r="J131">
+        <v>-0.02728008220141409</v>
+      </c>
+      <c r="K131">
+        <v>0.1102998576566128</v>
+      </c>
+      <c r="L131">
+        <v>-0.06699661776422479</v>
+      </c>
+      <c r="M131">
         <v>4</v>
       </c>
-      <c r="G111">
-        <v>0.4060913705583756</v>
-      </c>
-      <c r="H111">
-        <v>-6.903553299492403E-05</v>
-      </c>
-      <c r="I111">
-        <v>0.001677749407069815</v>
-      </c>
-      <c r="J111">
-        <v>-0.001</v>
-      </c>
-      <c r="K111">
-        <v>0.005</v>
-      </c>
-      <c r="L111">
-        <v>0.1952748089604822</v>
-      </c>
-      <c r="M111">
+      <c r="N131" t="b">
+        <v>1</v>
+      </c>
+      <c r="O131">
+        <v>0.04420837876183141</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132" t="s">
+        <v>145</v>
+      </c>
+      <c r="B132" t="s">
+        <v>175</v>
+      </c>
+      <c r="C132" t="s">
+        <v>177</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>181</v>
+      </c>
+      <c r="G132">
+        <v>7.835497835497836</v>
+      </c>
+      <c r="H132">
+        <v>0.04626791328906169</v>
+      </c>
+      <c r="I132">
+        <v>0.5037993157407937</v>
+      </c>
+      <c r="J132">
+        <v>-0.5337837837837838</v>
+      </c>
+      <c r="K132">
+        <v>3.111111111111112</v>
+      </c>
+      <c r="L132">
+        <v>-0.06617563930143293</v>
+      </c>
+      <c r="M132">
+        <v>10</v>
+      </c>
+      <c r="N132" t="b">
+        <v>1</v>
+      </c>
+      <c r="O132">
+        <v>0.01268887276530013</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133" t="s">
+        <v>146</v>
+      </c>
+      <c r="B133" t="s">
+        <v>175</v>
+      </c>
+      <c r="C133" t="s">
+        <v>177</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>222</v>
+      </c>
+      <c r="G133">
+        <v>9.61038961038961</v>
+      </c>
+      <c r="H133">
+        <v>0.3139623967938165</v>
+      </c>
+      <c r="I133">
+        <v>9.38064760834768</v>
+      </c>
+      <c r="J133">
+        <v>-50.33333333333333</v>
+      </c>
+      <c r="K133">
+        <v>85.99999999999999</v>
+      </c>
+      <c r="L133">
+        <v>0.06295422788981761</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133" t="b">
+        <v>1</v>
+      </c>
+      <c r="O133">
+        <v>5.868774994473692E-10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134" t="s">
+        <v>147</v>
+      </c>
+      <c r="B134" t="s">
+        <v>175</v>
+      </c>
+      <c r="C134" t="s">
+        <v>177</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>131</v>
+      </c>
+      <c r="G134">
+        <v>5.670995670995671</v>
+      </c>
+      <c r="H134">
+        <v>-0.01507812957866297</v>
+      </c>
+      <c r="I134">
+        <v>0.02426053359116695</v>
+      </c>
+      <c r="J134">
+        <v>-0.06849315068493134</v>
+      </c>
+      <c r="K134">
+        <v>0.09459459459459474</v>
+      </c>
+      <c r="L134">
+        <v>-0.05915363868391534</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134" t="b">
+        <v>1</v>
+      </c>
+      <c r="O134">
+        <v>0.001142666011722219</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" t="s">
+        <v>148</v>
+      </c>
+      <c r="B135" t="s">
+        <v>175</v>
+      </c>
+      <c r="C135" t="s">
+        <v>177</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>116</v>
+      </c>
+      <c r="G135">
+        <v>5.021645021645021</v>
+      </c>
+      <c r="H135">
+        <v>0.05173217336362099</v>
+      </c>
+      <c r="I135">
+        <v>0.1288647774317924</v>
+      </c>
+      <c r="J135">
+        <v>-0.2930296787783762</v>
+      </c>
+      <c r="K135">
+        <v>0.4737466155245699</v>
+      </c>
+      <c r="L135">
+        <v>0.05683846991669231</v>
+      </c>
+      <c r="M135">
         <v>7</v>
       </c>
-      <c r="N111" t="b">
-        <v>0</v>
-      </c>
-      <c r="O111">
-        <v>0.9947697458614819</v>
+      <c r="N135" t="b">
+        <v>1</v>
+      </c>
+      <c r="O135">
+        <v>0.006879971500335457</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" t="s">
+        <v>149</v>
+      </c>
+      <c r="B136" t="s">
+        <v>175</v>
+      </c>
+      <c r="C136" t="s">
+        <v>177</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>141</v>
+      </c>
+      <c r="G136">
+        <v>6.103896103896104</v>
+      </c>
+      <c r="H136">
+        <v>-0.02714567195702096</v>
+      </c>
+      <c r="I136">
+        <v>0.03905095426248666</v>
+      </c>
+      <c r="J136">
+        <v>-0.1052631578947367</v>
+      </c>
+      <c r="K136">
+        <v>0.1506849315068495</v>
+      </c>
+      <c r="L136">
+        <v>-0.05440394723766871</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136" t="b">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>0.07891941868257846</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137" t="s">
+        <v>150</v>
+      </c>
+      <c r="B137" t="s">
+        <v>175</v>
+      </c>
+      <c r="C137" t="s">
+        <v>177</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>207</v>
+      </c>
+      <c r="G137">
+        <v>8.961038961038961</v>
+      </c>
+      <c r="H137">
+        <v>0.006845228661283301</v>
+      </c>
+      <c r="I137">
+        <v>0.09932833340927213</v>
+      </c>
+      <c r="J137">
+        <v>-0.2315789473684211</v>
+      </c>
+      <c r="K137">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="L137">
+        <v>0.05217643442224709</v>
+      </c>
+      <c r="M137">
+        <v>10</v>
+      </c>
+      <c r="N137" t="b">
+        <v>1</v>
+      </c>
+      <c r="O137">
+        <v>1.627697135528849E-05</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" t="s">
+        <v>151</v>
+      </c>
+      <c r="B138" t="s">
+        <v>175</v>
+      </c>
+      <c r="C138" t="s">
+        <v>177</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>125</v>
+      </c>
+      <c r="G138">
+        <v>5.411255411255411</v>
+      </c>
+      <c r="H138">
+        <v>0.1136526969439227</v>
+      </c>
+      <c r="I138">
+        <v>0.5654015056086011</v>
+      </c>
+      <c r="J138">
+        <v>-0.6119791666666666</v>
+      </c>
+      <c r="K138">
+        <v>2.530201342281879</v>
+      </c>
+      <c r="L138">
+        <v>0.04745125461685368</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138" t="b">
+        <v>1</v>
+      </c>
+      <c r="O138">
+        <v>0.03157780623073547</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139" t="s">
+        <v>152</v>
+      </c>
+      <c r="B139" t="s">
+        <v>175</v>
+      </c>
+      <c r="C139" t="s">
+        <v>177</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>142</v>
+      </c>
+      <c r="G139">
+        <v>6.147186147186147</v>
+      </c>
+      <c r="H139">
+        <v>-0.005179340235432412</v>
+      </c>
+      <c r="I139">
+        <v>0.01238438239801622</v>
+      </c>
+      <c r="J139">
+        <v>-0.04109589041095874</v>
+      </c>
+      <c r="K139">
+        <v>0.05405405405405417</v>
+      </c>
+      <c r="L139">
+        <v>-0.04575328606109234</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139" t="b">
+        <v>1</v>
+      </c>
+      <c r="O139">
+        <v>5.199590173357385E-09</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="A140" t="s">
+        <v>153</v>
+      </c>
+      <c r="B140" t="s">
+        <v>175</v>
+      </c>
+      <c r="C140" t="s">
+        <v>177</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>173</v>
+      </c>
+      <c r="G140">
+        <v>7.489177489177489</v>
+      </c>
+      <c r="H140">
+        <v>0.007625356740421927</v>
+      </c>
+      <c r="I140">
+        <v>0.4024717602284655</v>
+      </c>
+      <c r="J140">
+        <v>-0.5434782608695652</v>
+      </c>
+      <c r="K140">
+        <v>1.866666666666667</v>
+      </c>
+      <c r="L140">
+        <v>-0.04349614730180635</v>
+      </c>
+      <c r="M140">
+        <v>2</v>
+      </c>
+      <c r="N140" t="b">
+        <v>1</v>
+      </c>
+      <c r="O140">
+        <v>0.009541173395764714</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141" t="s">
+        <v>154</v>
+      </c>
+      <c r="B141" t="s">
+        <v>175</v>
+      </c>
+      <c r="C141" t="s">
+        <v>177</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>119</v>
+      </c>
+      <c r="G141">
+        <v>5.151515151515151</v>
+      </c>
+      <c r="H141">
+        <v>0.2453437789265409</v>
+      </c>
+      <c r="I141">
+        <v>1.078522514484229</v>
+      </c>
+      <c r="J141">
+        <v>-1.153846153846154</v>
+      </c>
+      <c r="K141">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="L141">
+        <v>-0.04260354340784604</v>
+      </c>
+      <c r="M141">
+        <v>10</v>
+      </c>
+      <c r="N141" t="b">
+        <v>1</v>
+      </c>
+      <c r="O141">
+        <v>0.04398351776106444</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="A142" t="s">
+        <v>155</v>
+      </c>
+      <c r="B142" t="s">
+        <v>175</v>
+      </c>
+      <c r="C142" t="s">
+        <v>177</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>195</v>
+      </c>
+      <c r="G142">
+        <v>8.441558441558442</v>
+      </c>
+      <c r="H142">
+        <v>-2.368847686736596E-05</v>
+      </c>
+      <c r="I142">
+        <v>0.001176808606638217</v>
+      </c>
+      <c r="J142">
+        <v>-0.0144146640021845</v>
+      </c>
+      <c r="K142">
+        <v>0.0152264473312913</v>
+      </c>
+      <c r="L142">
+        <v>-0.04235472615101882</v>
+      </c>
+      <c r="M142">
+        <v>10</v>
+      </c>
+      <c r="N142" t="b">
+        <v>1</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143" t="s">
+        <v>156</v>
+      </c>
+      <c r="B143" t="s">
+        <v>175</v>
+      </c>
+      <c r="C143" t="s">
+        <v>177</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>200</v>
+      </c>
+      <c r="G143">
+        <v>8.658008658008658</v>
+      </c>
+      <c r="H143">
+        <v>-0.02306565203835935</v>
+      </c>
+      <c r="I143">
+        <v>0.1444230449029739</v>
+      </c>
+      <c r="J143">
+        <v>-0.3608247422680406</v>
+      </c>
+      <c r="K143">
+        <v>0.3536585365853675</v>
+      </c>
+      <c r="L143">
+        <v>-0.04077380478514478</v>
+      </c>
+      <c r="M143">
+        <v>10</v>
+      </c>
+      <c r="N143" t="b">
+        <v>1</v>
+      </c>
+      <c r="O143">
+        <v>0.0265844562099443</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144" t="s">
+        <v>157</v>
+      </c>
+      <c r="B144" t="s">
+        <v>175</v>
+      </c>
+      <c r="C144" t="s">
+        <v>177</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>175</v>
+      </c>
+      <c r="G144">
+        <v>7.575757575757576</v>
+      </c>
+      <c r="H144">
+        <v>-0.01078735872728707</v>
+      </c>
+      <c r="I144">
+        <v>0.2104076389268363</v>
+      </c>
+      <c r="J144">
+        <v>-0.4347826086956522</v>
+      </c>
+      <c r="K144">
+        <v>1.181818181818182</v>
+      </c>
+      <c r="L144">
+        <v>0.03738597531462119</v>
+      </c>
+      <c r="M144">
+        <v>10</v>
+      </c>
+      <c r="N144" t="b">
+        <v>1</v>
+      </c>
+      <c r="O144">
+        <v>0.0001973598565811263</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
+      <c r="A145" t="s">
+        <v>158</v>
+      </c>
+      <c r="B145" t="s">
+        <v>175</v>
+      </c>
+      <c r="C145" t="s">
+        <v>177</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>223</v>
+      </c>
+      <c r="G145">
+        <v>9.653679653679653</v>
+      </c>
+      <c r="H145">
+        <v>0.03676974725451606</v>
+      </c>
+      <c r="I145">
+        <v>0.2536794409773232</v>
+      </c>
+      <c r="J145">
+        <v>-0.4387464387464388</v>
+      </c>
+      <c r="K145">
+        <v>1.403973509933774</v>
+      </c>
+      <c r="L145">
+        <v>0.0366576941146057</v>
+      </c>
+      <c r="M145">
+        <v>2</v>
+      </c>
+      <c r="N145" t="b">
+        <v>1</v>
+      </c>
+      <c r="O145">
+        <v>1.614939150179105E-05</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
+      <c r="A146" t="s">
+        <v>159</v>
+      </c>
+      <c r="B146" t="s">
+        <v>175</v>
+      </c>
+      <c r="C146" t="s">
+        <v>177</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>173</v>
+      </c>
+      <c r="G146">
+        <v>7.489177489177489</v>
+      </c>
+      <c r="H146">
+        <v>-7.637815581888544E-06</v>
+      </c>
+      <c r="I146">
+        <v>0.0008338574898659732</v>
+      </c>
+      <c r="J146">
+        <v>-0.01870961965672822</v>
+      </c>
+      <c r="K146">
+        <v>0.01978397075379629</v>
+      </c>
+      <c r="L146">
+        <v>-0.03584180228592954</v>
+      </c>
+      <c r="M146">
+        <v>3</v>
+      </c>
+      <c r="N146" t="b">
+        <v>1</v>
+      </c>
+      <c r="O146">
+        <v>4.473789194847431E-06</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
+      <c r="A147" t="s">
+        <v>160</v>
+      </c>
+      <c r="B147" t="s">
+        <v>175</v>
+      </c>
+      <c r="C147" t="s">
+        <v>177</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>134</v>
+      </c>
+      <c r="G147">
+        <v>5.800865800865801</v>
+      </c>
+      <c r="H147">
+        <v>-1.829761846435025E-05</v>
+      </c>
+      <c r="I147">
+        <v>0.0002230997112544333</v>
+      </c>
+      <c r="J147">
+        <v>-0.001874414794350299</v>
+      </c>
+      <c r="K147">
+        <v>0.00371747640013248</v>
+      </c>
+      <c r="L147">
+        <v>-0.02912985068153515</v>
+      </c>
+      <c r="M147">
+        <v>3</v>
+      </c>
+      <c r="N147" t="b">
+        <v>1</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
+      <c r="A148" t="s">
+        <v>161</v>
+      </c>
+      <c r="B148" t="s">
+        <v>175</v>
+      </c>
+      <c r="C148" t="s">
+        <v>177</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>174</v>
+      </c>
+      <c r="G148">
+        <v>7.532467532467532</v>
+      </c>
+      <c r="H148">
+        <v>0.07435447634405509</v>
+      </c>
+      <c r="I148">
+        <v>0.7230916793423173</v>
+      </c>
+      <c r="J148">
+        <v>-0.631578947368421</v>
+      </c>
+      <c r="K148">
+        <v>2.75</v>
+      </c>
+      <c r="L148">
+        <v>-0.02603155910908703</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148" t="b">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>0.07143685486162031</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="A149" t="s">
+        <v>162</v>
+      </c>
+      <c r="B149" t="s">
+        <v>175</v>
+      </c>
+      <c r="C149" t="s">
+        <v>177</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>195</v>
+      </c>
+      <c r="G149">
+        <v>8.441558441558442</v>
+      </c>
+      <c r="H149">
+        <v>9.645323796705419E-05</v>
+      </c>
+      <c r="I149">
+        <v>0.001809448476164713</v>
+      </c>
+      <c r="J149">
+        <v>-0.0126643073182251</v>
+      </c>
+      <c r="K149">
+        <v>0.04535559102091291</v>
+      </c>
+      <c r="L149">
+        <v>0.02223760451233276</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149" t="b">
+        <v>1</v>
+      </c>
+      <c r="O149">
+        <v>2.438995851590109E-12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
+      <c r="A150" t="s">
+        <v>163</v>
+      </c>
+      <c r="B150" t="s">
+        <v>175</v>
+      </c>
+      <c r="C150" t="s">
+        <v>177</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>207</v>
+      </c>
+      <c r="G150">
+        <v>8.961038961038961</v>
+      </c>
+      <c r="H150">
+        <v>2.887011396830843E-06</v>
+      </c>
+      <c r="I150">
+        <v>0.0008590625201414384</v>
+      </c>
+      <c r="J150">
+        <v>-0.01189310351395219</v>
+      </c>
+      <c r="K150">
+        <v>0.0154741965825974</v>
+      </c>
+      <c r="L150">
+        <v>0.02199078720329921</v>
+      </c>
+      <c r="M150">
+        <v>6</v>
+      </c>
+      <c r="N150" t="b">
+        <v>1</v>
+      </c>
+      <c r="O150">
+        <v>1.196067494906816E-08</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
+      <c r="A151" t="s">
+        <v>164</v>
+      </c>
+      <c r="B151" t="s">
+        <v>175</v>
+      </c>
+      <c r="C151" t="s">
+        <v>177</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>188</v>
+      </c>
+      <c r="G151">
+        <v>8.138528138528137</v>
+      </c>
+      <c r="H151">
+        <v>0.02435090556468308</v>
+      </c>
+      <c r="I151">
+        <v>0.5096181434489022</v>
+      </c>
+      <c r="J151">
+        <v>-1.125</v>
+      </c>
+      <c r="K151">
+        <v>5</v>
+      </c>
+      <c r="L151">
+        <v>-0.01831681160507354</v>
+      </c>
+      <c r="M151">
+        <v>10</v>
+      </c>
+      <c r="N151" t="b">
+        <v>1</v>
+      </c>
+      <c r="O151">
+        <v>2.102884245979374E-12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
+      <c r="A152" t="s">
+        <v>165</v>
+      </c>
+      <c r="B152" t="s">
+        <v>175</v>
+      </c>
+      <c r="C152" t="s">
+        <v>177</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>163</v>
+      </c>
+      <c r="G152">
+        <v>7.056277056277056</v>
+      </c>
+      <c r="H152">
+        <v>5.00261355372878E-05</v>
+      </c>
+      <c r="I152">
+        <v>0.02381514668286528</v>
+      </c>
+      <c r="J152">
+        <v>-0.1683353148192146</v>
+      </c>
+      <c r="K152">
+        <v>1.073610986462692</v>
+      </c>
+      <c r="L152">
+        <v>0.01781336852874893</v>
+      </c>
+      <c r="M152">
+        <v>6</v>
+      </c>
+      <c r="N152" t="b">
+        <v>1</v>
+      </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
+      <c r="A153" t="s">
+        <v>166</v>
+      </c>
+      <c r="B153" t="s">
+        <v>175</v>
+      </c>
+      <c r="C153" t="s">
+        <v>177</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>195</v>
+      </c>
+      <c r="G153">
+        <v>8.441558441558442</v>
+      </c>
+      <c r="H153">
+        <v>-1.266175500795986E-06</v>
+      </c>
+      <c r="I153">
+        <v>0.008959163413759895</v>
+      </c>
+      <c r="J153">
+        <v>-0.176415361482654</v>
+      </c>
+      <c r="K153">
+        <v>0.1422738192535045</v>
+      </c>
+      <c r="L153">
+        <v>0.01770202650583798</v>
+      </c>
+      <c r="M153">
+        <v>4</v>
+      </c>
+      <c r="N153" t="b">
+        <v>1</v>
+      </c>
+      <c r="O153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
+      <c r="A154" t="s">
+        <v>167</v>
+      </c>
+      <c r="B154" t="s">
+        <v>175</v>
+      </c>
+      <c r="C154" t="s">
+        <v>177</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>229</v>
+      </c>
+      <c r="G154">
+        <v>9.913419913419913</v>
+      </c>
+      <c r="H154">
+        <v>0.09476854366333658</v>
+      </c>
+      <c r="I154">
+        <v>0.44761067178493</v>
+      </c>
+      <c r="J154">
+        <v>-0.5129533678756477</v>
+      </c>
+      <c r="K154">
+        <v>1.986754966887417</v>
+      </c>
+      <c r="L154">
+        <v>0.01735594721744778</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154" t="b">
+        <v>1</v>
+      </c>
+      <c r="O154">
+        <v>0.01365791216256757</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
+      <c r="A155" t="s">
+        <v>168</v>
+      </c>
+      <c r="B155" t="s">
+        <v>175</v>
+      </c>
+      <c r="C155" t="s">
+        <v>177</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>207</v>
+      </c>
+      <c r="G155">
+        <v>8.961038961038961</v>
+      </c>
+      <c r="H155">
+        <v>3.327490982865067E-06</v>
+      </c>
+      <c r="I155">
+        <v>0.0008682211002528924</v>
+      </c>
+      <c r="J155">
+        <v>-0.00854666784011196</v>
+      </c>
+      <c r="K155">
+        <v>0.01315487910512853</v>
+      </c>
+      <c r="L155">
+        <v>0.01669857879861254</v>
+      </c>
+      <c r="M155">
+        <v>4</v>
+      </c>
+      <c r="N155" t="b">
+        <v>1</v>
+      </c>
+      <c r="O155">
+        <v>3.199050460545735E-05</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
+      <c r="A156" t="s">
+        <v>169</v>
+      </c>
+      <c r="B156" t="s">
+        <v>175</v>
+      </c>
+      <c r="C156" t="s">
+        <v>177</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>227</v>
+      </c>
+      <c r="G156">
+        <v>9.826839826839826</v>
+      </c>
+      <c r="H156">
+        <v>0.2987152847450073</v>
+      </c>
+      <c r="I156">
+        <v>0.9453884914914306</v>
+      </c>
+      <c r="J156">
+        <v>-0.620958751393534</v>
+      </c>
+      <c r="K156">
+        <v>4.649006622516556</v>
+      </c>
+      <c r="L156">
+        <v>-0.0134838779456978</v>
+      </c>
+      <c r="M156">
+        <v>10</v>
+      </c>
+      <c r="N156" t="b">
+        <v>0</v>
+      </c>
+      <c r="O156">
+        <v>0.06400425883844169</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
+      <c r="A157" t="s">
+        <v>170</v>
+      </c>
+      <c r="B157" t="s">
+        <v>175</v>
+      </c>
+      <c r="C157" t="s">
+        <v>177</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>211</v>
+      </c>
+      <c r="G157">
+        <v>9.134199134199134</v>
+      </c>
+      <c r="H157">
+        <v>-0.0001855822651682726</v>
+      </c>
+      <c r="I157">
+        <v>0.02692991520727204</v>
+      </c>
+      <c r="J157">
+        <v>-0.55658599265357</v>
+      </c>
+      <c r="K157">
+        <v>0.4276238466846378</v>
+      </c>
+      <c r="L157">
+        <v>0.007116381801914698</v>
+      </c>
+      <c r="M157">
+        <v>10</v>
+      </c>
+      <c r="N157" t="b">
+        <v>1</v>
+      </c>
+      <c r="O157">
+        <v>4.872598487944492E-27</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
+      <c r="A158" t="s">
+        <v>171</v>
+      </c>
+      <c r="B158" t="s">
+        <v>175</v>
+      </c>
+      <c r="C158" t="s">
+        <v>177</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>231</v>
+      </c>
+      <c r="G158">
+        <v>10</v>
+      </c>
+      <c r="H158">
+        <v>0.0138001491742488</v>
+      </c>
+      <c r="I158">
+        <v>0.02327521355724436</v>
+      </c>
+      <c r="J158">
+        <v>-0.02418404514250405</v>
+      </c>
+      <c r="K158">
+        <v>0.08830583505387324</v>
+      </c>
+      <c r="L158">
+        <v>-0.006345443288341138</v>
+      </c>
+      <c r="M158">
+        <v>10</v>
+      </c>
+      <c r="N158" t="b">
+        <v>1</v>
+      </c>
+      <c r="O158">
+        <v>0.008882786700587699</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
+      <c r="A159" t="s">
+        <v>172</v>
+      </c>
+      <c r="B159" t="s">
+        <v>176</v>
+      </c>
+      <c r="C159" t="s">
+        <v>177</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>20</v>
+      </c>
+      <c r="G159">
+        <v>0.8658008658008658</v>
+      </c>
+      <c r="H159">
+        <v>0.5147186147186147</v>
+      </c>
+      <c r="I159">
+        <v>1.65590856036366</v>
+      </c>
+      <c r="J159">
+        <v>-0.5</v>
+      </c>
+      <c r="K159">
+        <v>4</v>
+      </c>
+      <c r="L159">
+        <v>-0.05155107616720026</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159" t="b">
+        <v>0</v>
+      </c>
+      <c r="O159">
+        <v>0.9021737015905149</v>
       </c>
     </row>
   </sheetData>
